--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE7C24-D60E-4D29-AE1B-A60A735D1552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B45D8-37A5-480F-98A0-6F614A014DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-310" yWindow="3910" windowWidth="19200" windowHeight="5800" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="ProviderSearch" sheetId="10" r:id="rId10"/>
     <sheet name="ProviderOptions" sheetId="11" r:id="rId11"/>
     <sheet name="FolioTask" sheetId="13" r:id="rId12"/>
+    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId13"/>
+    <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="212">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -647,6 +650,42 @@
   </si>
   <si>
     <t>Mediun</t>
+  </si>
+  <si>
+    <t>RECORD_ALERT_AND_TASK</t>
+  </si>
+  <si>
+    <t>DATA_CORRECTION_RECORD</t>
+  </si>
+  <si>
+    <t>AutoRFA ClericalWorker Ccosta</t>
+  </si>
+  <si>
+    <t>BACKGROUND_CHECKS_TAB</t>
+  </si>
+  <si>
+    <t>BACKGROUND_ENTITY</t>
+  </si>
+  <si>
+    <t>Tribe/Tribal Agency</t>
+  </si>
+  <si>
+    <t>PERSON_NAME</t>
+  </si>
+  <si>
+    <t>REQUESTED_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>BACKGROUND_CHECK_TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED_MANAGER</t>
+  </si>
+  <si>
+    <t>CACI</t>
+  </si>
+  <si>
+    <t>AutoCase4201 worker 4201</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1175,6 +1214,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1184,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1528,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1539,17 +1628,17 @@
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="37.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="10" width="24.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="6" max="7" width="27.6328125" customWidth="1"/>
+    <col min="8" max="8" width="20.90625" customWidth="1"/>
+    <col min="9" max="9" width="41.26953125" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,31 +1658,34 @@
         <v>184</v>
       </c>
       <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>190</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>191</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
@@ -1613,27 +1705,32 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>166</v>
       </c>
@@ -1655,64 +1752,118 @@
       <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1720,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1805,6 +1956,180 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DA93A8-D462-44EB-A44D-C56C3C43850D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82CAF12-969E-4985-82B8-FF466EE7F0EB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3482F0-3B8F-445E-933E-A1C9038CD345}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3008,6 +3333,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
     <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
@@ -3187,24 +3529,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5344EE99-1643-4771-92DD-8E498C06ACE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3220,28 +3569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B45D8-37A5-480F-98A0-6F614A014DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F6DDC-F6BE-4AF2-B262-92444DF68D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-310" yWindow="3910" windowWidth="19200" windowHeight="5800" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="13" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="224">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Court Ordered Placement</t>
   </si>
   <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
     <t>RECIPIENT_STATUS</t>
   </si>
   <si>
@@ -652,6 +649,45 @@
     <t>Mediun</t>
   </si>
   <si>
+    <t>CREATE_MANUAL</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME1</t>
+  </si>
+  <si>
+    <t>Placement Stability</t>
+  </si>
+  <si>
+    <t>folioPersonName2</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
+    <t>CL_COLLATERAL_RB</t>
+  </si>
+  <si>
+    <t>CL_PLACEMENT_RB</t>
+  </si>
+  <si>
+    <t>CONTACT_END_DATETIME</t>
+  </si>
+  <si>
+    <t>DESCRIBE_PLACEMENT_CONCERNS</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
     <t>RECORD_ALERT_AND_TASK</t>
   </si>
   <si>
@@ -667,19 +703,19 @@
     <t>BACKGROUND_ENTITY</t>
   </si>
   <si>
+    <t>PERSON_NAME</t>
+  </si>
+  <si>
+    <t>REQUESTED_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>BACKGROUND_CHECK_TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED_MANAGER</t>
+  </si>
+  <si>
     <t>Tribe/Tribal Agency</t>
-  </si>
-  <si>
-    <t>PERSON_NAME</t>
-  </si>
-  <si>
-    <t>REQUESTED_DATE_AND_TIME</t>
-  </si>
-  <si>
-    <t>BACKGROUND_CHECK_TYPE</t>
-  </si>
-  <si>
-    <t>REQUESTED_MANAGER</t>
   </si>
   <si>
     <t>CACI</t>
@@ -764,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,6 +811,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1132,19 +1170,19 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
@@ -1190,10 +1228,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>40</v>
@@ -1240,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>40</v>
@@ -1271,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,12 +1332,12 @@
     <col min="14" max="14" width="27.54296875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="21.36328125" customWidth="1"/>
-    <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="19" width="21.36328125" customWidth="1"/>
-    <col min="20" max="20" width="9.90625" customWidth="1"/>
+    <col min="17" max="19" width="31" customWidth="1"/>
+    <col min="20" max="21" width="21.36328125" customWidth="1"/>
+    <col min="22" max="22" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -1319,51 +1357,69 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
         <v>168</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>169</v>
-      </c>
-      <c r="J1" t="s">
-        <v>170</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
       </c>
       <c r="L1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>173</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>174</v>
       </c>
-      <c r="P1" t="s">
-        <v>175</v>
-      </c>
       <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1378,16 +1434,16 @@
         <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>34</v>
@@ -1411,21 +1467,30 @@
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="U2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1440,16 +1505,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>34</v>
@@ -1473,21 +1538,30 @@
         <v>40</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="U3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1502,16 +1576,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>34</v>
@@ -1535,19 +1609,28 @@
         <v>40</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="U4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1564,16 +1647,16 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>34</v>
@@ -1597,16 +1680,34 @@
         <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" s="11">
+        <v>97818</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1619,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1628,14 +1729,14 @@
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="37.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="7" width="27.6328125" customWidth="1"/>
-    <col min="8" max="8" width="20.90625" customWidth="1"/>
-    <col min="9" max="9" width="41.26953125" customWidth="1"/>
-    <col min="10" max="10" width="32.26953125" customWidth="1"/>
-    <col min="11" max="11" width="24.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="10" width="24.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -1649,45 +1750,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" t="s">
-        <v>181</v>
-      </c>
       <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>187</v>
-      </c>
-      <c r="M1" t="s">
-        <v>188</v>
       </c>
       <c r="N1" t="s">
         <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1705,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>40</v>
@@ -1720,19 +1821,19 @@
         <v>35</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1756,16 +1857,16 @@
         <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
@@ -1777,7 +1878,7 @@
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1795,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>5</v>
@@ -1817,53 +1918,52 @@
         <v>5</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1871,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1896,25 +1996,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" t="s">
-        <v>197</v>
-      </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -1922,7 +2022,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1934,13 +2034,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
@@ -1961,20 +2061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DA93A8-D462-44EB-A44D-C56C3C43850D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1987,13 +2081,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -2001,7 +2095,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2016,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -2028,23 +2122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82CAF12-969E-4985-82B8-FF466EE7F0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="24.90625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2057,25 +2142,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -2083,7 +2168,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2098,19 +2183,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>5</v>
@@ -2118,12 +2203,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3482F0-3B8F-445E-933E-A1C9038CD345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2138,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2162,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -2204,7 +2288,7 @@
         <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>28</v>
@@ -2299,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
@@ -2327,7 +2411,7 @@
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>5</v>
@@ -2341,7 +2425,7 @@
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2392,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
@@ -2408,7 +2492,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2451,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>26</v>
@@ -2460,16 +2544,16 @@
         <v>27</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -2533,7 +2617,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>36</v>
@@ -2544,17 +2628,17 @@
         <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="3"/>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -2615,16 +2699,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2633,64 +2717,64 @@
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>26</v>
@@ -2699,22 +2783,22 @@
         <v>27</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -2751,7 +2835,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>36</v>
@@ -2760,20 +2844,20 @@
         <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -2785,13 +2869,13 @@
         <v>5</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -2846,67 +2930,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>33</v>
@@ -2929,22 +3013,22 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
@@ -2956,16 +3040,16 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" t="s">
         <v>109</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>111</v>
-      </c>
-      <c r="R2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3108,16 +3192,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -3169,15 +3253,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3188,115 +3272,127 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3310,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3325,6 +3421,63 @@
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F6DDC-F6BE-4AF2-B262-92444DF68D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB2630-0FE7-47C1-96A5-E6BE377143C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="13" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId7"/>
     <sheet name="FolioPlacement" sheetId="8" r:id="rId8"/>
     <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId9"/>
-    <sheet name="ProviderSearch" sheetId="10" r:id="rId10"/>
+    <sheet name="FolioProviderSearch" sheetId="10" r:id="rId10"/>
     <sheet name="ProviderOptions" sheetId="11" r:id="rId11"/>
     <sheet name="FolioTask" sheetId="13" r:id="rId12"/>
     <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId13"/>
     <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="16" r:id="rId15"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="251">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -722,6 +722,87 @@
   </si>
   <si>
     <t>AutoCase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>ASSOCIATE</t>
+  </si>
+  <si>
+    <t>Option Willing to Accept</t>
+  </si>
+  <si>
+    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
+  </si>
+  <si>
+    <t>TASK_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>Caretaker Absence/Incapacity</t>
+  </si>
+  <si>
+    <t>Justice facility</t>
+  </si>
+  <si>
+    <t>QIAPPROVESSTRTPPLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALSTATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCOPTIONALNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURTAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Juvenile Hall</t>
+  </si>
+  <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>PLACEMENT_STABILITY_TAB</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_RISK</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIBE_PLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_CONTACT_LOG</t>
   </si>
 </sst>
 </file>
@@ -768,7 +849,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +868,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -800,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -813,6 +906,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,15 +1222,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -1299,6 +1401,56 @@
         <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1309,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1322,22 +1474,22 @@
     <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="42.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="21.36328125" customWidth="1"/>
-    <col min="17" max="19" width="31" customWidth="1"/>
-    <col min="20" max="21" width="21.36328125" customWidth="1"/>
-    <col min="22" max="22" width="9.90625" customWidth="1"/>
+    <col min="6" max="8" width="22.6328125" customWidth="1"/>
+    <col min="9" max="9" width="42.81640625" customWidth="1"/>
+    <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="23.7265625" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="27.54296875" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="21.36328125" customWidth="1"/>
+    <col min="18" max="20" width="31" customWidth="1"/>
+    <col min="21" max="22" width="21.36328125" customWidth="1"/>
+    <col min="23" max="23" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,64 +1512,67 @@
         <v>175</v>
       </c>
       <c r="H1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>170</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>171</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>172</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>173</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>210</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>199</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
@@ -1440,26 +1595,26 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
@@ -1467,19 +1622,19 @@
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="U2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>40</v>
+      <c r="W2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>40</v>
@@ -1487,8 +1642,11 @@
       <c r="Z2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AA2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1511,26 +1669,26 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>4</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1538,19 +1696,19 @@
         <v>40</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="U3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>40</v>
+      <c r="W3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>40</v>
@@ -1558,8 +1716,11 @@
       <c r="Z3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AA3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -1582,26 +1743,26 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1609,19 +1770,19 @@
         <v>40</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="U4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>40</v>
+      <c r="W4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>40</v>
@@ -1629,8 +1790,11 @@
       <c r="Z4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AA4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1652,27 +1816,27 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="3">
         <v>1234567890</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>4</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1680,17 +1844,17 @@
         <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="S5" s="11">
+      <c r="T5" s="11">
         <v>97818</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1701,12 +1865,98 @@
         <v>5</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1234512345</v>
+      </c>
+      <c r="N6" s="12">
+        <v>10</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="T6" s="12">
+        <v>97818</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1718,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1734,12 +1984,16 @@
     <col min="8" max="8" width="41.26953125" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="11" max="11" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1774,19 +2028,31 @@
         <v>190</v>
       </c>
       <c r="L1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="Q1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
@@ -1821,17 +2087,29 @@
         <v>35</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1866,17 +2144,29 @@
         <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -1913,15 +2203,27 @@
       <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="Q4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1953,13 +2255,57 @@
         <v>40</v>
       </c>
       <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>40</v>
+      <c r="O5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2125,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2208,31 +2554,111 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
+    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2308,9 +2734,32 @@
       <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2872,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -2480,6 +2929,107 @@
       </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +3042,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2595,42 +3145,46 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="11"/>
       <c r="P3" t="s">
         <v>157</v>
       </c>
@@ -2652,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2886,6 +3440,148 @@
       </c>
       <c r="AE2" s="1"/>
     </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3">
+        <v>28570</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4">
+        <v>28570</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2893,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2919,7 +3615,7 @@
     <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,29 +3670,32 @@
       <c r="R1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3050,6 +3749,65 @@
       </c>
       <c r="R2" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3253,15 +4011,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,121 +4036,124 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3406,77 +4167,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="R3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3488,40 +4252,36 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
-    <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
+    <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
+    <xsd:import namespace="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3529,57 +4289,91 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c1c420-9681-49d8-b218-968a87430846" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb87e36b-823b-4123-a7f7-e23d77fa1380" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3682,6 +4476,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
@@ -3694,26 +4497,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5344EE99-1643-4771-92DD-8E498C06ACE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3722,4 +4519,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB2630-0FE7-47C1-96A5-E6BE377143C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61553617-6975-4D40-99B7-29DD78EE1106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,13 @@
     <sheet name="FolioPlacement" sheetId="8" r:id="rId8"/>
     <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId9"/>
     <sheet name="FolioProviderSearch" sheetId="10" r:id="rId10"/>
-    <sheet name="ProviderOptions" sheetId="11" r:id="rId11"/>
-    <sheet name="FolioTask" sheetId="13" r:id="rId12"/>
-    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId13"/>
-    <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId14"/>
-    <sheet name="PlacementStability" sheetId="16" r:id="rId15"/>
+    <sheet name="ProviderOptionsDocuments" sheetId="17" r:id="rId11"/>
+    <sheet name="ProviderOptions" sheetId="11" r:id="rId12"/>
+    <sheet name="FolioTask" sheetId="13" r:id="rId13"/>
+    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId14"/>
+    <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId15"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId16"/>
+    <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="300">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -496,9 +498,6 @@
     <t>ELIGIBILITY_TAB</t>
   </si>
   <si>
-    <t>PRIMARY_REASON</t>
-  </si>
-  <si>
     <t>County Agency/Staff Worker</t>
   </si>
   <si>
@@ -803,6 +802,156 @@
   </si>
   <si>
     <t>NEW_CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COUNTRY_VALUE</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_CEBC</t>
+  </si>
+  <si>
+    <t>MINIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MAXIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MANUALLY_CREATE_PLACEMENT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME_AGAIN</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Qualified Individual Assessment Report</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE</t>
+  </si>
+  <si>
+    <t>DATE_OF_REPORTED_INSTABILITY</t>
+  </si>
+  <si>
+    <t>past14days</t>
+  </si>
+  <si>
+    <t>PRIMARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED_WITH_THE_CHILD_AT_ANY_POINT</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION_STATUS</t>
+  </si>
+  <si>
+    <t>COUNTY_STAFF</t>
+  </si>
+  <si>
+    <t>autoCMworker451 Ccost</t>
+  </si>
+  <si>
+    <t>OVERSTAY_REPORT_TAB</t>
+  </si>
+  <si>
+    <t>CARE_SETTINGS</t>
+  </si>
+  <si>
+    <t>Crisis Nursery</t>
+  </si>
+  <si>
+    <t>OVERSTAY_REASON</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN</t>
+  </si>
+  <si>
+    <t>CHILDNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>NAMEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>FACILITYCONTACTINFORMATION_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTSTARTDATETIME_VERIFY</t>
+  </si>
+  <si>
+    <t>NUMBEROFDAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEPIENT</t>
+  </si>
+  <si>
+    <t>RECEPIENT_LINK</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>TITLE_IV_AGENCY</t>
+  </si>
+  <si>
+    <t>07 Contra Costa</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTCREATEDDATE_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -849,7 +998,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +1029,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -893,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,12 +1057,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,9 +1398,11 @@
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1272,25 +1434,34 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1330,10 +1501,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>40</v>
@@ -1350,11 +1521,20 @@
       <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1380,10 +1560,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>40</v>
@@ -1401,57 +1581,75 @@
         <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>5</v>
+      <c r="I5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,18 +1676,26 @@
     <col min="9" max="9" width="42.81640625" customWidth="1"/>
     <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="23.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" customWidth="1"/>
-    <col min="15" max="15" width="27.54296875" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="21.36328125" customWidth="1"/>
-    <col min="18" max="20" width="31" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="21.36328125" customWidth="1"/>
+    <col min="17" max="20" width="31" customWidth="1"/>
     <col min="21" max="22" width="21.36328125" customWidth="1"/>
     <col min="23" max="23" width="9.90625" customWidth="1"/>
+    <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -1509,22 +1715,22 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>169</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
       </c>
       <c r="M1" t="s">
         <v>170</v>
@@ -1539,16 +1745,16 @@
         <v>173</v>
       </c>
       <c r="Q1" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="S1" t="s">
         <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U1" t="s">
         <v>69</v>
@@ -1560,21 +1766,48 @@
         <v>26</v>
       </c>
       <c r="X1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1598,23 +1831,23 @@
         <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
+      <c r="L2" s="5">
+        <v>1234567890</v>
       </c>
       <c r="M2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="N2" s="5">
         <v>4</v>
       </c>
+      <c r="N2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
@@ -1622,10 +1855,10 @@
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>5</v>
@@ -1645,10 +1878,37 @@
       <c r="AA2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AB2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1672,23 +1932,23 @@
         <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>34</v>
+      <c r="L3" s="5">
+        <v>1234567890</v>
       </c>
       <c r="M3" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="N3" s="5">
         <v>4</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1696,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>5</v>
@@ -1719,10 +1979,37 @@
       <c r="AA3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AB3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1746,23 +2033,23 @@
         <v>40</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
+      <c r="L4" s="5">
+        <v>1234567890</v>
       </c>
       <c r="M4" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="N4" s="5">
         <v>4</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1770,10 +2057,10 @@
         <v>40</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>5</v>
@@ -1793,8 +2080,35 @@
       <c r="AA4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AB4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>85</v>
@@ -1816,147 +2130,201 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="T5" s="10">
+        <v>97818</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="L6" s="11">
+        <v>1234512345</v>
+      </c>
+      <c r="M6" s="11">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="T5" s="11">
+      <c r="R6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="T6" s="11">
         <v>97818</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1234512345</v>
-      </c>
-      <c r="N6" s="12">
-        <v>10</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="T6" s="12">
-        <v>97818</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="12" t="s">
+      <c r="U6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1967,11 +2335,141 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD748B5-5EB5-4EF0-88DC-9D96EA72FC2E}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,7 +2491,7 @@
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,57 +2502,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
-        <v>180</v>
-      </c>
       <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>186</v>
-      </c>
-      <c r="N1" t="s">
-        <v>187</v>
       </c>
       <c r="O1" t="s">
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" t="s">
         <v>228</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>229</v>
       </c>
-      <c r="S1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="T1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2072,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>40</v>
@@ -2090,14 +2591,14 @@
         <v>40</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>40</v>
@@ -2108,10 +2609,13 @@
       <c r="S2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="T2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2135,7 +2639,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>88</v>
@@ -2147,7 +2651,7 @@
         <v>40</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -2165,10 +2669,13 @@
       <c r="S3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="T3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2186,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>5</v>
@@ -2211,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>40</v>
@@ -2222,90 +2729,126 @@
       <c r="S4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="T4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>188</v>
+      <c r="K5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="P5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="12" t="s">
+      <c r="M6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>5</v>
+      <c r="S6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2313,11 +2856,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2354,13 +2897,13 @@
         <v>100</v>
       </c>
       <c r="H1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" t="s">
         <v>195</v>
       </c>
-      <c r="I1" t="s">
-        <v>196</v>
-      </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -2368,7 +2911,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2380,13 +2923,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
@@ -2406,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2427,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -2441,7 +2984,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2456,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -2467,7 +3010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2488,25 +3031,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>219</v>
-      </c>
-      <c r="J1" t="s">
-        <v>220</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -2514,7 +3057,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2529,19 +3072,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>5</v>
@@ -2552,12 +3095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2573,57 +3116,234 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>5</v>
+      <c r="J2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.08984375" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2635,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2714,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>28</v>
@@ -2735,28 +3455,28 @@
         <v>33</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -2832,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
@@ -2860,7 +3580,7 @@
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>5</v>
@@ -2874,7 +3594,7 @@
     </row>
     <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2925,110 +3645,110 @@
         <v>5</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="12" t="s">
+    <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AC5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AD5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3039,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3094,16 +3814,16 @@
         <v>27</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -3145,57 +3865,116 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="M3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="P3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="P3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5</v>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3988,7 @@
   <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AK4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3469,7 +4248,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
@@ -3540,7 +4319,7 @@
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L4" t="s">
         <v>40</v>
@@ -3591,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3671,7 +4450,7 @@
         <v>101</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>27</v>
@@ -3807,7 +4586,13 @@
         <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4011,15 +4796,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,19 +4815,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -4060,7 +4845,7 @@
         <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>116</v>
@@ -4084,7 +4869,7 @@
         <v>122</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>26</v>
@@ -4152,8 +4937,11 @@
       <c r="AR1" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS1" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4166,81 +4954,87 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="AS2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="11" t="s">
+      <c r="W3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4250,16 +5044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -4476,7 +5260,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4485,24 +5269,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4521,10 +5298,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61553617-6975-4D40-99B7-29DD78EE1106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331D8A9-69BE-4A84-84D7-612556626ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -30,8 +30,19 @@
     <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId15"/>
     <sheet name="PlacementStability" sheetId="16" r:id="rId16"/>
     <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId17"/>
+    <sheet name="EligibilityDetails" sheetId="19" r:id="rId18"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId19"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId20"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId21"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId22"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
+    <sheet name="EligibilityTask" sheetId="26" r:id="rId24"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId25"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId26"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId27"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="423">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -66,6 +77,51 @@
     <t>NEW_BTN</t>
   </si>
   <si>
+    <t>REMOVAL_TAB</t>
+  </si>
+  <si>
+    <t>REMOVAL_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>PRIMARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT_AT_REMOVAL</t>
+  </si>
+  <si>
+    <t>REMOVED_FROM</t>
+  </si>
+  <si>
+    <t>REMOVED_BY</t>
+  </si>
+  <si>
+    <t>PERSON_PRESENT_AT_THE_HOME</t>
+  </si>
+  <si>
+    <t>SECONDARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>FAMILY_CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED_WITH_THE_CHILD_AT_ANY_POINT</t>
+  </si>
+  <si>
+    <t>SAVE_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION_STATUS</t>
+  </si>
+  <si>
+    <t>COUNTY_STAFF</t>
+  </si>
+  <si>
     <t>testPOM</t>
   </si>
   <si>
@@ -75,28 +131,37 @@
     <t>testT4273</t>
   </si>
   <si>
-    <t>REMOVAL_TAB</t>
-  </si>
-  <si>
-    <t>REMOVAL_DATE_AND_TIME</t>
-  </si>
-  <si>
     <t>today</t>
   </si>
   <si>
-    <t>ENVIRONMENT_AT_REMOVAL</t>
-  </si>
-  <si>
     <t>Exploitation</t>
   </si>
   <si>
     <t>Adoptive Placement</t>
   </si>
   <si>
-    <t>REMOVED_FROM</t>
-  </si>
-  <si>
-    <t>REMOVED_BY</t>
+    <t>folioPersonName1</t>
+  </si>
+  <si>
+    <t>County Agency/Staff Worker</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>autoCMworker451 Ccost</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>Caretaker Absence/Incapacity</t>
+  </si>
+  <si>
+    <t>Justice facility</t>
+  </si>
+  <si>
+    <t>CHILD_LOCATIONS_TAB</t>
   </si>
   <si>
     <t>PLACEMENT_RB</t>
@@ -132,12 +197,12 @@
     <t>ARE_ALL_SIBLINGS_PLACED_TOGETHER</t>
   </si>
   <si>
-    <t>SAVE_BTN</t>
-  </si>
-  <si>
     <t>VIEWALL</t>
   </si>
   <si>
+    <t>CHILD_LOCATION_ID</t>
+  </si>
+  <si>
     <t>CHILD_LOCATION_RECORD</t>
   </si>
   <si>
@@ -156,6 +221,30 @@
     <t>HEADER_END_TIME</t>
   </si>
   <si>
+    <t>QIAPPROVESSTRTPPLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALSTATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCOPTIONALNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURTAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
     <t>autoName</t>
   </si>
   <si>
@@ -174,12 +263,24 @@
     <t>Placed with All</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>PLACEMENT_NAME1</t>
+  </si>
+  <si>
+    <t>CLO_ID1</t>
+  </si>
+  <si>
+    <t>testT4275</t>
   </si>
   <si>
     <t>STRTP</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Folio ChildLocationsSTRTPID</t>
+  </si>
+  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -207,18 +308,57 @@
     <t>DATETIME_ACKNOWLEDGEMENT</t>
   </si>
   <si>
+    <t>RECIPIENT_STATUS</t>
+  </si>
+  <si>
+    <t>DETAILS_ID</t>
+  </si>
+  <si>
+    <t>DETAILS_RECORD</t>
+  </si>
+  <si>
+    <t>EXEMPTION_ID</t>
+  </si>
+  <si>
+    <t>EXEMPTION_RECORD</t>
+  </si>
+  <si>
+    <t>HEADER_REPORT_ID</t>
+  </si>
+  <si>
+    <t>HEADER_WAIVER_REASON</t>
+  </si>
+  <si>
+    <t>HEADER_WAIVER_DATE</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_VERIFY</t>
+  </si>
+  <si>
     <t>Certified Mail</t>
   </si>
   <si>
     <t>Court Ordered Placement</t>
   </si>
   <si>
-    <t>RECIPIENT_STATUS</t>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>past14days</t>
   </si>
   <si>
     <t>Received</t>
   </si>
   <si>
+    <t>FOL_14DayNoticeID</t>
+  </si>
+  <si>
+    <t>FOL_14DayExemptionID</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
     <t>ABSENCES_TAB</t>
   </si>
   <si>
@@ -318,7 +458,7 @@
     <t>Newport</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Juvenile Hall</t>
   </si>
   <si>
     <t>PLACEMENT_PRESERVATION_STRATEGY_TAB</t>
@@ -360,6 +500,9 @@
     <t>ASSIGNEE_TYPE</t>
   </si>
   <si>
+    <t>ASSIGNED_TO</t>
+  </si>
+  <si>
     <t>PPS_RECORD</t>
   </si>
   <si>
@@ -390,6 +533,30 @@
     <t>People</t>
   </si>
   <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TAB</t>
+  </si>
+  <si>
+    <t>PLACEMENMT_PREFERENCES_NEEDS_TAB</t>
+  </si>
+  <si>
+    <t>ELIGIBILITY_TAB</t>
+  </si>
+  <si>
+    <t>CONTACT_LOG_TAB</t>
+  </si>
+  <si>
+    <t>NEW_CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>CL_COLLATERAL_RB</t>
+  </si>
+  <si>
+    <t>CL_PLACEMENT_RB</t>
+  </si>
+  <si>
     <t>CONTACT_PURPOSE</t>
   </si>
   <si>
@@ -402,6 +569,9 @@
     <t>CONTACT_START_DATETIME</t>
   </si>
   <si>
+    <t>CONTACT_END_DATETIME</t>
+  </si>
+  <si>
     <t>ON_BEHALF_OF_CHILD</t>
   </si>
   <si>
@@ -423,6 +593,9 @@
     <t>NOTES</t>
   </si>
   <si>
+    <t>DESCRIBE_PLACEMENT_CONCERNS</t>
+  </si>
+  <si>
     <t>CONTACTLOG_TRIBAL_TAB</t>
   </si>
   <si>
@@ -486,72 +659,30 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
-    <t>PLACEMENT_TAB</t>
-  </si>
-  <si>
-    <t>CHILD_LOCATIONS_TAB</t>
-  </si>
-  <si>
-    <t>PLACEMENMT_PREFERENCES_NEEDS_TAB</t>
-  </si>
-  <si>
-    <t>ELIGIBILITY_TAB</t>
-  </si>
-  <si>
-    <t>County Agency/Staff Worker</t>
-  </si>
-  <si>
-    <t>CLO_ID1</t>
-  </si>
-  <si>
-    <t>CHILD_LOCATION_ID</t>
-  </si>
-  <si>
-    <t>DETAILS_ID</t>
-  </si>
-  <si>
-    <t>DETAILS_RECORD</t>
-  </si>
-  <si>
-    <t>EXEMPTION_ID</t>
-  </si>
-  <si>
-    <t>EXEMPTION_RECORD</t>
-  </si>
-  <si>
-    <t>FOL_14DayExemptionID</t>
-  </si>
-  <si>
-    <t>FOL_14DayNoticeID</t>
-  </si>
-  <si>
-    <t>CONTACT_LOG_TAB</t>
-  </si>
-  <si>
-    <t>PERSON_PRESENT_AT_THE_HOME</t>
-  </si>
-  <si>
-    <t>SECONDARY_REASON_FOR_REMOVAL</t>
-  </si>
-  <si>
-    <t>PERSON_WHO_LIVED</t>
-  </si>
-  <si>
-    <t>CHILD_CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t>FAMILY_CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t>folioPersonName1</t>
-  </si>
-  <si>
-    <t>testT4275</t>
+    <t>DATE_OF_REPORTED_INSTABILITY</t>
+  </si>
+  <si>
+    <t>Placement Stability</t>
+  </si>
+  <si>
+    <t>folioPersonName2</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>randomText</t>
   </si>
   <si>
     <t>PROVIDER_SEARCH</t>
   </si>
   <si>
+    <t>SEARCH_BTN</t>
+  </si>
+  <si>
+    <t>ASSOCIATE</t>
+  </si>
+  <si>
     <t>PLACEMENT_OPTION_DETERMINEATION_STATUS</t>
   </si>
   <si>
@@ -576,16 +707,103 @@
     <t>ADDRESS_DESCRIPTION</t>
   </si>
   <si>
-    <t>SEARCH_BTN</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+  </si>
+  <si>
+    <t>CREATE_MANUAL</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COUNTRY_VALUE</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_CEBC</t>
+  </si>
+  <si>
+    <t>MINIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MAXIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MANUALLY_CREATE_PLACEMENT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME_AGAIN</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Group Home(GH)</t>
   </si>
   <si>
     <t>123 1/2 1st Ave Nederland TX 77627</t>
   </si>
   <si>
-    <t>Group Home(GH)</t>
-  </si>
-  <si>
-    <t>Accepted</t>
+    <t>Resource Family Home</t>
+  </si>
+  <si>
+    <t>Tribally Approved Home</t>
+  </si>
+  <si>
+    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
+    <t>Option Willing to Accept</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Qualified Individual Assessment Report</t>
   </si>
   <si>
     <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
@@ -594,99 +812,66 @@
     <t>PROVIDER_OPTIONS</t>
   </si>
   <si>
+    <t>PLACEMENT_OPTIONS_RECORD</t>
+  </si>
+  <si>
+    <t>EMERGENCY_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>OTHER_REASON</t>
+  </si>
+  <si>
     <t>PROVIDER_OPTIONID</t>
   </si>
   <si>
+    <t>TASK_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE</t>
+  </si>
+  <si>
+    <t>Home is unsafe</t>
+  </si>
+  <si>
     <t>ProviderOption_ID1</t>
   </si>
   <si>
-    <t>PLACEMENT_OPTIONS_RECORD</t>
-  </si>
-  <si>
-    <t>EMERGENCY_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>OTHER_REASON</t>
-  </si>
-  <si>
-    <t>Home is unsafe</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
-  </si>
-  <si>
     <t>Open to Future Placement</t>
   </si>
   <si>
-    <t>Resource Family Home</t>
-  </si>
-  <si>
-    <t>Tribally Approved Home</t>
+    <t>DUE_DATE_AND_TIME</t>
   </si>
   <si>
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>DUE_DATE_AND_TIME</t>
-  </si>
-  <si>
-    <t>ASSIGNED_TO</t>
-  </si>
-  <si>
     <t>Informing notice</t>
   </si>
   <si>
     <t>Mediun</t>
   </si>
   <si>
-    <t>CREATE_MANUAL</t>
-  </si>
-  <si>
-    <t>PLACEMENT_NAME1</t>
-  </si>
-  <si>
-    <t>Placement Stability</t>
-  </si>
-  <si>
-    <t>folioPersonName2</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>randomText</t>
-  </si>
-  <si>
-    <t>CL_COLLATERAL_RB</t>
-  </si>
-  <si>
-    <t>CL_PLACEMENT_RB</t>
-  </si>
-  <si>
-    <t>CONTACT_END_DATETIME</t>
-  </si>
-  <si>
-    <t>DESCRIBE_PLACEMENT_CONCERNS</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Boardman</t>
-  </si>
-  <si>
     <t>RECORD_ALERT_AND_TASK</t>
   </si>
   <si>
@@ -723,66 +908,6 @@
     <t>AutoCase4201 worker 4201</t>
   </si>
   <si>
-    <t>testT4277</t>
-  </si>
-  <si>
-    <t>ASSOCIATE</t>
-  </si>
-  <si>
-    <t>Option Willing to Accept</t>
-  </si>
-  <si>
-    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
-  </si>
-  <si>
-    <t>TASK_TAB</t>
-  </si>
-  <si>
-    <t>VERIFY_TASK</t>
-  </si>
-  <si>
-    <t>DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED</t>
-  </si>
-  <si>
-    <t>Caretaker Absence/Incapacity</t>
-  </si>
-  <si>
-    <t>Justice facility</t>
-  </si>
-  <si>
-    <t>QIAPPROVESSTRTPPLACEMENT_VERIFY</t>
-  </si>
-  <si>
-    <t>QIASSESSMENTDETERMINATIONDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>IPCAPPROVALSTATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>IPCOPTIONALNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>IPCAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>DIRECTORNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>DIRECTORAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>COURTAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Juvenile Hall</t>
-  </si>
-  <si>
-    <t>CMSUPERVISORCONTRACOSTA</t>
-  </si>
-  <si>
     <t>PLACEMENT_STABILITY_TAB</t>
   </si>
   <si>
@@ -801,164 +926,419 @@
     <t>DESCRIBE_PLACEMENT_VERIFY</t>
   </si>
   <si>
-    <t>NEW_CONTACT_LOG</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>SERVICE_NAME_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>COUNTRY_VALUE</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
-  </si>
-  <si>
-    <t>SERVICE_RANKING_CEBC</t>
-  </si>
-  <si>
-    <t>MINIMUM_AGE</t>
-  </si>
-  <si>
-    <t>MAXIMUM_AGE</t>
-  </si>
-  <si>
-    <t>MANUALLY_CREATE_PLACEMENT</t>
-  </si>
-  <si>
-    <t>PLACEMENT_NAME_AGAIN</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Qualified Individual Assessment Report</t>
-  </si>
-  <si>
-    <t>QIASSESSMENTDETERMINATIONDATE</t>
-  </si>
-  <si>
-    <t>DATE_OF_REPORTED_INSTABILITY</t>
-  </si>
-  <si>
-    <t>past14days</t>
-  </si>
-  <si>
-    <t>PRIMARY_REASON_FOR_REMOVAL</t>
-  </si>
-  <si>
-    <t>PERSON_WHO_LIVED_WITH_THE_CHILD_AT_ANY_POINT</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION_STATUS</t>
-  </si>
-  <si>
-    <t>COUNTY_STAFF</t>
-  </si>
-  <si>
-    <t>autoCMworker451 Ccost</t>
-  </si>
-  <si>
     <t>OVERSTAY_REPORT_TAB</t>
   </si>
   <si>
     <t>CARE_SETTINGS</t>
   </si>
   <si>
+    <t>OVERSTAY_REASON</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN</t>
+  </si>
+  <si>
+    <t>CHILDNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>NAMEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>FACILITYCONTACTINFORMATION_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTSTARTDATETIME_VERIFY</t>
+  </si>
+  <si>
+    <t>NUMBEROFDAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEPIENT</t>
+  </si>
+  <si>
+    <t>RECEPIENT_LINK</t>
+  </si>
+  <si>
+    <t>TITLE_IV_AGENCY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTCREATEDDATE_VERIFY</t>
+  </si>
+  <si>
     <t>Crisis Nursery</t>
   </si>
   <si>
-    <t>OVERSTAY_REASON</t>
-  </si>
-  <si>
-    <t>STEPS_TAKEN</t>
-  </si>
-  <si>
-    <t>CHILDNAME_VERIFY</t>
-  </si>
-  <si>
-    <t>TYPEOFFACILITY_VERIFY</t>
-  </si>
-  <si>
-    <t>NAMEOFFACILITY_VERIFY</t>
-  </si>
-  <si>
-    <t>ADDRESSOFFACILITY_VERIFY</t>
-  </si>
-  <si>
-    <t>FACILITYCONTACTINFORMATION_VERIFY</t>
-  </si>
-  <si>
-    <t>PLACEMENTSTARTDATETIME_VERIFY</t>
-  </si>
-  <si>
-    <t>NUMBEROFDAYS_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEPIENT</t>
-  </si>
-  <si>
-    <t>RECEPIENT_LINK</t>
-  </si>
-  <si>
     <t>E-Mail</t>
   </si>
   <si>
-    <t>TITLE_IV_AGENCY</t>
+    <t>CMWorkerContraCosta2</t>
   </si>
   <si>
     <t>07 Contra Costa</t>
   </si>
   <si>
-    <t>OVERSTAYREPORTID_VERIFY</t>
-  </si>
-  <si>
-    <t>OVERSTAYREPORTCREATEDDATE_VERIFY</t>
+    <t>NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>BIRTHDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SEXATBIRTH_VERIFY</t>
+  </si>
+  <si>
+    <t>CL_ADDRESS_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>DATE_REASONABLE_EFFORTS</t>
+  </si>
+  <si>
+    <t>DATE_PLACEMENT_CARE</t>
+  </si>
+  <si>
+    <t>testT4213</t>
+  </si>
+  <si>
+    <t>CSERI_TAB</t>
+  </si>
+  <si>
+    <t>CW51_TAB</t>
+  </si>
+  <si>
+    <t>NAME_OF_PARENT</t>
+  </si>
+  <si>
+    <t>IS_THERE_GOOD_CAUSE_RB</t>
+  </si>
+  <si>
+    <t>REASON_FOR_GOOD_CAUSE_CB</t>
+  </si>
+  <si>
+    <t>CP_IDENTIFIED_PARENT_NAME</t>
+  </si>
+  <si>
+    <t>Yes - Do Not Refer for Child Support</t>
+  </si>
+  <si>
+    <t>Parents' annual income is less than $100,000 or 400% of the federal poverty level</t>
+  </si>
+  <si>
+    <t>MERI_TAB</t>
+  </si>
+  <si>
+    <t>MC250_TAB</t>
+  </si>
+  <si>
+    <t>MED_APPLICATION_TYPE</t>
+  </si>
+  <si>
+    <t>CHILD_UNDER_INSTITUTION_CODE_602</t>
+  </si>
+  <si>
+    <t>MONTHLY_AMT_PAID</t>
+  </si>
+  <si>
+    <t>DATE_OF_PLACEMENT</t>
+  </si>
+  <si>
+    <t>SSI_SSP_APPLICATION</t>
+  </si>
+  <si>
+    <t>Redetermination</t>
+  </si>
+  <si>
+    <t>autoNumber</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY_TYPE</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTTYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_SENT_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>Extended Foster Care</t>
+  </si>
+  <si>
+    <t>TILP</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>HOME_OF_REMOVAL_TAB</t>
+  </si>
+  <si>
+    <t>PARENT_LG_IC_NAME</t>
+  </si>
+  <si>
+    <t>SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>VIEW_ALL_BTN</t>
+  </si>
+  <si>
+    <t>PARENT_ID_LINK</t>
+  </si>
+  <si>
+    <t>SIBLING_ID_LINK</t>
+  </si>
+  <si>
+    <t>CP_SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>FCERI_TAB</t>
+  </si>
+  <si>
+    <t>SOC158A_TAB</t>
+  </si>
+  <si>
+    <t>FC2_TAB</t>
+  </si>
+  <si>
+    <t>ARC1_TAB</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TERMINATION_DATE</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_OUT_COUNTY</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_IN_COUNTY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_COMPLETING_FORM</t>
+  </si>
+  <si>
+    <t>PERSON1NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVAL_REASON_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>LEGAL_AUTHORITY_CODE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENT_AUTHORITY_STARTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIVE_CAREGIVER_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP_TO_CAREGIVER_VERIFY</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>RECORDALERTS_AND_TASKSTAB</t>
+  </si>
+  <si>
+    <t>DROPDOWN_MENU_BTN</t>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+  </si>
+  <si>
+    <t>ASSIGNNED_TO_CLEAR_BTN</t>
+  </si>
+  <si>
+    <t>MARK_COMPLETE_BTN</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PRIMARY_ASSIGNMENTID_LINK</t>
+  </si>
+  <si>
+    <t>SECONDARY_ASSIGNMENTID_LINK</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNEE_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>START_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>END_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS_TRANSACTIONS_TAB</t>
+  </si>
+  <si>
+    <t>TO_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>FROM_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>REQUEST_FOR_INFO_CATEGORIES</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Child Support Referral Info</t>
+  </si>
+  <si>
+    <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
+  </si>
+  <si>
+    <t>CHILD_INCOME_PROPERTY_TAB</t>
+  </si>
+  <si>
+    <t>INCOME_TYPE</t>
+  </si>
+  <si>
+    <t>INCOME_SUBTYPE</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>PROPERTY_TYPE</t>
+  </si>
+  <si>
+    <t>PROPERTY_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CURRENT_VALUE</t>
+  </si>
+  <si>
+    <t>Child Support Income</t>
+  </si>
+  <si>
+    <t>Child Support - Direct</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash on Hand</t>
+  </si>
+  <si>
+    <t>auotNumber</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>ARC 2</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,8 +1377,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1421,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1048,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1063,11 +1455,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,7 +1784,7 @@
     <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
@@ -1416,54 +1807,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>278</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1472,71 +1863,71 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1545,111 +1936,111 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>40</v>
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1661,38 +2052,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3:AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.54296875" customWidth="1"/>
     <col min="9" max="9" width="42.81640625" customWidth="1"/>
     <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
     <col min="12" max="12" width="23.7265625" customWidth="1"/>
     <col min="13" max="13" width="19.54296875" customWidth="1"/>
     <col min="14" max="14" width="27.54296875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="21.36328125" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" customWidth="1"/>
     <col min="17" max="20" width="31" customWidth="1"/>
-    <col min="21" max="22" width="21.36328125" customWidth="1"/>
-    <col min="23" max="23" width="9.90625" customWidth="1"/>
+    <col min="21" max="22" width="21.453125" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" customWidth="1"/>
     <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="42" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1706,108 +2097,108 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI1" t="s">
         <v>224</v>
       </c>
-      <c r="I1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>258</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1816,28 +2207,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L2" s="5">
         <v>1234567890</v>
@@ -1846,69 +2237,69 @@
         <v>4</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1917,28 +2308,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L3" s="5">
         <v>1234567890</v>
@@ -1947,69 +2338,69 @@
         <v>4</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2018,28 +2409,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5">
         <v>1234567890</v>
@@ -2048,284 +2439,284 @@
         <v>4</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="3">
+        <v>231</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10">
         <v>1234567890</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="10">
         <v>4</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>85</v>
+      <c r="N5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>40</v>
+      <c r="U5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="13">
         <v>1234512345</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="13">
         <v>10</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="T6" s="11">
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="13">
         <v>97818</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>40</v>
+      <c r="U6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2344,14 +2735,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2365,98 +2756,98 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>5</v>
+        <v>242</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>5</v>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2468,17 +2859,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="37.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
     <col min="8" max="8" width="41.26953125" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
@@ -2502,60 +2893,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="K1" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M1" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="Q1" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="R1" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="S1" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="T1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2564,58 +2955,58 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2624,58 +3015,58 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2684,58 +3075,58 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -2744,111 +3135,111 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>9</v>
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +3259,7 @@
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="8" max="8" width="22.453125" customWidth="1"/>
     <col min="9" max="9" width="12.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" customWidth="1"/>
@@ -2885,33 +3276,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2920,28 +3311,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2970,21 +3361,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2993,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3031,33 +3422,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3066,28 +3457,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3116,30 +3507,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -3148,25 +3539,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3178,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3191,8 +3582,8 @@
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.08984375" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.1796875" customWidth="1"/>
     <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
@@ -3209,141 +3600,340 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>35</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3355,24 +3945,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
-    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
@@ -3392,96 +3983,96 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3490,111 +4081,111 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -3603,153 +4194,1206 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>35</v>
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D5545B-C216-48DB-B002-DD3AC7471031}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="85.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3759,15 +5403,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3778,57 +5422,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3837,36 +5493,36 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -3875,52 +5531,64 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3929,52 +5597,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4032,106 +5712,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -4141,7 +5821,7 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4150,78 +5830,78 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4230,69 +5910,69 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="T3">
         <v>28570</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="AD3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4301,64 +5981,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="T4">
         <v>28570</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="AD4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4405,78 +6085,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4485,54 +6165,54 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4541,58 +6221,58 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="Q3" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="R3" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="S3" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4604,11 +6284,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4626,7 +6311,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4635,21 +6320,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +6368,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4692,21 +6377,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4735,24 +6420,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4761,33 +6446,33 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4815,135 +6500,135 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4952,15 +6637,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -4969,73 +6654,73 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="W3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AS3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5044,6 +6729,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -5260,7 +6955,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5269,17 +6964,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5298,27 +6993,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331D8A9-69BE-4A84-84D7-612556626ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0BC2BA-5DD6-4680-BC43-E78CC88BC694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -746,9 +746,6 @@
     <t>Accepted</t>
   </si>
   <si>
-    <t>Group Home(GH)</t>
-  </si>
-  <si>
     <t>123 1/2 1st Ave Nederland TX 77627</t>
   </si>
   <si>
@@ -1332,6 +1329,9 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Group Home (GH)</t>
   </si>
 </sst>
 </file>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3:AI4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,7 +2225,7 @@
         <v>226</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>227</v>
+        <v>422</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2246,7 +2246,7 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
@@ -2326,7 +2326,7 @@
         <v>226</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2347,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
@@ -2427,7 +2427,7 @@
         <v>226</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2448,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
@@ -2528,7 +2528,7 @@
         <v>226</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2555,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2635,10 +2635,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2665,7 +2665,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2756,28 +2756,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2797,19 +2797,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2832,19 +2832,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2893,55 +2893,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" t="s">
         <v>247</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>248</v>
-      </c>
-      <c r="F1" t="s">
-        <v>249</v>
       </c>
       <c r="G1" t="s">
         <v>207</v>
       </c>
       <c r="H1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" t="s">
         <v>250</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>251</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>252</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>253</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>254</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>255</v>
-      </c>
-      <c r="N1" t="s">
-        <v>256</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>260</v>
-      </c>
-      <c r="T1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -2964,7 +2964,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>27</v>
@@ -2982,14 +2982,14 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3030,7 +3030,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>70</v>
@@ -3042,7 +3042,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -3084,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3109,7 +3109,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3147,7 +3147,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -3159,7 +3159,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3288,13 +3288,13 @@
         <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3314,13 +3314,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3361,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
         <v>269</v>
-      </c>
-      <c r="E1" t="s">
-        <v>270</v>
       </c>
       <c r="F1" t="s">
         <v>145</v>
@@ -3390,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3422,25 +3422,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" t="s">
         <v>273</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>274</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>275</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>276</v>
-      </c>
-      <c r="J1" t="s">
-        <v>277</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3463,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3472,10 +3472,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3507,22 +3507,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3600,43 +3600,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>72</v>
@@ -3648,22 +3648,22 @@
         <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3683,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>128</v>
@@ -3722,10 +3722,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>305</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3734,7 +3734,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3783,31 +3783,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3889,19 +3889,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
         <v>317</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>318</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>319</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>320</v>
-      </c>
-      <c r="H1" t="s">
-        <v>321</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3924,13 +3924,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" t="s">
         <v>322</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>323</v>
-      </c>
-      <c r="H2" t="s">
-        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4381,25 +4381,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>327</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>328</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>329</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>330</v>
-      </c>
-      <c r="J1" t="s">
-        <v>331</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4422,13 +4422,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4495,81 +4495,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>237</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>238</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>239</v>
-      </c>
-      <c r="J1" t="s">
-        <v>240</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>336</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>337</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>338</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>341</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>343</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>344</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>345</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>346</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>347</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>348</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>349</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4584,19 +4584,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" t="s">
         <v>351</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>352</v>
-      </c>
-      <c r="H2" t="s">
-        <v>353</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4639,33 +4639,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" t="s">
         <v>355</v>
-      </c>
-      <c r="G1" t="s">
-        <v>356</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>358</v>
-      </c>
-      <c r="K1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4680,10 +4680,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4736,57 +4736,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>364</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>366</v>
-      </c>
-      <c r="J1" t="s">
-        <v>367</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" t="s">
         <v>368</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>369</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>370</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>371</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>372</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>373</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>374</v>
-      </c>
-      <c r="S1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4810,16 +4810,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J2" t="s">
         <v>376</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>377</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>378</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -4885,10 +4885,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" t="s">
         <v>379</v>
-      </c>
-      <c r="E1" t="s">
-        <v>380</v>
       </c>
       <c r="F1" t="s">
         <v>140</v>
@@ -4903,27 +4903,27 @@
         <v>143</v>
       </c>
       <c r="J1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" t="s">
         <v>381</v>
-      </c>
-      <c r="K1" t="s">
-        <v>382</v>
       </c>
       <c r="L1" t="s">
         <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5010,49 +5010,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>387</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5151,42 +5151,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
         <v>394</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>395</v>
-      </c>
-      <c r="F1" t="s">
-        <v>396</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" t="s">
         <v>397</v>
-      </c>
-      <c r="I1" t="s">
-        <v>398</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" t="s">
         <v>399</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>400</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>401</v>
-      </c>
-      <c r="N1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5207,10 +5207,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" t="s">
         <v>403</v>
-      </c>
-      <c r="I2" t="s">
-        <v>404</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5267,33 +5267,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
         <v>405</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>406</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>407</v>
-      </c>
-      <c r="G1" t="s">
-        <v>408</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" t="s">
         <v>409</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>410</v>
-      </c>
-      <c r="K1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5305,25 +5305,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" t="s">
         <v>412</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>413</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>414</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>415</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>416</v>
-      </c>
-      <c r="K2" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5361,21 +5361,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5387,10 +5387,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -6729,13 +6729,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6956,20 +6955,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6994,9 +6992,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0BC2BA-5DD6-4680-BC43-E78CC88BC694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3AB8DF-B673-4792-8EE0-D7E96845156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="422">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -744,9 +744,6 @@
   </si>
   <si>
     <t>Accepted</t>
-  </si>
-  <si>
-    <t>123 1/2 1st Ave Nederland TX 77627</t>
   </si>
   <si>
     <t>Resource Family Home</t>
@@ -2052,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,7 +2222,7 @@
         <v>226</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2246,11 +2243,17 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="S2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="5">
+        <v>97818</v>
+      </c>
       <c r="U2" s="5" t="s">
         <v>20</v>
       </c>
@@ -2259,6 +2262,9 @@
       </c>
       <c r="W2" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>27</v>
@@ -2326,7 +2332,7 @@
         <v>226</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2347,11 +2353,17 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="5">
+        <v>97818</v>
+      </c>
       <c r="U3" s="5" t="s">
         <v>20</v>
       </c>
@@ -2360,6 +2372,9 @@
       </c>
       <c r="W3" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>27</v>
@@ -2427,7 +2442,7 @@
         <v>226</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2448,11 +2463,17 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="S4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="T4" s="5">
+        <v>97818</v>
+      </c>
       <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2461,6 +2482,9 @@
       </c>
       <c r="W4" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>27</v>
@@ -2528,7 +2552,7 @@
         <v>226</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2555,7 +2579,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2635,10 +2659,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2665,7 +2689,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2756,28 +2780,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2797,19 +2821,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2832,19 +2856,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2893,55 +2917,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
         <v>246</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>247</v>
-      </c>
-      <c r="F1" t="s">
-        <v>248</v>
       </c>
       <c r="G1" t="s">
         <v>207</v>
       </c>
       <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
         <v>249</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>251</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>253</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>254</v>
-      </c>
-      <c r="N1" t="s">
-        <v>255</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>257</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>258</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>259</v>
-      </c>
-      <c r="T1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -2964,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>27</v>
@@ -2982,14 +3006,14 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3030,7 +3054,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>70</v>
@@ -3042,7 +3066,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -3084,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3109,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3147,7 +3171,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -3159,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3288,13 +3312,13 @@
         <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3314,13 +3338,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3361,10 +3385,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" t="s">
         <v>268</v>
-      </c>
-      <c r="E1" t="s">
-        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>145</v>
@@ -3390,7 +3414,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3422,25 +3446,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>273</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>275</v>
-      </c>
-      <c r="J1" t="s">
-        <v>276</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3463,7 +3487,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3472,10 +3496,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3507,22 +3531,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3600,43 +3624,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>72</v>
@@ -3648,22 +3672,22 @@
         <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3683,7 +3707,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>128</v>
@@ -3722,10 +3746,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3734,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3783,31 +3807,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3815,7 +3839,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3889,19 +3913,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" t="s">
         <v>316</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>318</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>319</v>
-      </c>
-      <c r="H1" t="s">
-        <v>320</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3909,7 +3933,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3924,13 +3948,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
         <v>321</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>322</v>
-      </c>
-      <c r="H2" t="s">
-        <v>323</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4381,25 +4405,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>325</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>326</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>327</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>328</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>329</v>
-      </c>
-      <c r="J1" t="s">
-        <v>330</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4407,7 +4431,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4422,13 +4446,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4495,81 +4519,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>236</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>237</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>238</v>
-      </c>
-      <c r="J1" t="s">
-        <v>239</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>335</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>336</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>337</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>339</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>340</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>341</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>342</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>343</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>344</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>345</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>346</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>347</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>348</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4584,19 +4608,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
         <v>350</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>351</v>
-      </c>
-      <c r="H2" t="s">
-        <v>352</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4639,33 +4663,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" t="s">
         <v>354</v>
-      </c>
-      <c r="G1" t="s">
-        <v>355</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" t="s">
         <v>356</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>357</v>
-      </c>
-      <c r="K1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4680,10 +4704,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4736,57 +4760,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
         <v>360</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>362</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>363</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>364</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>365</v>
-      </c>
-      <c r="J1" t="s">
-        <v>366</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M1" t="s">
         <v>367</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>368</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>369</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>370</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>371</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>372</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>373</v>
-      </c>
-      <c r="S1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4810,16 +4834,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" t="s">
         <v>375</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>376</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>377</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -4885,10 +4909,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" t="s">
         <v>378</v>
-      </c>
-      <c r="E1" t="s">
-        <v>379</v>
       </c>
       <c r="F1" t="s">
         <v>140</v>
@@ -4903,27 +4927,27 @@
         <v>143</v>
       </c>
       <c r="J1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K1" t="s">
         <v>380</v>
-      </c>
-      <c r="K1" t="s">
-        <v>381</v>
       </c>
       <c r="L1" t="s">
         <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5010,49 +5034,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>386</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5151,42 +5175,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" t="s">
         <v>393</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>394</v>
-      </c>
-      <c r="F1" t="s">
-        <v>395</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" t="s">
         <v>396</v>
-      </c>
-      <c r="I1" t="s">
-        <v>397</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" t="s">
         <v>398</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>399</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>400</v>
-      </c>
-      <c r="N1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5207,10 +5231,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2" t="s">
         <v>402</v>
-      </c>
-      <c r="I2" t="s">
-        <v>403</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5267,33 +5291,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" t="s">
         <v>404</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>405</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>406</v>
-      </c>
-      <c r="G1" t="s">
-        <v>407</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" t="s">
         <v>408</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>409</v>
-      </c>
-      <c r="K1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5305,25 +5329,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" t="s">
         <v>411</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>412</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>413</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>414</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>415</v>
-      </c>
-      <c r="K2" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -5361,21 +5385,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5387,10 +5411,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3AB8DF-B673-4792-8EE0-D7E96845156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFFF3C3-6D3C-48FE-BE9C-FE32E0AD6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1329,6 +1329,12 @@
   </si>
   <si>
     <t>Group Home (GH)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Random Text</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X4"/>
     </sheetView>
   </sheetViews>
@@ -2883,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2900,6 +2906,7 @@
     <col min="11" max="11" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.26953125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
     <col min="15" max="15" width="18.26953125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
@@ -2988,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>27</v>
@@ -2997,18 +3004,20 @@
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="N2" s="5"/>
+        <v>422</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
@@ -3054,26 +3063,28 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="N3" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3128,7 +3139,9 @@
       <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="5" t="s">
         <v>20</v>
       </c>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFFF3C3-6D3C-48FE-BE9C-FE32E0AD6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71607FC-E6C4-49C3-B500-2CAB34E9D91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -2889,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3096,7 +3096,7 @@
         <v>27</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3158,7 +3158,7 @@
         <v>27</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
@@ -3214,7 +3214,7 @@
         <v>27</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71607FC-E6C4-49C3-B500-2CAB34E9D91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600676DB-22B7-41FD-BF25-F47DFD033FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="423">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1326,9 +1326,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Group Home (GH)</t>
   </si>
   <si>
     <t>Other</t>
@@ -2055,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,10 +2222,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>421</v>
+        <v>229</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2889,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3013,10 +3010,10 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600676DB-22B7-41FD-BF25-F47DFD033FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D9FEB7-B74A-4F0D-8301-62D8C177E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1326,6 +1326,9 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Group Home (GH)</t>
   </si>
   <si>
     <t>Other</t>
@@ -2052,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2222,10 +2225,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>229</v>
+        <v>421</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2886,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2908,6 +2911,7 @@
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -3010,10 +3014,10 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
@@ -3031,7 +3035,7 @@
         <v>27</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3093,7 +3097,7 @@
         <v>27</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3155,7 +3159,7 @@
         <v>27</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D9FEB7-B74A-4F0D-8301-62D8C177E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C234CCF-B8D3-4F44-BD3E-E1C3BB6FB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -2889,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2900,7 +2900,7 @@
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
     <col min="11" max="11" width="32.26953125" bestFit="1" customWidth="1"/>
@@ -3215,7 +3215,7 @@
         <v>27</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C234CCF-B8D3-4F44-BD3E-E1C3BB6FB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D709310D-71B9-4316-B9BB-69617B58B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -5443,11 +5443,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -5587,13 +5591,13 @@
         <v>93</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>94</v>
@@ -6767,12 +6771,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6993,19 +6998,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7030,11 +7036,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D709310D-71B9-4316-B9BB-69617B58B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3127B1-B89A-45BE-8327-49D896E5E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="960" yWindow="5520" windowWidth="19200" windowHeight="5800" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="425">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -278,9 +278,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Folio ChildLocationsSTRTPID</t>
-  </si>
-  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -1335,6 +1332,12 @@
   </si>
   <si>
     <t>Random Text</t>
+  </si>
+  <si>
+    <t>ChildLocationSTRTPID</t>
+  </si>
+  <si>
+    <t>Autocase4201 worker 4201</t>
   </si>
 </sst>
 </file>
@@ -1776,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2046,8 +2049,68 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2055,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2100,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2109,94 +2172,94 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
         <v>204</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>205</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>206</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>208</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>210</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>211</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>214</v>
       </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>215</v>
-      </c>
       <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
         <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB1" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>217</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>218</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>219</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>220</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>221</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>222</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>223</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>224</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2216,7 +2279,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -2225,10 +2288,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2249,13 +2312,13 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -2326,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -2335,10 +2398,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2359,13 +2422,13 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -2436,7 +2499,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -2445,10 +2508,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2469,13 +2532,13 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -2546,7 +2609,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -2555,10 +2618,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2579,13 +2642,13 @@
         <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2656,7 +2719,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>20</v>
@@ -2665,10 +2728,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2689,13 +2752,13 @@
         <v>27</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2786,28 +2849,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2827,19 +2890,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2862,19 +2925,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2925,55 +2988,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>248</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>249</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>250</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>251</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>252</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>253</v>
-      </c>
-      <c r="N1" t="s">
-        <v>254</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
-      </c>
-      <c r="T1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3014,16 +3077,16 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3085,7 +3148,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3120,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3147,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3185,7 +3248,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -3197,7 +3260,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3314,25 +3377,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
       <c r="H1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
         <v>263</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" t="s">
-        <v>264</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3352,13 +3415,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3399,13 +3462,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
         <v>267</v>
       </c>
-      <c r="E1" t="s">
-        <v>268</v>
-      </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3428,7 +3491,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3460,25 +3523,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
         <v>271</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>272</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>273</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>274</v>
-      </c>
-      <c r="J1" t="s">
-        <v>275</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3501,7 +3564,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3510,10 +3573,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3545,22 +3608,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3638,70 +3701,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3721,13 +3784,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>20</v>
@@ -3760,10 +3823,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>303</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3772,7 +3835,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3821,31 +3884,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3853,7 +3916,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3927,19 +3990,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
         <v>315</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>316</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>317</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>318</v>
-      </c>
-      <c r="H1" t="s">
-        <v>319</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3947,7 +4010,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3962,13 +4025,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" t="s">
         <v>320</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>321</v>
-      </c>
-      <c r="H2" t="s">
-        <v>322</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4333,13 +4396,13 @@
         <v>20</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>71</v>
+        <v>423</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>27</v>
@@ -4419,25 +4482,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>324</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>325</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>326</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>327</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>328</v>
-      </c>
-      <c r="J1" t="s">
-        <v>329</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4445,7 +4508,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4460,13 +4523,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4533,81 +4596,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
-      </c>
-      <c r="J1" t="s">
-        <v>238</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" t="s">
         <v>333</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>334</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>335</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>336</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>338</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>339</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>340</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>341</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>342</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>343</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>344</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>345</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>346</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>347</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4622,19 +4685,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" t="s">
         <v>349</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>350</v>
       </c>
-      <c r="H2" t="s">
-        <v>351</v>
-      </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4677,33 +4740,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" t="s">
         <v>353</v>
-      </c>
-      <c r="G1" t="s">
-        <v>354</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" t="s">
         <v>355</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>356</v>
-      </c>
-      <c r="K1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4718,10 +4781,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4774,57 +4837,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" t="s">
         <v>359</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>360</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>362</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>363</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>364</v>
-      </c>
-      <c r="J1" t="s">
-        <v>365</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M1" t="s">
         <v>366</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>367</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>368</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>369</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>370</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>371</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>372</v>
-      </c>
-      <c r="S1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4848,16 +4911,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" t="s">
         <v>374</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>375</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>376</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -4923,45 +4986,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" t="s">
         <v>377</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
         <v>378</v>
       </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>379</v>
       </c>
-      <c r="K1" t="s">
-        <v>380</v>
-      </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4977,13 +5040,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -4995,7 +5058,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -5048,49 +5111,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>385</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5189,42 +5252,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
-      </c>
-      <c r="F1" t="s">
-        <v>394</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
         <v>395</v>
-      </c>
-      <c r="I1" t="s">
-        <v>396</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" t="s">
         <v>397</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>398</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>399</v>
-      </c>
-      <c r="N1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5245,10 +5308,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" t="s">
         <v>401</v>
-      </c>
-      <c r="I2" t="s">
-        <v>402</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5305,33 +5368,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" t="s">
         <v>403</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>404</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>405</v>
-      </c>
-      <c r="G1" t="s">
-        <v>406</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>408</v>
-      </c>
-      <c r="K1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5343,25 +5406,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" t="s">
         <v>410</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>411</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>412</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>413</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>414</v>
-      </c>
-      <c r="K2" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5399,21 +5462,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5425,10 +5488,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5443,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5464,34 +5527,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -5500,28 +5563,28 @@
         <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -5544,7 +5607,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5553,7 +5616,7 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -5585,32 +5648,32 @@
         <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
         <v>95</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>96</v>
       </c>
       <c r="S3" t="s">
         <v>20</v>
@@ -5651,7 +5714,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -5754,16 +5817,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -5772,64 +5835,64 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -5838,22 +5901,22 @@
         <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -5890,7 +5953,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>62</v>
@@ -5899,20 +5962,20 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -5924,13 +5987,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -5970,7 +6033,7 @@
         <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -5979,22 +6042,22 @@
         <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -6006,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -6041,7 +6104,7 @@
         <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -6050,22 +6113,22 @@
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -6077,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -6127,70 +6190,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -6213,13 +6276,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -6228,7 +6291,7 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -6240,16 +6303,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" t="s">
         <v>152</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -6269,13 +6332,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -6284,7 +6347,7 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -6296,19 +6359,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" t="s">
         <v>152</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>154</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>155</v>
-      </c>
-      <c r="S3" t="s">
-        <v>156</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -6462,16 +6525,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -6542,130 +6605,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6714,7 +6777,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -6729,28 +6792,28 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>
@@ -6771,6 +6834,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -6780,7 +6852,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6997,16 +7069,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7016,7 +7087,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7033,12 +7104,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3127B1-B89A-45BE-8327-49D896E5E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0E40E-207C-45A0-944B-772B0921ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5520" windowWidth="19200" windowHeight="5800" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="425">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1781,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -6506,10 +6506,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6578,6 +6578,46 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0E40E-207C-45A0-944B-772B0921ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE01DBDE-D36C-47F9-87FF-EE84620D97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -6509,7 +6509,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE01DBDE-D36C-47F9-87FF-EE84620D97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87484C6A-8DE4-4638-8E0C-4DC3AB824885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -6509,7 +6509,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87484C6A-8DE4-4638-8E0C-4DC3AB824885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EEDA6B-A273-4810-B2F6-124B2A6E1CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>testT4275</t>
-  </si>
-  <si>
-    <t>STRTP</t>
   </si>
   <si>
     <t>No</t>
@@ -1781,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2105,7 +2102,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2172,94 +2169,94 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
         <v>203</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>204</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>205</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>206</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>207</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>208</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>209</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>210</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>211</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>108</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" t="s">
-        <v>214</v>
-      </c>
       <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
         <v>111</v>
-      </c>
-      <c r="V1" t="s">
-        <v>112</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB1" t="s">
         <v>215</v>
       </c>
-      <c r="Y1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>216</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>217</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>219</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>221</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>222</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>223</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2279,7 +2276,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -2288,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2312,13 +2309,13 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -2389,7 +2386,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -2398,10 +2395,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2422,13 +2419,13 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -2499,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -2508,10 +2505,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2532,13 +2529,13 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -2609,7 +2606,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -2618,10 +2615,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2642,13 +2639,13 @@
         <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2719,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>20</v>
@@ -2728,10 +2725,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2752,13 +2749,13 @@
         <v>27</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2849,28 +2846,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2890,19 +2887,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2925,19 +2922,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2952,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -2988,55 +2985,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
         <v>246</v>
       </c>
-      <c r="G1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>251</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>252</v>
-      </c>
-      <c r="N1" t="s">
-        <v>253</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>255</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>256</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>257</v>
-      </c>
-      <c r="T1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3068,7 +3065,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>27</v>
@@ -3077,16 +3074,16 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>422</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3148,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3183,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3210,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3248,10 +3245,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>27</v>
@@ -3260,7 +3257,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3377,25 +3374,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
       <c r="H1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
         <v>262</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>263</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3415,13 +3412,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3462,13 +3459,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
         <v>266</v>
       </c>
-      <c r="E1" t="s">
-        <v>267</v>
-      </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3491,7 +3488,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3523,25 +3520,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" t="s">
         <v>270</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>271</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>272</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>273</v>
-      </c>
-      <c r="J1" t="s">
-        <v>274</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3564,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3573,10 +3570,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3608,22 +3605,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3701,70 +3698,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3784,13 +3781,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>20</v>
@@ -3823,10 +3820,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3835,7 +3832,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3884,31 +3881,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3990,19 +3987,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
         <v>314</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>315</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>316</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>317</v>
-      </c>
-      <c r="H1" t="s">
-        <v>318</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4010,7 +4007,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4025,13 +4022,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
         <v>319</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>320</v>
-      </c>
-      <c r="H2" t="s">
-        <v>321</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4044,10 +4041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4056,21 +4053,21 @@
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.81640625" customWidth="1"/>
+    <col min="20" max="20" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4120,58 +4117,61 @@
         <v>43</v>
       </c>
       <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4215,10 +4215,13 @@
         <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -4268,23 +4271,26 @@
         <v>65</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="10"/>
+      <c r="U3" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -4309,8 +4315,8 @@
       <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>69</v>
+      <c r="I4" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>61</v>
@@ -4334,16 +4340,19 @@
         <v>65</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -4378,13 +4387,13 @@
         <v>22</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>64</v>
@@ -4393,19 +4402,19 @@
         <v>65</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>423</v>
+        <v>20</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V5" s="13" t="s">
         <v>27</v>
@@ -4420,7 +4429,7 @@
         <v>27</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>61</v>
@@ -4441,6 +4450,9 @@
         <v>61</v>
       </c>
       <c r="AG5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4482,25 +4494,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>323</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>324</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>325</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>326</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>327</v>
-      </c>
-      <c r="J1" t="s">
-        <v>328</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4508,7 +4520,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4523,13 +4535,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4596,81 +4608,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>234</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>235</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>236</v>
-      </c>
-      <c r="J1" t="s">
-        <v>237</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>333</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>334</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>335</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>337</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>338</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>339</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>341</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>342</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>343</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>344</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>345</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>346</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4685,19 +4697,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" t="s">
         <v>348</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>349</v>
       </c>
-      <c r="H2" t="s">
-        <v>350</v>
-      </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4740,33 +4752,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" t="s">
         <v>352</v>
-      </c>
-      <c r="G1" t="s">
-        <v>353</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" t="s">
         <v>354</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>355</v>
-      </c>
-      <c r="K1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4781,10 +4793,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4837,57 +4849,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>359</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>360</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>361</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>362</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>363</v>
-      </c>
-      <c r="J1" t="s">
-        <v>364</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" t="s">
         <v>365</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>366</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>367</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>368</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>369</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>370</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>371</v>
-      </c>
-      <c r="S1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4911,16 +4923,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" t="s">
         <v>373</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>374</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>375</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -4986,45 +4998,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
         <v>376</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
         <v>377</v>
       </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>378</v>
       </c>
-      <c r="K1" t="s">
-        <v>379</v>
-      </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5040,13 +5052,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
         <v>151</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -5058,7 +5070,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -5111,49 +5123,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>384</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5252,42 +5264,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>392</v>
-      </c>
-      <c r="F1" t="s">
-        <v>393</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" t="s">
         <v>394</v>
-      </c>
-      <c r="I1" t="s">
-        <v>395</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" t="s">
         <v>396</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>397</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>398</v>
-      </c>
-      <c r="N1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5308,10 +5320,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" t="s">
         <v>400</v>
-      </c>
-      <c r="I2" t="s">
-        <v>401</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5368,33 +5380,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" t="s">
         <v>402</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>403</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>404</v>
-      </c>
-      <c r="G1" t="s">
-        <v>405</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" t="s">
         <v>406</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>407</v>
-      </c>
-      <c r="K1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5406,25 +5418,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
         <v>409</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>410</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>411</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>412</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>413</v>
-      </c>
-      <c r="K2" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -5462,21 +5474,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5488,10 +5500,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5527,34 +5539,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -5563,28 +5575,28 @@
         <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -5607,7 +5619,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5616,7 +5628,7 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -5648,32 +5660,32 @@
         <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
         <v>94</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>95</v>
       </c>
       <c r="S3" t="s">
         <v>20</v>
@@ -5714,7 +5726,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -5817,16 +5829,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -5835,64 +5847,64 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -5901,22 +5913,22 @@
         <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -5953,7 +5965,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>62</v>
@@ -5962,20 +5974,20 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -5987,13 +5999,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -6033,7 +6045,7 @@
         <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -6042,22 +6054,22 @@
         <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -6069,7 +6081,7 @@
         <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -6104,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -6113,22 +6125,22 @@
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -6140,7 +6152,7 @@
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -6190,70 +6202,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -6276,22 +6288,22 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -6303,16 +6315,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
         <v>151</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>153</v>
-      </c>
-      <c r="R2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -6332,22 +6344,22 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -6359,19 +6371,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" t="s">
         <v>151</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>153</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>154</v>
-      </c>
-      <c r="S3" t="s">
-        <v>155</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -6508,7 +6520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6525,16 +6537,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -6645,130 +6657,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6817,7 +6829,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -6832,28 +6844,28 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EEDA6B-A273-4810-B2F6-124B2A6E1CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D81C24C-CBF4-437B-9117-F197E3308AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="425">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1335,6 +1335,9 @@
   </si>
   <si>
     <t>Autocase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_DETAILS_OF_TRANSITION_PLAN</t>
   </si>
 </sst>
 </file>
@@ -4041,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4053,21 +4056,21 @@
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="17" width="16.81640625" customWidth="1"/>
-    <col min="20" max="20" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16.81640625" customWidth="1"/>
+    <col min="21" max="21" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4120,58 +4123,61 @@
         <v>140</v>
       </c>
       <c r="R1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4218,10 +4224,13 @@
         <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -4274,23 +4283,26 @@
         <v>27</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="10"/>
+      <c r="V3" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -4343,16 +4355,19 @@
         <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -4405,19 +4420,19 @@
         <v>27</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="T5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="U5" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="V5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W5" s="13" t="s">
         <v>27</v>
@@ -4432,7 +4447,7 @@
         <v>27</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="AB5" s="13" t="s">
         <v>61</v>
@@ -4453,6 +4468,9 @@
         <v>61</v>
       </c>
       <c r="AH5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" s="13" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D81C24C-CBF4-437B-9117-F197E3308AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE9AB4-0271-44D4-9EE1-81F5B1EA7387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -4046,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4327,7 +4327,7 @@
       <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -4337,13 +4337,13 @@
         <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>64</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE9AB4-0271-44D4-9EE1-81F5B1EA7387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBEC2D4-AC7B-4E60-9112-041EE60A7CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBEC2D4-AC7B-4E60-9112-041EE60A7CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A6C87-59FD-4E08-9678-FAE3D66F5FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -1781,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2401,7 +2401,7 @@
         <v>224</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -4046,7 +4046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A6C87-59FD-4E08-9678-FAE3D66F5FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939BF1C3-80D3-4C3C-AA71-ADA69AC3E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="15" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,20 @@
     <sheet name="FolioTask" sheetId="13" r:id="rId13"/>
     <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId14"/>
     <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId15"/>
-    <sheet name="PlacementStability" sheetId="16" r:id="rId16"/>
-    <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId17"/>
-    <sheet name="EligibilityDetails" sheetId="19" r:id="rId18"/>
-    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId19"/>
-    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId20"/>
-    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId21"/>
-    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId22"/>
-    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
-    <sheet name="EligibilityTask" sheetId="26" r:id="rId24"/>
-    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId25"/>
-    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId26"/>
-    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId27"/>
-    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId28"/>
+    <sheet name="FolioInspections" sheetId="30" r:id="rId16"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId17"/>
+    <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId18"/>
+    <sheet name="EligibilityDetails" sheetId="19" r:id="rId19"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId20"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId21"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId22"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId23"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId24"/>
+    <sheet name="EligibilityTask" sheetId="26" r:id="rId25"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId26"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId27"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId28"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="429">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1338,6 +1339,18 @@
   </si>
   <si>
     <t>ADDITIONAL_DETAILS_OF_TRANSITION_PLAN</t>
+  </si>
+  <si>
+    <t>INSPECTIONS_TAB</t>
+  </si>
+  <si>
+    <t>HOME_SAFE</t>
+  </si>
+  <si>
+    <t>REINSPECTION_REQUIRED</t>
+  </si>
+  <si>
+    <t>CHILD_CARE_NEEDS_MET</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3507,10 +3520,13 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3588,6 +3604,89 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82582610-3D7E-444F-8B47-3149D31F72C5}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3666,7 +3765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -3849,7 +3948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3952,88 +4051,6 @@
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4480,6 +4497,88 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4576,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
@@ -4738,7 +4837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4825,7 +4924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -4979,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D5545B-C216-48DB-B002-DD3AC7471031}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5102,7 +5201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -5245,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -5364,7 +5463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -5462,7 +5561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939BF1C3-80D3-4C3C-AA71-ADA69AC3E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569334F-8978-4271-AEBB-C4A86FC0BA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="15" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -882,9 +882,6 @@
     <t>REQUESTED_DATE_AND_TIME</t>
   </si>
   <si>
-    <t>BACKGROUND_CHECK_TYPE</t>
-  </si>
-  <si>
     <t>REQUESTED_MANAGER</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>CHILD_CARE_NEEDS_MET</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +2304,7 @@
         <v>224</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -3090,10 +3090,10 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
@@ -3519,13 +3519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" activeCellId="1" sqref="I2 I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -3554,10 +3555,10 @@
         <v>271</v>
       </c>
       <c r="I1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" t="s">
         <v>272</v>
-      </c>
-      <c r="J1" t="s">
-        <v>273</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3580,7 +3581,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3589,10 +3590,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3607,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82582610-3D7E-444F-8B47-3149D31F72C5}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3628,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -3637,13 +3638,13 @@
         <v>270</v>
       </c>
       <c r="G1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" t="s">
         <v>426</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>427</v>
-      </c>
-      <c r="I1" t="s">
-        <v>428</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3707,22 +3708,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3800,43 +3801,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>70</v>
@@ -3848,22 +3849,22 @@
         <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3883,7 +3884,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>126</v>
@@ -3922,10 +3923,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>300</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>301</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3934,7 +3935,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3983,31 +3984,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -4015,7 +4016,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4140,7 +4141,7 @@
         <v>140</v>
       </c>
       <c r="R1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -4446,7 +4447,7 @@
         <v>20</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V5" s="13" t="s">
         <v>20</v>
@@ -4526,19 +4527,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" t="s">
         <v>313</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>315</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>316</v>
-      </c>
-      <c r="H1" t="s">
-        <v>317</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4546,7 +4547,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4561,13 +4562,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
         <v>318</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>319</v>
-      </c>
-      <c r="H2" t="s">
-        <v>320</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4611,25 +4612,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>322</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>324</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>325</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>326</v>
-      </c>
-      <c r="J1" t="s">
-        <v>327</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4637,7 +4638,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4652,13 +4653,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4728,7 +4729,7 @@
         <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F1" t="s">
         <v>232</v>
@@ -4749,57 +4750,57 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>332</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>333</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>334</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>335</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>336</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>337</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>338</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>339</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>340</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>341</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>342</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>343</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>344</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>345</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4814,13 +4815,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
         <v>347</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>348</v>
-      </c>
-      <c r="H2" t="s">
-        <v>349</v>
       </c>
       <c r="I2" t="s">
         <v>126</v>
@@ -4869,33 +4870,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" t="s">
         <v>351</v>
-      </c>
-      <c r="G1" t="s">
-        <v>352</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" t="s">
         <v>353</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>354</v>
-      </c>
-      <c r="K1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4910,10 +4911,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4966,57 +4967,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" t="s">
         <v>357</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>358</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>359</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>360</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>361</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>362</v>
-      </c>
-      <c r="J1" t="s">
-        <v>363</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" t="s">
         <v>364</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>365</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>366</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>367</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>368</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>369</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>370</v>
-      </c>
-      <c r="S1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5040,16 +5041,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" t="s">
         <v>372</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>373</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>374</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -5115,10 +5116,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" t="s">
         <v>375</v>
-      </c>
-      <c r="E1" t="s">
-        <v>376</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>
@@ -5133,10 +5134,10 @@
         <v>141</v>
       </c>
       <c r="J1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" t="s">
         <v>377</v>
-      </c>
-      <c r="K1" t="s">
-        <v>378</v>
       </c>
       <c r="L1" t="s">
         <v>143</v>
@@ -5148,12 +5149,12 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5240,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>235</v>
@@ -5249,40 +5250,40 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>383</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5381,42 +5382,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" t="s">
         <v>390</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>391</v>
-      </c>
-      <c r="F1" t="s">
-        <v>392</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" t="s">
         <v>393</v>
-      </c>
-      <c r="I1" t="s">
-        <v>394</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" t="s">
         <v>395</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>396</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>397</v>
-      </c>
-      <c r="N1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5437,10 +5438,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" t="s">
         <v>399</v>
-      </c>
-      <c r="I2" t="s">
-        <v>400</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5497,33 +5498,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" t="s">
         <v>401</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>402</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>403</v>
-      </c>
-      <c r="G1" t="s">
-        <v>404</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" t="s">
         <v>405</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>406</v>
-      </c>
-      <c r="K1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5535,25 +5536,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" t="s">
         <v>408</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>409</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>410</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>411</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>412</v>
-      </c>
-      <c r="K2" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5591,21 +5592,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5617,10 +5618,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569334F-8978-4271-AEBB-C4A86FC0BA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C3B17-BB1A-434A-B641-BE50A32A4F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="429">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3519,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" activeCellId="1" sqref="I2 I6"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3609,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4062,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4349,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
@@ -4385,110 +4385,175 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="M6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="13" t="s">
+      <c r="Q6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="13" t="s">
+      <c r="V6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AI6" s="13" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C3B17-BB1A-434A-B641-BE50A32A4F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F290F82-A685-4E55-967D-790419C3BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -741,9 +741,6 @@
     <t>Accepted</t>
   </si>
   <si>
-    <t>Resource Family Home</t>
-  </si>
-  <si>
     <t>Tribally Approved Home</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>ProviderOption_ID2</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2304,7 +2304,7 @@
         <v>224</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2331,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>126</v>
@@ -2414,7 +2414,7 @@
         <v>224</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2441,7 +2441,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -2524,7 +2524,7 @@
         <v>224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -2634,7 +2634,7 @@
         <v>224</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2661,7 +2661,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2741,10 +2741,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2771,7 +2771,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2862,28 +2862,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2903,19 +2903,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>126</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2938,19 +2938,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>126</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3001,55 +3001,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>244</v>
-      </c>
-      <c r="F1" t="s">
-        <v>245</v>
       </c>
       <c r="G1" t="s">
         <v>205</v>
       </c>
       <c r="H1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" t="s">
         <v>246</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>247</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>248</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>249</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>250</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>251</v>
-      </c>
-      <c r="N1" t="s">
-        <v>252</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>256</v>
-      </c>
-      <c r="T1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3090,16 +3090,16 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3161,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3196,10 +3196,10 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>27</v>
@@ -3223,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>259</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3261,7 +3261,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>69</v>
@@ -3273,7 +3273,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3402,13 +3402,13 @@
         <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I1" t="s">
         <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3428,13 +3428,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3475,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
         <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>266</v>
       </c>
       <c r="F1" t="s">
         <v>143</v>
@@ -3504,7 +3504,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3540,25 +3540,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
         <v>269</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>270</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J1" t="s">
         <v>271</v>
-      </c>
-      <c r="I1" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" t="s">
-        <v>272</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3581,7 +3581,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3590,10 +3590,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3629,22 +3629,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
         <v>425</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>426</v>
-      </c>
-      <c r="I1" t="s">
-        <v>427</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3708,22 +3708,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3801,43 +3801,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>70</v>
@@ -3849,22 +3849,22 @@
         <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3884,7 +3884,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>126</v>
@@ -3923,10 +3923,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3935,7 +3935,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3984,31 +3984,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4064,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4141,7 +4141,7 @@
         <v>140</v>
       </c>
       <c r="R1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -4512,7 +4512,7 @@
         <v>20</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V6" s="13" t="s">
         <v>20</v>
@@ -4592,19 +4592,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>313</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>315</v>
-      </c>
-      <c r="H1" t="s">
-        <v>316</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4627,13 +4627,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" t="s">
         <v>317</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>318</v>
-      </c>
-      <c r="H2" t="s">
-        <v>319</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4677,25 +4677,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>322</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>323</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>324</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>325</v>
-      </c>
-      <c r="J1" t="s">
-        <v>326</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4718,13 +4718,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4791,81 +4791,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>235</v>
-      </c>
-      <c r="J1" t="s">
-        <v>236</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" t="s">
         <v>330</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>331</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>332</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>333</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>334</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>335</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>336</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>337</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>338</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>339</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>340</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>341</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>342</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>343</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>344</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4880,19 +4880,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" t="s">
         <v>346</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>347</v>
-      </c>
-      <c r="H2" t="s">
-        <v>348</v>
       </c>
       <c r="I2" t="s">
         <v>126</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4935,33 +4935,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" t="s">
         <v>350</v>
-      </c>
-      <c r="G1" t="s">
-        <v>351</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>353</v>
-      </c>
-      <c r="K1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4976,10 +4976,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -5032,57 +5032,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" t="s">
         <v>356</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>357</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>358</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>359</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>360</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>361</v>
-      </c>
-      <c r="J1" t="s">
-        <v>362</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" t="s">
         <v>363</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>364</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>365</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>366</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>367</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>368</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>369</v>
-      </c>
-      <c r="S1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5106,16 +5106,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" t="s">
         <v>371</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>372</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>373</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -5181,10 +5181,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" t="s">
-        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>
@@ -5199,27 +5199,27 @@
         <v>141</v>
       </c>
       <c r="J1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" t="s">
         <v>376</v>
-      </c>
-      <c r="K1" t="s">
-        <v>377</v>
       </c>
       <c r="L1" t="s">
         <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5306,49 +5306,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>382</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5447,42 +5447,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" t="s">
         <v>389</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>390</v>
-      </c>
-      <c r="F1" t="s">
-        <v>391</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" t="s">
         <v>392</v>
-      </c>
-      <c r="I1" t="s">
-        <v>393</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L1" t="s">
         <v>394</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>395</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>396</v>
-      </c>
-      <c r="N1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5503,10 +5503,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2" t="s">
         <v>398</v>
-      </c>
-      <c r="I2" t="s">
-        <v>399</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5563,33 +5563,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>401</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>402</v>
-      </c>
-      <c r="G1" t="s">
-        <v>403</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" t="s">
         <v>404</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>405</v>
-      </c>
-      <c r="K1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5601,25 +5601,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
         <v>407</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>408</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>409</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>410</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>411</v>
-      </c>
-      <c r="K2" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5657,21 +5657,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5683,10 +5683,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F290F82-A685-4E55-967D-790419C3BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510856C-4C3A-44C5-8D9D-09ABB7C17B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2289,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>126</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>126</v>
@@ -4064,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510856C-4C3A-44C5-8D9D-09ABB7C17B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C776F5-61E9-41BD-A711-0225B90659F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="432">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -561,12 +561,6 @@
     <t>CONTACT_STATUS</t>
   </si>
   <si>
-    <t>CONTACT_START_DATETIME</t>
-  </si>
-  <si>
-    <t>CONTACT_END_DATETIME</t>
-  </si>
-  <si>
     <t>ON_BEHALF_OF_CHILD</t>
   </si>
   <si>
@@ -879,6 +873,9 @@
     <t>REQUESTED_DATE_AND_TIME</t>
   </si>
   <si>
+    <t>BACKGROUND_CHECK_TYPE</t>
+  </si>
+  <si>
     <t>REQUESTED_MANAGER</t>
   </si>
   <si>
@@ -1329,6 +1326,21 @@
     <t>ChildLocationSTRTPID</t>
   </si>
   <si>
+    <t>Placement Decision</t>
+  </si>
+  <si>
+    <t>Placement Approval</t>
+  </si>
+  <si>
+    <t>SCROLL_INTO_ELEMENT</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_END_DATE_TIME</t>
+  </si>
+  <si>
     <t>Autocase4201 worker 4201</t>
   </si>
   <si>
@@ -1345,9 +1357,6 @@
   </si>
   <si>
     <t>CHILD_CARE_NEEDS_MET</t>
-  </si>
-  <si>
-    <t>TYPE</t>
   </si>
   <si>
     <t>ProviderOption_ID2</t>
@@ -1795,7 +1804,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2118,12 +2127,11 @@
         <v>27</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2131,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2176,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2185,46 +2193,46 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>207</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>209</v>
-      </c>
-      <c r="O1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" t="s">
-        <v>211</v>
       </c>
       <c r="Q1" t="s">
         <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S1" t="s">
         <v>108</v>
       </c>
       <c r="T1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U1" t="s">
         <v>110</v>
@@ -2236,43 +2244,43 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC1" t="s">
         <v>214</v>
       </c>
-      <c r="Y1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>215</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>217</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>218</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>221</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2301,10 +2309,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2331,7 +2339,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -2411,10 +2419,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2441,7 +2449,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -2521,10 +2529,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2551,7 +2559,7 @@
         <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -2631,10 +2639,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2661,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2741,10 +2749,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2771,7 +2779,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2862,28 +2870,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2903,19 +2911,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>126</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2938,19 +2946,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>126</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2963,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2987,10 +2995,11 @@
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,58 +3010,61 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
         <v>242</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
         <v>243</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>244</v>
       </c>
-      <c r="G1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>245</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>246</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>247</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>248</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>249</v>
-      </c>
-      <c r="M1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N1" t="s">
-        <v>251</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" t="s">
         <v>252</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>253</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>254</v>
       </c>
-      <c r="S1" t="s">
-        <v>255</v>
-      </c>
-      <c r="T1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -3090,16 +3102,16 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3113,8 +3125,11 @@
       <c r="T2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U2" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -3161,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3175,8 +3190,11 @@
       <c r="T3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U3" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -3223,7 +3241,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3238,7 +3256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>69</v>
@@ -3273,7 +3291,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3294,7 +3312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
@@ -3354,6 +3372,9 @@
       </c>
       <c r="T6" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3402,13 +3423,13 @@
         <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I1" t="s">
         <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3428,13 +3449,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3458,11 +3479,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3475,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
         <v>143</v>
@@ -3504,7 +3528,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3520,14 +3544,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" activeCellId="1" sqref="I2 I6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3540,25 +3560,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>269</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>270</v>
-      </c>
-      <c r="I1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J1" t="s">
-        <v>271</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3581,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3590,10 +3610,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3605,18 +3625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82582610-3D7E-444F-8B47-3149D31F72C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179466CA-0BE6-4384-819E-AC7F7D56F1E6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3629,22 +3645,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3660,25 +3676,25 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3692,7 +3708,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3708,22 +3724,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3770,7 +3786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -3782,9 +3798,18 @@
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.1796875" customWidth="1"/>
+    <col min="18" max="18" width="22.1796875" customWidth="1"/>
+    <col min="19" max="19" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
@@ -3801,43 +3826,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>70</v>
@@ -3849,22 +3874,22 @@
         <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3884,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>126</v>
@@ -3923,10 +3948,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>299</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3935,7 +3960,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3984,31 +4009,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -4016,7 +4041,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4064,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4141,7 +4166,7 @@
         <v>140</v>
       </c>
       <c r="R1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -4277,19 +4302,19 @@
         <v>66</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>64</v>
@@ -4349,7 +4374,7 @@
         <v>66</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
@@ -4512,7 +4537,7 @@
         <v>20</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V6" s="13" t="s">
         <v>20</v>
@@ -4592,19 +4617,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" t="s">
         <v>311</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>312</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>313</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>314</v>
-      </c>
-      <c r="H1" t="s">
-        <v>315</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4612,7 +4637,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4627,13 +4652,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
         <v>316</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>317</v>
-      </c>
-      <c r="H2" t="s">
-        <v>318</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4677,25 +4702,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>320</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>321</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>322</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>323</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>324</v>
-      </c>
-      <c r="J1" t="s">
-        <v>325</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4703,7 +4728,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4718,13 +4743,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4791,81 +4816,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>233</v>
-      </c>
-      <c r="I1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" t="s">
-        <v>235</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>331</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>332</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>333</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>334</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>335</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>336</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>337</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>338</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>339</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>340</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>341</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>342</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>343</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4880,19 +4905,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" t="s">
         <v>345</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>346</v>
-      </c>
-      <c r="H2" t="s">
-        <v>347</v>
       </c>
       <c r="I2" t="s">
         <v>126</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4935,33 +4960,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" t="s">
         <v>349</v>
-      </c>
-      <c r="G1" t="s">
-        <v>350</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" t="s">
         <v>351</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>352</v>
-      </c>
-      <c r="K1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4976,10 +5001,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -5032,57 +5057,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" t="s">
         <v>355</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>356</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>357</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>358</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>359</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>360</v>
-      </c>
-      <c r="J1" t="s">
-        <v>361</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" t="s">
         <v>362</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>363</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>364</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>365</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>367</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>368</v>
-      </c>
-      <c r="S1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5106,16 +5131,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" t="s">
         <v>370</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>371</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>372</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -5148,9 +5173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D5545B-C216-48DB-B002-DD3AC7471031}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5181,10 +5204,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" t="s">
         <v>373</v>
-      </c>
-      <c r="E1" t="s">
-        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>
@@ -5199,27 +5222,27 @@
         <v>141</v>
       </c>
       <c r="J1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" t="s">
         <v>375</v>
-      </c>
-      <c r="K1" t="s">
-        <v>376</v>
       </c>
       <c r="L1" t="s">
         <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5306,49 +5329,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>381</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5447,42 +5470,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" t="s">
         <v>388</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>389</v>
-      </c>
-      <c r="F1" t="s">
-        <v>390</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" t="s">
         <v>391</v>
-      </c>
-      <c r="I1" t="s">
-        <v>392</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1" t="s">
         <v>393</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>394</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>395</v>
-      </c>
-      <c r="N1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5503,10 +5526,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" t="s">
         <v>397</v>
-      </c>
-      <c r="I2" t="s">
-        <v>398</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5563,33 +5586,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" t="s">
         <v>399</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>400</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>401</v>
-      </c>
-      <c r="G1" t="s">
-        <v>402</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J1" t="s">
         <v>403</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>404</v>
-      </c>
-      <c r="K1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5601,25 +5624,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" t="s">
         <v>406</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>407</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>408</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>409</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>410</v>
-      </c>
-      <c r="K2" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5657,21 +5680,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5683,10 +5706,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5701,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5967,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6227,14 +6250,17 @@
       <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>126</v>
@@ -6265,6 +6291,24 @@
       </c>
       <c r="W3" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -6298,14 +6342,17 @@
       <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>129</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>126</v>
@@ -6336,6 +6383,24 @@
       </c>
       <c r="W4" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -6350,7 +6415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -6701,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6773,46 +6838,6 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6823,8 +6848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6867,103 +6892,103 @@
         <v>164</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -7012,7 +7037,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -7027,13 +7052,13 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>27</v>
@@ -7048,7 +7073,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>
@@ -7078,16 +7103,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7304,6 +7319,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
@@ -7313,16 +7338,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7339,4 +7354,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C776F5-61E9-41BD-A711-0225B90659F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFC1E8C-4895-4C60-AD4A-8EA420CE3739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2297,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>126</v>
@@ -2407,7 +2407,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>126</v>
@@ -2517,7 +2517,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>126</v>
@@ -4089,7 +4089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -7094,15 +7094,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7319,6 +7310,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7330,14 +7330,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7356,6 +7348,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFC1E8C-4895-4C60-AD4A-8EA420CE3739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724AD17-6F3D-4514-810F-1C5B50744A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="433">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>ProviderOption_ID2</t>
+  </si>
+  <si>
+    <t>Resource Family Home</t>
   </si>
 </sst>
 </file>
@@ -1803,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2422,7 +2425,7 @@
         <v>222</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>223</v>
+        <v>432</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2973,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:T4"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724AD17-6F3D-4514-810F-1C5B50744A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD592C70-84A6-4163-A440-23857EC0DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="13" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="433">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2174,6 +2174,7 @@
     <col min="33" max="33" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -3482,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6769,10 +6770,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6841,6 +6842,26 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7097,6 +7118,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7313,15 +7343,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7333,6 +7354,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7351,14 +7380,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD592C70-84A6-4163-A440-23857EC0DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5C40B-9CBC-4137-A590-8ACCD419FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="13" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3483,7 +3483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4093,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" activeCellId="1" sqref="K5 L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4446,7 +4446,7 @@
         <v>61</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>27</v>
@@ -4588,6 +4588,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5C40B-9CBC-4137-A590-8ACCD419FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF1820-1A23-40D0-B0F6-DF43702E702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -2142,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
@@ -2977,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3221,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>27</v>
@@ -4093,7 +4093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L11" activeCellId="1" sqref="K5 L11"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF1820-1A23-40D0-B0F6-DF43702E702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B9717-E578-4359-8695-F861AA1B17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="14" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -873,9 +873,6 @@
     <t>REQUESTED_DATE_AND_TIME</t>
   </si>
   <si>
-    <t>BACKGROUND_CHECK_TYPE</t>
-  </si>
-  <si>
     <t>REQUESTED_MANAGER</t>
   </si>
   <si>
@@ -1363,6 +1360,9 @@
   </si>
   <si>
     <t>Resource Family Home</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2130,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2316,7 +2316,7 @@
         <v>222</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2426,7 +2426,7 @@
         <v>222</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2977,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3065,7 +3065,7 @@
         <v>254</v>
       </c>
       <c r="U1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
@@ -3106,10 +3106,10 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
@@ -3130,7 +3130,7 @@
         <v>27</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
@@ -3195,7 +3195,7 @@
         <v>27</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
@@ -3245,7 +3245,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3378,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3547,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,10 +3579,10 @@
         <v>268</v>
       </c>
       <c r="I1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" t="s">
         <v>269</v>
-      </c>
-      <c r="J1" t="s">
-        <v>270</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3605,7 +3605,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3614,10 +3614,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -3658,13 +3658,13 @@
         <v>267</v>
       </c>
       <c r="G1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" t="s">
         <v>428</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>429</v>
-      </c>
-      <c r="I1" t="s">
-        <v>430</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3728,22 +3728,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3830,43 +3830,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>70</v>
@@ -3878,22 +3878,22 @@
         <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3913,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>126</v>
@@ -3952,10 +3952,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3964,7 +3964,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -4013,31 +4013,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4170,7 +4170,7 @@
         <v>140</v>
       </c>
       <c r="R1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -4541,7 +4541,7 @@
         <v>20</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V6" s="13" t="s">
         <v>20</v>
@@ -4622,19 +4622,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" t="s">
         <v>310</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>311</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>312</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>313</v>
-      </c>
-      <c r="H1" t="s">
-        <v>314</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4657,13 +4657,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" t="s">
         <v>315</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>316</v>
-      </c>
-      <c r="H2" t="s">
-        <v>317</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4707,25 +4707,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>319</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>320</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>321</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>322</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>323</v>
-      </c>
-      <c r="J1" t="s">
-        <v>324</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4748,13 +4748,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4824,7 +4824,7 @@
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F1" t="s">
         <v>229</v>
@@ -4845,57 +4845,57 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" t="s">
         <v>328</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>329</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>330</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>331</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>332</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>333</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>334</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>335</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>336</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>337</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>338</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>339</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>340</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>341</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>342</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4910,13 +4910,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
         <v>344</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>345</v>
-      </c>
-      <c r="H2" t="s">
-        <v>346</v>
       </c>
       <c r="I2" t="s">
         <v>126</v>
@@ -4965,33 +4965,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" t="s">
         <v>348</v>
-      </c>
-      <c r="G1" t="s">
-        <v>349</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" t="s">
         <v>350</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>351</v>
-      </c>
-      <c r="K1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -5062,57 +5062,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" t="s">
         <v>354</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>355</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>356</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>357</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>358</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>359</v>
-      </c>
-      <c r="J1" t="s">
-        <v>360</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" t="s">
         <v>361</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>362</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>363</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>364</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>365</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>366</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>367</v>
-      </c>
-      <c r="S1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5136,16 +5136,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" t="s">
         <v>369</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>370</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>371</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -5209,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
         <v>372</v>
-      </c>
-      <c r="E1" t="s">
-        <v>373</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>
@@ -5227,10 +5227,10 @@
         <v>141</v>
       </c>
       <c r="J1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" t="s">
         <v>374</v>
-      </c>
-      <c r="K1" t="s">
-        <v>375</v>
       </c>
       <c r="L1" t="s">
         <v>143</v>
@@ -5242,12 +5242,12 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5334,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>232</v>
@@ -5343,40 +5343,40 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>380</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5475,42 +5475,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>388</v>
-      </c>
-      <c r="F1" t="s">
-        <v>389</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" t="s">
         <v>390</v>
-      </c>
-      <c r="I1" t="s">
-        <v>391</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" t="s">
         <v>392</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>393</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>394</v>
-      </c>
-      <c r="N1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5531,10 +5531,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" t="s">
         <v>396</v>
-      </c>
-      <c r="I2" t="s">
-        <v>397</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5591,33 +5591,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" t="s">
         <v>398</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>399</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>400</v>
-      </c>
-      <c r="G1" t="s">
-        <v>401</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J1" t="s">
         <v>402</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>403</v>
-      </c>
-      <c r="K1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5629,25 +5629,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" t="s">
         <v>405</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>406</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>407</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>408</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>409</v>
-      </c>
-      <c r="K2" t="s">
-        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -5685,21 +5685,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5711,10 +5711,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -6917,10 +6917,10 @@
         <v>164</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>165</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B9717-E578-4359-8695-F861AA1B17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E958A6-FFB0-4509-98FF-560CD5A2F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="14" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,9 @@
     <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId27"/>
     <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId28"/>
     <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId29"/>
+    <sheet name="LegalAuthority" sheetId="31" r:id="rId30"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId31"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="441">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1363,6 +1366,30 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>folioPersonName3</t>
+  </si>
+  <si>
+    <t>LEGAL_AUTHORITY_TAB</t>
+  </si>
+  <si>
+    <t>lEGAL_AUTHORITY</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>START_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>Guardian Non-Relative</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME3</t>
+  </si>
+  <si>
+    <t>CLO_ID3</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2133,6 +2160,65 @@
         <v>424</v>
       </c>
     </row>
+    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2142,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2975,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3260,124 +3346,146 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="K6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="13" t="s">
+      <c r="M7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="13" t="s">
+      <c r="S7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3391,7 +3499,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3547,7 +3655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -4091,10 +4199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" activeCellId="1" sqref="K5 L11"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4479,110 +4587,175 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="13" t="s">
+      <c r="M7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="13" t="s">
+      <c r="Q7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="13" t="s">
+      <c r="V7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AG7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH6" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" s="13" t="s">
+      <c r="AI7" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5988,6 +6161,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C793DAD-DC1C-43D2-A0A4-56670FD158A9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" customWidth="1"/>
+    <col min="7" max="8" width="25.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5317A1B-3CB3-4789-BFA3-BB22D37C7EF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BEECCE-F742-4A51-AB07-2E582EBADDFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7389,4 +7666,10 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E958A6-FFB0-4509-98FF-560CD5A2F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220F61D-6028-4F95-AA56-0920964547A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="441">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2228,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3063,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3347,26 +3347,69 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220F61D-6028-4F95-AA56-0920964547A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D47A30-8F59-4CFE-820E-116CA17C05FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-1220" yWindow="5490" windowWidth="19200" windowHeight="5800" firstSheet="27" activeTab="30" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId28"/>
     <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId29"/>
     <sheet name="LegalAuthority" sheetId="31" r:id="rId30"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId31"/>
+    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId31"/>
     <sheet name="Sheet3" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="448">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1390,6 +1390,27 @@
   </si>
   <si>
     <t>CLO_ID3</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE_ARTICLE_TAB</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>FILTER_BTN</t>
+  </si>
+  <si>
+    <t>PUBLICATION_STATUS</t>
+  </si>
+  <si>
+    <t>VALIDATION_STATUS</t>
+  </si>
+  <si>
+    <t>APPLY_BTN</t>
+  </si>
+  <si>
+    <t>CANCLE_BTN</t>
   </si>
 </sst>
 </file>
@@ -3063,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6212,7 +6233,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6284,17 +6305,78 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5317A1B-3CB3-4789-BFA3-BB22D37C7EF9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7439,15 +7521,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7664,6 +7737,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7675,14 +7757,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7697,6 +7771,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3A94A-91A2-44E1-9C40-E4DD16100294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244828F2-E844-42F5-9B6C-67B6BD7ABB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="477">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1974,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1992,9 +1992,10 @@
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2055,8 +2056,11 @@
       <c r="T1" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -2248,7 +2252,7 @@
       </c>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -2306,8 +2310,11 @@
       <c r="S6" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2365,8 +2372,11 @@
       <c r="S7" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>35</v>
       </c>
@@ -3626,7 +3636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -8906,12 +8916,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9132,19 +9143,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9169,11 +9181,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244828F2-E844-42F5-9B6C-67B6BD7ABB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543EA88-F1EF-4344-BF14-3D0E269883C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="478">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>PLACEMENT_NAME4</t>
+  </si>
+  <si>
+    <t>REMOVAL_RECORD</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="V6" sqref="V6:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1995,7 +1998,7 @@
     <col min="20" max="20" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,8 +2062,11 @@
       <c r="U1" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -2252,7 +2258,7 @@
       </c>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -2313,8 +2319,11 @@
       <c r="U6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2375,8 +2384,11 @@
       <c r="U7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>35</v>
       </c>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543EA88-F1EF-4344-BF14-3D0E269883C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A475D8-4334-49FE-B66C-5EA6E8BECFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-10" yWindow="120" windowWidth="19200" windowHeight="5800" firstSheet="26" activeTab="28" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="477">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1454,9 +1454,6 @@
   </si>
   <si>
     <t>lEGAL_AUTHORITY</t>
-  </si>
-  <si>
-    <t>EFFECTIVE_DATE_AND_TIME</t>
   </si>
   <si>
     <t>START_DATE_AND_TIME</t>
@@ -1979,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:V7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2063,7 +2060,7 @@
         <v>50</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -3857,7 +3854,7 @@
         <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
@@ -4094,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>81</v>
@@ -4162,7 +4159,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>81</v>
@@ -6088,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6114,10 +6111,10 @@
         <v>462</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>463</v>
-      </c>
-      <c r="H1" t="s">
-        <v>464</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -6140,7 +6137,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
@@ -7164,28 +7161,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.45">
@@ -7202,7 +7199,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A475D8-4334-49FE-B66C-5EA6E8BECFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AB65D-BAEA-4861-BC9D-1688D4A55707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="120" windowWidth="19200" windowHeight="5800" firstSheet="26" activeTab="28" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="477">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6085,7 +6085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6156,10 +6156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6182,17 +6182,18 @@
     <col min="21" max="22" width="21.453125" customWidth="1"/>
     <col min="23" max="23" width="9.81640625" customWidth="1"/>
     <col min="25" max="25" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.54296875" customWidth="1"/>
+    <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6269,31 +6270,37 @@
         <v>114</v>
       </c>
       <c r="Z1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>120</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -6394,16 +6401,13 @@
         <v>28</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6504,16 +6508,13 @@
         <v>28</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -6614,16 +6615,13 @@
         <v>28</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6718,16 +6716,22 @@
         <v>28</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
+      <c r="AH5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ5" s="10"/>
-    </row>
-    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+    </row>
+    <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -6822,16 +6826,22 @@
         <v>28</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
+      <c r="AH6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ6" s="13"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>35</v>
       </c>
@@ -6907,12 +6917,6 @@
       <c r="Y7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Z7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="AB7" s="21" t="s">
         <v>28</v>
       </c>
@@ -6926,13 +6930,19 @@
         <v>28</v>
       </c>
       <c r="AF7" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG7" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AH7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
@@ -7008,12 +7018,6 @@
       <c r="Y8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="AB8" s="21" t="s">
         <v>28</v>
       </c>
@@ -7027,13 +7031,19 @@
         <v>28</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG8" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AH8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
@@ -7109,12 +7119,6 @@
       <c r="Y9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="AB9" s="21" t="s">
         <v>28</v>
       </c>
@@ -7128,9 +7132,15 @@
         <v>28</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" s="21" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AB65D-BAEA-4861-BC9D-1688D4A55707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2EFEA7-6092-4FC8-8C87-292B46CE2712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -6158,8 +6158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7221,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7858,16 +7858,16 @@
         <v>28</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>28</v>
@@ -8935,13 +8935,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9162,20 +9161,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9200,9 +9198,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2EFEA7-6092-4FC8-8C87-292B46CE2712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F7CC25-B8DF-47DC-96E1-8E010A64A815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="478">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>REMOVAL_RECORD</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -3645,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4199,6 +4202,21 @@
       </c>
       <c r="V7" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7221,7 +7239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F7CC25-B8DF-47DC-96E1-8E010A64A815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F30A3-9D99-4863-8750-B63995CC7FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="290" yWindow="3830" windowWidth="19200" windowHeight="5800" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -3648,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6176,7 +6176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F30A3-9D99-4863-8750-B63995CC7FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6C7F5F-E0CB-4EAA-AFF6-61B70F676367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="3830" windowWidth="19200" windowHeight="5800" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -3648,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3988,7 +3988,7 @@
         <v>28</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>21</v>
@@ -4056,7 +4056,7 @@
         <v>28</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>21</v>
@@ -4124,7 +4124,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>21</v>
@@ -4192,7 +4192,7 @@
         <v>28</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>21</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6C7F5F-E0CB-4EAA-AFF6-61B70F676367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAFC5BF-C2F2-4342-ADDB-0CCCB3E0149A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="478">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1492,13 +1492,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>PLACEMENT_NAME4</t>
-  </si>
-  <si>
     <t>REMOVAL_RECORD</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>EXPEDITED_PRESUMTIVE_TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2063,7 @@
         <v>50</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -3646,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3658,22 +3658,22 @@
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="18" width="16.81640625" customWidth="1"/>
-    <col min="21" max="21" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
-    <col min="23" max="23" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="16.81640625" customWidth="1"/>
+    <col min="22" max="22" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6328125" customWidth="1"/>
+    <col min="24" max="24" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3729,85 +3729,88 @@
         <v>49</v>
       </c>
       <c r="S1" t="s">
+        <v>477</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AO1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AP1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AS1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3857,10 +3860,13 @@
         <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -3916,23 +3922,26 @@
         <v>28</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="10"/>
+      <c r="W3" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
-    </row>
-    <row r="4" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AC3" s="10"/>
+    </row>
+    <row r="4" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3988,19 +3997,22 @@
         <v>28</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -4056,19 +4068,22 @@
         <v>28</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4124,19 +4139,22 @@
         <v>28</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4159,10 +4177,10 @@
         <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>475</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>81</v>
@@ -4171,19 +4189,19 @@
         <v>23</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
@@ -4192,34 +4210,37 @@
         <v>28</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="W7" s="5" t="s">
-        <v>477</v>
+        <v>21</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -4274,20 +4295,18 @@
       <c r="R8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="S8" s="13"/>
       <c r="T8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="U8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="W8" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>28</v>
@@ -4302,7 +4321,7 @@
         <v>28</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AC8" s="13" t="s">
         <v>75</v>
@@ -4325,7 +4344,9 @@
       <c r="AI8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="13"/>
+      <c r="AJ8" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="AK8" s="13"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -4334,8 +4355,9 @@
       <c r="AP8" s="13"/>
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS8" s="13"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
@@ -4390,20 +4412,18 @@
       <c r="R9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="S9" s="13"/>
       <c r="T9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="W9" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X9" s="18" t="s">
         <v>28</v>
@@ -4442,34 +4462,37 @@
         <v>28</v>
       </c>
       <c r="AJ9" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK9" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AL9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AM9" s="18" t="s">
+      <c r="AN9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AN9" s="18" t="s">
+      <c r="AO9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AO9" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AP9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AQ9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AR9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>35</v>
       </c>
@@ -4524,20 +4547,18 @@
       <c r="R10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="S10" s="13"/>
       <c r="T10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="V10" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="W10" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X10" s="18" t="s">
         <v>28</v>
@@ -4576,34 +4597,37 @@
         <v>28</v>
       </c>
       <c r="AJ10" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK10" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AL10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AM10" s="18" t="s">
+      <c r="AN10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AN10" s="18" t="s">
+      <c r="AO10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AO10" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AP10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AQ10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AR10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
@@ -4658,20 +4682,18 @@
       <c r="R11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="S11" s="13"/>
       <c r="T11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="V11" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="W11" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X11" s="18" t="s">
         <v>28</v>
@@ -4710,34 +4732,37 @@
         <v>28</v>
       </c>
       <c r="AJ11" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AL11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AM11" s="18" t="s">
+      <c r="AN11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AN11" s="18" t="s">
+      <c r="AO11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AO11" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AP11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ11" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AQ11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AR11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
@@ -4792,20 +4817,18 @@
       <c r="R12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="S12" s="13"/>
       <c r="T12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="V12" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="W12" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X12" s="18" t="s">
         <v>28</v>
@@ -4844,34 +4867,37 @@
         <v>28</v>
       </c>
       <c r="AJ12" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AL12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM12" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AM12" s="18" t="s">
+      <c r="AN12" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AN12" s="18" t="s">
+      <c r="AO12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AO12" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AP12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AQ12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AR12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -4926,20 +4952,18 @@
       <c r="R13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="S13" s="13"/>
       <c r="T13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="V13" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="W13" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X13" s="18" t="s">
         <v>28</v>
@@ -4978,30 +5002,33 @@
         <v>28</v>
       </c>
       <c r="AJ13" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AL13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AM13" s="18" t="s">
+      <c r="AN13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AN13" s="18" t="s">
+      <c r="AO13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AO13" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AP13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ13" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AQ13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="s">
+      <c r="AR13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8953,12 +8980,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9179,19 +9207,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9216,11 +9245,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAFC5BF-C2F2-4342-ADDB-0CCCB3E0149A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8D219-43FA-40ED-99B2-AE0DAB1AD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>EXPEDITED_PRESUMTIVE_TRANSFER</t>
+  </si>
+  <si>
+    <t>Final Transition Plan</t>
   </si>
 </sst>
 </file>
@@ -3646,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3658,7 +3661,10 @@
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="19" width="16.81640625" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" customWidth="1"/>
+    <col min="17" max="17" width="8.453125" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" customWidth="1"/>
     <col min="22" max="22" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.6328125" customWidth="1"/>
     <col min="24" max="24" width="22.1796875" bestFit="1" customWidth="1"/>
@@ -4240,257 +4246,208 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="M9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="13" t="s">
+      <c r="Q9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="13" t="s">
+      <c r="W9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AF9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AG9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AI9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>21</v>
-      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
@@ -4500,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>21</v>
@@ -4518,7 +4475,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>75</v>
@@ -4618,7 +4575,7 @@
         <v>21</v>
       </c>
       <c r="AQ10" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR10" s="18" t="s">
         <v>21</v>
@@ -4635,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>21</v>
@@ -4653,7 +4610,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>75</v>
@@ -4690,7 +4647,7 @@
         <v>21</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>21</v>
@@ -4753,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AR11" s="18" t="s">
         <v>21</v>
@@ -4770,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>21</v>
@@ -4788,7 +4745,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>75</v>
@@ -4888,7 +4845,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR12" s="18" t="s">
         <v>21</v>
@@ -4905,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>21</v>
@@ -4923,7 +4880,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>75</v>
@@ -4960,7 +4917,7 @@
         <v>21</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>21</v>
@@ -5023,12 +4980,147 @@
         <v>21</v>
       </c>
       <c r="AQ13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AR13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AR14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS14" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8D219-43FA-40ED-99B2-AE0DAB1AD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82FC0B4-5D7D-491C-ABF9-33D52A24F950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3649,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AS14"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4210,10 +4210,10 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>28</v>
+        <v>478</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>28</v>
@@ -4246,139 +4246,170 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="5" t="s">
+    <row r="8" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="L8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="AD8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="M9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="18" t="s">
         <v>79</v>
       </c>
       <c r="Q9" s="13" t="s">
@@ -4388,66 +4419,84 @@
         <v>28</v>
       </c>
       <c r="S9" s="13"/>
-      <c r="T9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
+      <c r="T9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
@@ -4457,10 +4506,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>21</v>
@@ -4475,7 +4524,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>75</v>
@@ -4575,7 +4624,7 @@
         <v>21</v>
       </c>
       <c r="AQ10" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR10" s="18" t="s">
         <v>21</v>
@@ -4592,10 +4641,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>21</v>
@@ -4610,7 +4659,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>75</v>
@@ -4647,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>21</v>
@@ -4710,7 +4759,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AR11" s="18" t="s">
         <v>21</v>
@@ -4727,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>21</v>
@@ -4745,7 +4794,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>75</v>
@@ -4845,7 +4894,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AR12" s="18" t="s">
         <v>21</v>
@@ -4862,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>21</v>
@@ -4880,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>75</v>
@@ -4917,7 +4966,7 @@
         <v>21</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>21</v>
@@ -4980,147 +5029,12 @@
         <v>21</v>
       </c>
       <c r="AQ13" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AR13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AS13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18">
-        <v>5</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ14" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS14" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82FC0B4-5D7D-491C-ABF9-33D52A24F950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B50E4-3D22-4F8A-A00B-8B107D152358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3649,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4210,10 +4210,10 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>478</v>
+        <v>28</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>28</v>
@@ -4246,257 +4246,208 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="M9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="13" t="s">
+      <c r="Q9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="13" t="s">
+      <c r="W9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AF9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AG9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AI9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>21</v>
-      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
@@ -4506,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>21</v>
@@ -4524,7 +4475,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>75</v>
@@ -4624,7 +4575,7 @@
         <v>21</v>
       </c>
       <c r="AQ10" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR10" s="18" t="s">
         <v>21</v>
@@ -4641,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>21</v>
@@ -4659,7 +4610,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>75</v>
@@ -4696,7 +4647,7 @@
         <v>21</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>21</v>
@@ -4759,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AR11" s="18" t="s">
         <v>21</v>
@@ -4776,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>21</v>
@@ -4794,7 +4745,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>75</v>
@@ -4894,7 +4845,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR12" s="18" t="s">
         <v>21</v>
@@ -4911,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>21</v>
@@ -4929,7 +4880,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>75</v>
@@ -4966,7 +4917,7 @@
         <v>21</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>21</v>
@@ -5029,12 +4980,147 @@
         <v>21</v>
       </c>
       <c r="AQ13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AR13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AR14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS14" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B50E4-3D22-4F8A-A00B-8B107D152358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8FB02-FE08-4AAD-A03C-20E38D17CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3649,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AS14"/>
+  <dimension ref="A1:AT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3664,22 +3664,22 @@
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
     <col min="17" max="17" width="8.453125" customWidth="1"/>
     <col min="18" max="18" width="19.81640625" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" customWidth="1"/>
-    <col min="22" max="22" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6328125" customWidth="1"/>
-    <col min="24" max="24" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.81640625" customWidth="1"/>
+    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6328125" customWidth="1"/>
+    <col min="25" max="25" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,85 +3738,88 @@
         <v>477</v>
       </c>
       <c r="T1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AN1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AO1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AP1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AS1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AT1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3869,10 +3872,13 @@
         <v>28</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -3931,23 +3937,26 @@
         <v>28</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="10"/>
+      <c r="X3" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
-    </row>
-    <row r="4" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AD3" s="10"/>
+    </row>
+    <row r="4" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -4006,19 +4015,22 @@
         <v>28</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -4077,19 +4089,22 @@
         <v>28</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4148,19 +4163,22 @@
         <v>28</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4219,19 +4237,19 @@
         <v>28</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X7" s="5" t="s">
-        <v>476</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>476</v>
@@ -4245,8 +4263,11 @@
       <c r="AB7" s="5" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AC7" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -4311,13 +4332,13 @@
         <v>21</v>
       </c>
       <c r="V8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X8" s="5" t="s">
-        <v>476</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>476</v>
@@ -4331,8 +4352,11 @@
       <c r="AB8" s="5" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AC8" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
@@ -4388,20 +4412,18 @@
         <v>28</v>
       </c>
       <c r="S9" s="13"/>
-      <c r="T9" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="T9" s="13"/>
       <c r="U9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="X9" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="13" t="s">
         <v>28</v>
@@ -4416,7 +4438,7 @@
         <v>28</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AD9" s="13" t="s">
         <v>75</v>
@@ -4439,7 +4461,9 @@
       <c r="AJ9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AK9" s="13"/>
+      <c r="AK9" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
@@ -4448,8 +4472,9 @@
       <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT9" s="13"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>35</v>
       </c>
@@ -4505,20 +4530,18 @@
         <v>28</v>
       </c>
       <c r="S10" s="13"/>
-      <c r="T10" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="T10" s="13"/>
       <c r="U10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="W10" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="X10" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="18" t="s">
         <v>28</v>
@@ -4557,34 +4580,37 @@
         <v>28</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL10" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AM10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AN10" s="18" t="s">
+      <c r="AO10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AO10" s="18" t="s">
+      <c r="AP10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AP10" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AR10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AS10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
@@ -4640,20 +4666,18 @@
         <v>28</v>
       </c>
       <c r="S11" s="13"/>
-      <c r="T11" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="T11" s="13"/>
       <c r="U11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="W11" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="X11" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y11" s="18" t="s">
         <v>28</v>
@@ -4692,34 +4716,37 @@
         <v>28</v>
       </c>
       <c r="AK11" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AM11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AN11" s="18" t="s">
+      <c r="AO11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AO11" s="18" t="s">
+      <c r="AP11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AP11" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AR11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AS11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
@@ -4775,20 +4802,18 @@
         <v>28</v>
       </c>
       <c r="S12" s="13"/>
-      <c r="T12" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="T12" s="13"/>
       <c r="U12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="X12" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y12" s="18" t="s">
         <v>28</v>
@@ -4827,34 +4852,37 @@
         <v>28</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AM12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN12" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AN12" s="18" t="s">
+      <c r="AO12" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AO12" s="18" t="s">
+      <c r="AP12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AP12" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AR12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AS12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -4910,20 +4938,18 @@
         <v>28</v>
       </c>
       <c r="S13" s="13"/>
-      <c r="T13" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="T13" s="13"/>
       <c r="U13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="V13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W13" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="X13" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y13" s="18" t="s">
         <v>28</v>
@@ -4962,34 +4988,37 @@
         <v>28</v>
       </c>
       <c r="AK13" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AM13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AN13" s="18" t="s">
+      <c r="AO13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AO13" s="18" t="s">
+      <c r="AP13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AP13" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AR13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AS13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>35</v>
       </c>
@@ -5045,20 +5074,18 @@
         <v>28</v>
       </c>
       <c r="S14" s="13"/>
-      <c r="T14" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="T14" s="13"/>
       <c r="U14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="X14" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y14" s="18" t="s">
         <v>28</v>
@@ -5097,30 +5124,33 @@
         <v>28</v>
       </c>
       <c r="AK14" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AM14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AN14" s="18" t="s">
+      <c r="AO14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AO14" s="18" t="s">
+      <c r="AP14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AP14" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AR14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AS14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT14" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8FB02-FE08-4AAD-A03C-20E38D17CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CF439-6467-451B-9DE0-5DF97685D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -3651,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CF439-6467-451B-9DE0-5DF97685D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56A232-67C2-4BC3-A2DC-A16969D64C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -3651,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4299,7 +4299,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>28</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56A232-67C2-4BC3-A2DC-A16969D64C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95292F8-7340-4539-BB2F-CCDB5866353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="29" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId28"/>
     <sheet name="LegalAuthority" sheetId="31" r:id="rId29"/>
     <sheet name="KnowledgeArticle" sheetId="32" r:id="rId30"/>
+    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="489">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1483,9 +1484,6 @@
     <t>CANCLE_BTN</t>
   </si>
   <si>
-    <t>Foster Family Home</t>
-  </si>
-  <si>
     <t>PLACEMENT_NAME3</t>
   </si>
   <si>
@@ -1502,6 +1500,39 @@
   </si>
   <si>
     <t>Final Transition Plan</t>
+  </si>
+  <si>
+    <t>Forms required to complete the Foster Family Home Placement</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE</t>
+  </si>
+  <si>
+    <t>FOSTER_FAMILY_HOME_PLACEMENT</t>
+  </si>
+  <si>
+    <t>ARTICLE_NUMBER</t>
+  </si>
+  <si>
+    <t>VERSION_NUMBER</t>
+  </si>
+  <si>
+    <t>IS_LATEST_VERSION</t>
+  </si>
+  <si>
+    <t>HEADER_DATE</t>
+  </si>
+  <si>
+    <t>HEADER_FIELD</t>
+  </si>
+  <si>
+    <t>HEADER_USER</t>
+  </si>
+  <si>
+    <t>HEADER_ORIGINAL_VALUE</t>
+  </si>
+  <si>
+    <t>HEADER_NEW_VALUE</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2097,7 @@
         <v>50</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -3651,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3735,7 +3766,7 @@
         <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T1" t="s">
         <v>146</v>
@@ -3875,7 +3906,7 @@
         <v>28</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -4130,7 +4161,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>81</v>
@@ -4252,19 +4283,19 @@
         <v>21</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4320,7 +4351,7 @@
         <v>288</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>28</v>
@@ -4341,19 +4372,19 @@
         <v>21</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7319,15 +7350,18 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="50.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7361,8 +7395,32 @@
       <c r="K1" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.45">
+      <c r="L1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -7376,7 +7434,136 @@
         <v>21</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41B10F-8604-4EA7-BD0E-5A173F6C691E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95292F8-7340-4539-BB2F-CCDB5866353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407373D7-2CEE-4B06-AC76-9EAC304518D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="29" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="490">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1490,9 +1490,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>REMOVAL_RECORD</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -1533,6 +1530,12 @@
   </si>
   <si>
     <t>HEADER_NEW_VALUE</t>
+  </si>
+  <si>
+    <t>REMOVAL_ID</t>
+  </si>
+  <si>
+    <t>Removal_ID2</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2030,6 +2033,7 @@
     <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.08984375" customWidth="1"/>
+    <col min="22" max="22" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -2097,7 +2101,7 @@
         <v>50</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -2353,9 +2357,6 @@
       <c r="U6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -2419,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>21</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -3766,7 +3767,7 @@
         <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T1" t="s">
         <v>146</v>
@@ -4283,19 +4284,19 @@
         <v>21</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4351,7 +4352,7 @@
         <v>288</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>28</v>
@@ -4372,19 +4373,19 @@
         <v>21</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6284,7 +6285,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7352,7 +7353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -7396,19 +7397,19 @@
         <v>471</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>468</v>
@@ -7434,7 +7435,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -7522,19 +7523,19 @@
         <v>416</v>
       </c>
       <c r="E1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="s">
         <v>484</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>485</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>486</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>487</v>
-      </c>
-      <c r="I1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9289,13 +9290,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9516,20 +9516,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9554,9 +9553,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407373D7-2CEE-4B06-AC76-9EAC304518D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B393133-F636-4C74-8953-77759849D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="492">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1536,13 +1536,19 @@
   </si>
   <si>
     <t>Removal_ID2</t>
+  </si>
+  <si>
+    <t>SECONDARY_PHONE_NAME</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1597,6 +1603,14 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1670,10 +1684,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1700,8 +1715,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2016,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6285,7 +6302,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6355,10 +6372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6372,27 +6389,27 @@
     <col min="9" max="9" width="42.81640625" customWidth="1"/>
     <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="21.453125" customWidth="1"/>
-    <col min="17" max="20" width="31" customWidth="1"/>
-    <col min="21" max="22" width="21.453125" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" customWidth="1"/>
-    <col min="25" max="25" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.54296875" customWidth="1"/>
+    <col min="12" max="14" width="23.7265625" customWidth="1"/>
+    <col min="15" max="15" width="19.54296875" customWidth="1"/>
+    <col min="16" max="16" width="27.54296875" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="21.453125" customWidth="1"/>
+    <col min="19" max="22" width="31" customWidth="1"/>
+    <col min="23" max="24" width="21.453125" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" customWidth="1"/>
+    <col min="27" max="27" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6430,76 +6447,82 @@
         <v>102</v>
       </c>
       <c r="M1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" t="s">
+        <v>490</v>
+      </c>
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>111</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -6536,44 +6559,44 @@
       <c r="L2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="O2" s="5">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="P2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="5">
+      <c r="V2" s="5">
         <v>97818</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
@@ -6600,13 +6623,19 @@
         <v>28</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AJ2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6643,44 +6672,44 @@
       <c r="L3" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1234567891</v>
+      </c>
+      <c r="O3" s="5">
         <v>4</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="P3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="5">
+      <c r="V3" s="5">
         <v>97818</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="W3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>28</v>
@@ -6707,13 +6736,19 @@
         <v>28</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AJ3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -6750,44 +6785,44 @@
       <c r="L4" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1234567892</v>
+      </c>
+      <c r="O4" s="5">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="P4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="5">
+      <c r="V4" s="5">
         <v>97818</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="W4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>28</v>
@@ -6814,13 +6849,19 @@
         <v>28</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6857,49 +6898,45 @@
       <c r="L5" s="10">
         <v>1234567890</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10">
         <v>4</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="P5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="10">
+      <c r="V5" s="10">
         <v>97818</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="W5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AB5" s="10" t="s">
@@ -6921,16 +6958,22 @@
         <v>28</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
+      <c r="AJ5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AL5" s="10"/>
-    </row>
-    <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+    </row>
+    <row r="6" spans="1:40" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -6967,44 +7010,40 @@
       <c r="L6" s="13">
         <v>1234512345</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
         <v>10</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="P6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="T6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="13">
+      <c r="V6" s="13">
         <v>97818</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="W6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z6" s="13" t="s">
         <v>28</v>
@@ -7031,16 +7070,22 @@
         <v>28</v>
       </c>
       <c r="AH6" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
+      <c r="AJ6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="AL6" s="13"/>
-    </row>
-    <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>35</v>
       </c>
@@ -7077,49 +7122,45 @@
       <c r="L7" s="21">
         <v>1234512345</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
         <v>10</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="P7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="21" t="s">
+      <c r="T7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="21">
+      <c r="V7" s="21">
         <v>97818</v>
       </c>
-      <c r="U7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="W7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="AD7" s="21" t="s">
@@ -7135,13 +7176,19 @@
         <v>28</v>
       </c>
       <c r="AH7" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI7" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AJ7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK7" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
@@ -7178,49 +7225,45 @@
       <c r="L8" s="21">
         <v>1234512345</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21">
         <v>10</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="P8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="21" t="s">
+      <c r="T8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T8" s="21">
+      <c r="V8" s="21">
         <v>97818</v>
       </c>
-      <c r="U8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="W8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="AD8" s="21" t="s">
@@ -7236,13 +7279,19 @@
         <v>28</v>
       </c>
       <c r="AH8" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI8" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AJ8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK8" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
@@ -7279,49 +7328,45 @@
       <c r="L9" s="21">
         <v>1234512345</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21">
         <v>10</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="P9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="21" t="s">
+      <c r="T9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T9" s="21">
+      <c r="V9" s="21">
         <v>97818</v>
       </c>
-      <c r="U9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="W9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="AD9" s="21" t="s">
@@ -7337,15 +7382,26 @@
         <v>28</v>
       </c>
       <c r="AH9" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI9" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="AJ9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK9" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{82F9BFD7-6F50-4A96-BC92-CDF7AF34F499}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{DE101340-62C0-4456-8A48-A58BDBD8E7EC}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{7B269020-DAD6-45EC-A7F7-1E30FFC78837}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B393133-F636-4C74-8953-77759849D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9E4B3B-D963-4590-BAC4-3865940ADCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="491">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1536,9 +1536,6 @@
   </si>
   <si>
     <t>Removal_ID2</t>
-  </si>
-  <si>
-    <t>SECONDARY_PHONE_NAME</t>
   </si>
   <si>
     <t>Test@gmail.com</t>
@@ -6372,10 +6369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6389,27 +6386,27 @@
     <col min="9" max="9" width="42.81640625" customWidth="1"/>
     <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
-    <col min="12" max="14" width="23.7265625" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="21.453125" customWidth="1"/>
-    <col min="19" max="22" width="31" customWidth="1"/>
-    <col min="23" max="24" width="21.453125" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" customWidth="1"/>
-    <col min="27" max="27" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="42" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.54296875" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" customWidth="1"/>
+    <col min="17" max="20" width="31" customWidth="1"/>
+    <col min="21" max="22" width="21.453125" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" customWidth="1"/>
+    <col min="25" max="25" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6447,82 +6444,76 @@
         <v>102</v>
       </c>
       <c r="M1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" t="s">
-        <v>490</v>
-      </c>
-      <c r="O1" t="s">
-        <v>103</v>
-      </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" t="s">
         <v>105</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>106</v>
       </c>
-      <c r="S1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>114</v>
-      </c>
       <c r="AB1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AC1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AE1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AH1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AI1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -6559,44 +6550,44 @@
       <c r="L2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>491</v>
+      <c r="M2" s="5">
+        <v>4</v>
       </c>
       <c r="N2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O2" s="5">
-        <v>4</v>
+      <c r="O2" s="26" t="s">
+        <v>490</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T2" s="5">
+        <v>97818</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="5">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
@@ -6623,19 +6614,13 @@
         <v>28</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6672,44 +6657,44 @@
       <c r="L3" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>491</v>
+      <c r="M3" s="5">
+        <v>4</v>
       </c>
       <c r="N3" s="5">
-        <v>1234567891</v>
-      </c>
-      <c r="O3" s="5">
-        <v>4</v>
+        <v>1234567890</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>490</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T3" s="5">
+        <v>97818</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="5">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>28</v>
@@ -6736,19 +6721,13 @@
         <v>28</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -6785,44 +6764,44 @@
       <c r="L4" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>491</v>
+      <c r="M4" s="5">
+        <v>4</v>
       </c>
       <c r="N4" s="5">
-        <v>1234567892</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4</v>
+        <v>1234567890</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>490</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T4" s="5">
+        <v>97818</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V4" s="5">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>28</v>
@@ -6849,19 +6828,13 @@
         <v>28</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6898,45 +6871,49 @@
       <c r="L5" s="10">
         <v>1234567890</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10">
+      <c r="M5" s="10">
         <v>4</v>
       </c>
+      <c r="N5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="P5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T5" s="10">
+        <v>97818</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="V5" s="10">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Z5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AB5" s="10" t="s">
@@ -6958,22 +6935,16 @@
         <v>28</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-    </row>
-    <row r="6" spans="1:40" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -7010,40 +6981,44 @@
       <c r="L6" s="13">
         <v>1234512345</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
+      <c r="M6" s="13">
         <v>10</v>
       </c>
+      <c r="N6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="P6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T6" s="13">
+        <v>97818</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="V6" s="13">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="W6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z6" s="13" t="s">
         <v>28</v>
@@ -7070,22 +7045,16 @@
         <v>28</v>
       </c>
       <c r="AH6" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-    </row>
-    <row r="7" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>35</v>
       </c>
@@ -7122,45 +7091,49 @@
       <c r="L7" s="21">
         <v>1234512345</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21">
+      <c r="M7" s="21">
         <v>10</v>
       </c>
+      <c r="N7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T7" s="21">
+        <v>97818</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="V7" s="21">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="W7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="AD7" s="21" t="s">
@@ -7176,19 +7149,13 @@
         <v>28</v>
       </c>
       <c r="AH7" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AJ7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK7" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
@@ -7225,45 +7192,49 @@
       <c r="L8" s="21">
         <v>1234512345</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21">
+      <c r="M8" s="21">
         <v>10</v>
       </c>
+      <c r="N8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T8" s="21">
+        <v>97818</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="V8" s="21">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="W8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="AD8" s="21" t="s">
@@ -7279,19 +7250,13 @@
         <v>28</v>
       </c>
       <c r="AH8" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK8" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
@@ -7328,45 +7293,49 @@
       <c r="L9" s="21">
         <v>1234512345</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21">
+      <c r="M9" s="21">
         <v>10</v>
       </c>
+      <c r="N9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="T9" s="21">
+        <v>97818</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="V9" s="21">
-        <v>97818</v>
+        <v>21</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="AD9" s="21" t="s">
@@ -7382,26 +7351,19 @@
         <v>28</v>
       </c>
       <c r="AH9" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK9" s="21" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{82F9BFD7-6F50-4A96-BC92-CDF7AF34F499}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{DE101340-62C0-4456-8A48-A58BDBD8E7EC}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{7B269020-DAD6-45EC-A7F7-1E30FFC78837}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{A2B28591-310B-48E6-866B-44DD20501F4A}"/>
+    <hyperlink ref="O3:O4" r:id="rId2" display="Test@gmail.com" xr:uid="{2E0B2E51-9F28-4D63-B27E-0AB5FA401ABB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9E4B3B-D963-4590-BAC4-3865940ADCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF15C38-E32A-4999-81CF-38C394F8E038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -6372,7 +6372,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF15C38-E32A-4999-81CF-38C394F8E038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400150B1-1279-46AC-855A-BFFE106554DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="19200" windowHeight="7720" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -1538,14 +1538,14 @@
     <t>Removal_ID2</t>
   </si>
   <si>
-    <t>Test@gmail.com</t>
+    <t>Test@gmail.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,6 +1603,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -1685,7 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1712,7 +1719,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6369,10 +6377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6556,7 +6564,7 @@
       <c r="N2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="27" t="s">
         <v>490</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -6663,7 +6671,7 @@
       <c r="N3" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="27" t="s">
         <v>490</v>
       </c>
       <c r="P3" s="5" t="s">
@@ -6770,7 +6778,7 @@
       <c r="N4" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="27" t="s">
         <v>490</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -7357,13 +7365,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="26"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{A2B28591-310B-48E6-866B-44DD20501F4A}"/>
-    <hyperlink ref="O3:O4" r:id="rId2" display="Test@gmail.com" xr:uid="{2E0B2E51-9F28-4D63-B27E-0AB5FA401ABB}"/>
+    <hyperlink ref="O3:O4" r:id="rId1" display="Test@gmail.com" xr:uid="{2E0B2E51-9F28-4D63-B27E-0AB5FA401ABB}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{27BA9037-89E1-4B54-9644-A7A4D008FDBB}"/>
+    <hyperlink ref="O2:O3" r:id="rId3" display="Test@gmail.com" xr:uid="{D89AAF75-2CD5-4958-BBA6-AFABCF4A9BDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9308,12 +9320,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9534,19 +9547,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9571,11 +9585,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400150B1-1279-46AC-855A-BFFE106554DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9DDA4-0311-42FF-A554-49BE2EAE6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="19200" windowHeight="7720" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="30" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,12 @@
     <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId24"/>
     <sheet name="EligibilityAssignments" sheetId="27" r:id="rId25"/>
     <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId26"/>
-    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId27"/>
-    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId28"/>
-    <sheet name="LegalAuthority" sheetId="31" r:id="rId29"/>
-    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId30"/>
-    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId31"/>
+    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId27"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId28"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId29"/>
+    <sheet name="LegalAuthority" sheetId="31" r:id="rId30"/>
+    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId31"/>
+    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="497">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -128,6 +129,12 @@
     <t>PLACEMENT_TAB</t>
   </si>
   <si>
+    <t>VIEWALL</t>
+  </si>
+  <si>
+    <t>REMOVAL_RECORD</t>
+  </si>
+  <si>
     <t>testPOM</t>
   </si>
   <si>
@@ -173,6 +180,12 @@
     <t>Autocase4201 worker 4201</t>
   </si>
   <si>
+    <t>Legal guardian household</t>
+  </si>
+  <si>
+    <t>folioPersonName3</t>
+  </si>
+  <si>
     <t>testT4274</t>
   </si>
   <si>
@@ -218,7 +231,10 @@
     <t>ADDITIONAL_DETAILS_OF_TRANSITION_PLAN</t>
   </si>
   <si>
-    <t>VIEWALL</t>
+    <t>EXPEDITED_PRESUMTIVE_TRANSFER</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
   </si>
   <si>
     <t>CHILD_LOCATION_ID</t>
@@ -290,6 +306,9 @@
     <t>GENERATE_BTN</t>
   </si>
   <si>
+    <t>SUBMIT_BTN</t>
+  </si>
+  <si>
     <t>autoName</t>
   </si>
   <si>
@@ -308,6 +327,9 @@
     <t>Placed with All</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>PLACEMENT_NAME1</t>
   </si>
   <si>
@@ -317,222 +339,237 @@
     <t>CLO_ID1</t>
   </si>
   <si>
+    <t>PLACEMENT_NAME3</t>
+  </si>
+  <si>
+    <t>CLO_ID3</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Final Transition Plan</t>
+  </si>
+  <si>
     <t>ChildLocationSTRTPID</t>
   </si>
   <si>
+    <t>Placement Change</t>
+  </si>
+  <si>
+    <t>Child Abducted</t>
+  </si>
+  <si>
+    <t>SOC 157A - Supervised Independent Living Placement (SILP) Approval and Placement Agreement</t>
+  </si>
+  <si>
+    <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME2</t>
+  </si>
+  <si>
+    <t>CLO_ID2</t>
+  </si>
+  <si>
+    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
+  </si>
+  <si>
+    <t>SOC 154B - Agency - Group Home Agreement Nonminor Dependent Placed By Agency In Group Home</t>
+  </si>
+  <si>
+    <t>SOC 154C - Agency - Short-Term Residential Therapeutic Program (STRTP) Admission Agreement Child Placed By Agency Into STRTP</t>
+  </si>
+  <si>
+    <t>PROVIDER_SEARCH</t>
+  </si>
+  <si>
+    <t>SEARCH_BTN</t>
+  </si>
+  <si>
+    <t>ASSOCIATE</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINEATION_STATUS</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TYPE</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PERSON</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PHONE_NAME</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CAPACITY</t>
+  </si>
+  <si>
+    <t>SECONDARY_PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>PLACEMENT_EMAIL</t>
+  </si>
+  <si>
+    <t>ADDRESS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE1</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+  </si>
+  <si>
+    <t>VALIDATE_ADDRESS_BTN</t>
+  </si>
+  <si>
+    <t>USER_ENTERED_ADDRESS</t>
+  </si>
+  <si>
+    <t>CREATE_MANUAL</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COUNTRY_VALUE</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_CEBC</t>
+  </si>
+  <si>
+    <t>MINIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MAXIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MANUALLY_CREATE_PLACEMENT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME_AGAIN</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Group Home (GH)</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
+    <t>Resource Family Home</t>
+  </si>
+  <si>
+    <t>Tribally Approved Home</t>
+  </si>
+  <si>
+    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
+  </si>
+  <si>
+    <t>Option Willing to Accept</t>
+  </si>
+  <si>
+    <t>Supervised Independent Living Placement</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>Transitional Housing Placement Program (THPP)</t>
+  </si>
+  <si>
+    <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
+  </si>
+  <si>
+    <t>PROVIDER_OPTIONS</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTIONS_RECORD</t>
+  </si>
+  <si>
+    <t>EMERGENCY_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>OTHER_REASON</t>
+  </si>
+  <si>
+    <t>PROVIDER_OPTIONID</t>
+  </si>
+  <si>
+    <t>TASK_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE</t>
+  </si>
+  <si>
+    <t>SCROLL_INTO_ELEMENT</t>
+  </si>
+  <si>
+    <t>Open to Future Placement</t>
+  </si>
+  <si>
+    <t>Home is unsafe</t>
+  </si>
+  <si>
+    <t>Placement Approval</t>
+  </si>
+  <si>
     <t>ProviderOption_ID1</t>
   </si>
   <si>
-    <t>Placement Change</t>
-  </si>
-  <si>
-    <t>Child Abducted</t>
-  </si>
-  <si>
-    <t>SOC 157A - Supervised Independent Living Placement (SILP) Approval and Placement Agreement</t>
-  </si>
-  <si>
-    <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
+    <t>Placement Decision</t>
   </si>
   <si>
     <t>ProviderOption_ID2</t>
   </si>
   <si>
-    <t>CLO_ID2</t>
-  </si>
-  <si>
-    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
-  </si>
-  <si>
-    <t>SOC 154B - Agency - Group Home Agreement Nonminor Dependent Placed By Agency In Group Home</t>
-  </si>
-  <si>
     <t>ProviderOption_ID3</t>
   </si>
   <si>
-    <t>CLO_ID3</t>
-  </si>
-  <si>
-    <t>SOC 154C - Agency - Short-Term Residential Therapeutic Program (STRTP) Admission Agreement Child Placed By Agency Into STRTP</t>
-  </si>
-  <si>
-    <t>PROVIDER_SEARCH</t>
-  </si>
-  <si>
-    <t>SEARCH_BTN</t>
-  </si>
-  <si>
-    <t>ASSOCIATE</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTION_DETERMINEATION_STATUS</t>
-  </si>
-  <si>
-    <t>PLACEMENT_TYPE</t>
-  </si>
-  <si>
-    <t>PLACEMENT_PERSON</t>
-  </si>
-  <si>
-    <t>PLACEMENT_PHONE_NAME</t>
-  </si>
-  <si>
-    <t>AVAILABLE_CAPACITY</t>
-  </si>
-  <si>
-    <t>SECONDARY_PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>PLACEMENT_EMAIL</t>
-  </si>
-  <si>
-    <t>ADDRESS_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE1</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>ZIP_CODE</t>
-  </si>
-  <si>
-    <t>VALIDATE_ADDRESS_BTN</t>
-  </si>
-  <si>
-    <t>USER_ENTERED_ADDRESS</t>
-  </si>
-  <si>
-    <t>CREATE_MANUAL</t>
-  </si>
-  <si>
-    <t>SERVICE_NAME_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>COUNTRY_VALUE</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
-  </si>
-  <si>
-    <t>SERVICE_RANKING_CEBC</t>
-  </si>
-  <si>
-    <t>MINIMUM_AGE</t>
-  </si>
-  <si>
-    <t>MAXIMUM_AGE</t>
-  </si>
-  <si>
-    <t>MANUALLY_CREATE_PLACEMENT</t>
-  </si>
-  <si>
-    <t>PLACEMENT_NAME_AGAIN</t>
-  </si>
-  <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>Group Home (GH)</t>
-  </si>
-  <si>
-    <t>Boardman</t>
-  </si>
-  <si>
-    <t>Resource Family Home</t>
-  </si>
-  <si>
-    <t>Tribally Approved Home</t>
-  </si>
-  <si>
-    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
-  </si>
-  <si>
-    <t>Option Willing to Accept</t>
-  </si>
-  <si>
-    <t>Supervised Independent Living Placement</t>
-  </si>
-  <si>
-    <t>Transitional Housing Placement Program (THPP)</t>
-  </si>
-  <si>
-    <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
-  </si>
-  <si>
-    <t>PROVIDER_OPTIONS</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTIONS_RECORD</t>
-  </si>
-  <si>
-    <t>EMERGENCY_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>OTHER_REASON</t>
-  </si>
-  <si>
-    <t>PROVIDER_OPTIONID</t>
-  </si>
-  <si>
-    <t>TASK_TAB</t>
-  </si>
-  <si>
-    <t>VERIFY_TASK</t>
-  </si>
-  <si>
-    <t>DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>QIASSESSMENTDETERMINATIONDATE</t>
-  </si>
-  <si>
-    <t>SCROLL_INTO_ELEMENT</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
     <t>Random Text</t>
   </si>
   <si>
-    <t>Placement Decision</t>
-  </si>
-  <si>
-    <t>Open to Future Placement</t>
-  </si>
-  <si>
-    <t>Home is unsafe</t>
-  </si>
-  <si>
-    <t>Placement Approval</t>
-  </si>
-  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -932,9 +969,6 @@
     <t>Case Summary</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>testdoc.txt</t>
   </si>
   <si>
@@ -1127,7 +1161,7 @@
     <t>REASON_FOR_GOOD_CAUSE_CB</t>
   </si>
   <si>
-    <t>CP_IDENTIFIED_PARENT_NAME</t>
+    <t>IdentifiedParent1</t>
   </si>
   <si>
     <t>Yes - Do Not Refer for Child Support</t>
@@ -1250,7 +1284,10 @@
     <t>RELATIONSHIP_TYPE_VERIFY</t>
   </si>
   <si>
-    <t>CP_SIBLING_NAME</t>
+    <t>IdentifiedParent</t>
+  </si>
+  <si>
+    <t>Sibling1</t>
   </si>
   <si>
     <t>FCERI_TAB</t>
@@ -1364,12 +1401,21 @@
     <t>CREATED_DATE_VERIFY</t>
   </si>
   <si>
+    <t>REQUEST_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>LAST_MODIFIED_DATE_VERIFY</t>
+  </si>
+  <si>
     <t>Child Support Referral Info</t>
   </si>
   <si>
     <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
   </si>
   <si>
+    <t>SUBMIT_TO_CALSAWS_BTN</t>
+  </si>
+  <si>
     <t>CHILD_INCOME_PROPERTY_TAB</t>
   </si>
   <si>
@@ -1430,9 +1476,6 @@
     <t>Cash on Hand</t>
   </si>
   <si>
-    <t>auotNumber</t>
-  </si>
-  <si>
     <t>GENERATE_DOCUMENT_BTN</t>
   </si>
   <si>
@@ -1445,12 +1488,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Legal guardian household</t>
-  </si>
-  <si>
-    <t>folioPersonName3</t>
-  </si>
-  <si>
     <t>LEGAL_AUTHORITY_TAB</t>
   </si>
   <si>
@@ -1484,39 +1521,24 @@
     <t>CANCLE_BTN</t>
   </si>
   <si>
-    <t>PLACEMENT_NAME3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>EXPEDITED_PRESUMTIVE_TRANSFER</t>
-  </si>
-  <si>
-    <t>Final Transition Plan</t>
+    <t>KNOWLEDGE</t>
+  </si>
+  <si>
+    <t>FOSTER_FAMILY_HOME_PLACEMENT</t>
+  </si>
+  <si>
+    <t>ARTICLE_NUMBER</t>
+  </si>
+  <si>
+    <t>VERSION_NUMBER</t>
+  </si>
+  <si>
+    <t>IS_LATEST_VERSION</t>
   </si>
   <si>
     <t>Forms required to complete the Foster Family Home Placement</t>
   </si>
   <si>
-    <t>KNOWLEDGE</t>
-  </si>
-  <si>
-    <t>FOSTER_FAMILY_HOME_PLACEMENT</t>
-  </si>
-  <si>
-    <t>ARTICLE_NUMBER</t>
-  </si>
-  <si>
-    <t>VERSION_NUMBER</t>
-  </si>
-  <si>
-    <t>IS_LATEST_VERSION</t>
-  </si>
-  <si>
     <t>HEADER_DATE</t>
   </si>
   <si>
@@ -1532,20 +1554,17 @@
     <t>HEADER_NEW_VALUE</t>
   </si>
   <si>
-    <t>REMOVAL_ID</t>
-  </si>
-  <si>
     <t>Removal_ID2</t>
   </si>
   <si>
-    <t>Test@gmail.co</t>
+    <t>Test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,6 +1619,12 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -1690,7 +1715,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1718,9 +1743,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2039,7 +2064,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6:V7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2054,8 +2079,7 @@
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.08984375" customWidth="1"/>
-    <col min="22" max="22" width="17.90625" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -2120,15 +2144,15 @@
         <v>19</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2137,12 +2161,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -2151,57 +2175,57 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2210,57 +2234,57 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -2269,58 +2293,60 @@
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -2329,60 +2355,60 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2391,63 +2417,63 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>459</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
@@ -2456,55 +2482,55 @@
         <v>1</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="T8" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2536,13 +2562,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2550,7 +2576,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2559,17 +2585,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -2578,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -2589,7 +2615,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2598,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2633,135 +2659,135 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2770,15 +2796,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -2787,73 +2813,73 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="Q3" s="10" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2892,33 +2918,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2927,33 +2953,33 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
@@ -2962,28 +2988,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3020,25 +3046,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3046,7 +3072,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3055,28 +3081,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3108,13 +3134,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3122,7 +3148,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3131,16 +3157,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3153,7 +3179,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3169,25 +3195,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="I1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3195,7 +3221,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3203,29 +3229,29 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +3264,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3254,22 +3280,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3277,7 +3303,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3286,25 +3312,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3333,22 +3359,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3356,7 +3382,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -3365,25 +3391,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3435,75 +3461,75 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -3512,70 +3538,70 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3619,42 +3645,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3663,37 +3689,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3703,10 +3729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AT14"/>
+  <dimension ref="A1:AU14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3720,7 +3746,7 @@
     <col min="18" max="18" width="19.81640625" customWidth="1"/>
     <col min="19" max="20" width="16.81640625" customWidth="1"/>
     <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6328125" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" customWidth="1"/>
     <col min="25" max="25" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="32.26953125" bestFit="1" customWidth="1"/>
@@ -3733,7 +3759,7 @@
     <col min="37" max="37" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3747,135 +3773,138 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>475</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL1" s="22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AM1" s="22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AN1" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AO1" s="22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP1" s="22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ1" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU1" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3884,57 +3913,57 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -3943,65 +3972,65 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
@@ -4010,9 +4039,9 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4021,72 +4050,72 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -4095,72 +4124,72 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -4169,72 +4198,72 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>472</v>
+        <v>90</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -4243,87 +4272,87 @@
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -4332,87 +4361,87 @@
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>476</v>
+        <v>94</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
@@ -4421,102 +4450,102 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
@@ -4527,10 +4556,11 @@
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU9" s="13"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="18">
         <v>1</v>
@@ -4539,134 +4569,137 @@
         <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN10" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AO10" s="18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AP10" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR10" s="18" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AS10" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
@@ -4675,134 +4708,137 @@
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN11" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AO11" s="18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AP11" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR11" s="18" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AS11" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
@@ -4811,134 +4847,137 @@
         <v>3</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN12" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AO12" s="18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AP12" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR12" s="18" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AS12" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="18">
         <v>1</v>
@@ -4947,134 +4986,137 @@
         <v>4</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN13" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AO13" s="18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AP13" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR13" s="18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AS13" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B14" s="18">
         <v>1</v>
@@ -5083,129 +5125,132 @@
         <v>5</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK14" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN14" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AO14" s="18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AP14" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR14" s="18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AS14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT14" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5264,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5244,19 +5289,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="H1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -5264,7 +5309,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5273,22 +5318,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5329,25 +5374,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="G1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="H1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="I1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="J1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -5355,7 +5400,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5364,28 +5409,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5443,81 +5488,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="N1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="O1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="P1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Q1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="R1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="T1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="U1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="V1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="W1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="X1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Y1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="Z1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AA1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5529,25 +5574,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5559,8 +5604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5590,42 +5635,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="J1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L1" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="N1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5634,28 +5679,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5705,57 +5750,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H1" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="I1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="J1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O1" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P1" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="Q1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="R1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="S1" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5764,52 +5809,52 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="J2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5856,49 +5901,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="K1" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5907,43 +5952,43 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
@@ -5962,10 +6007,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5984,9 +6029,11 @@
     <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5997,42 +6044,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="I1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="O1" t="s">
+        <v>444</v>
+      </c>
+      <c r="P1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6041,37 +6094,43 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="I2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6080,11 +6139,58 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21398B7D-275B-4B1F-A973-DFEFD3626363}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6120,57 +6226,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E1" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F1" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G1" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="J1" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="K1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="L1" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="M1" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="N1" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="O1" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="P1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q1" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="R1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="S1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6179,52 +6285,52 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F2" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G2" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="J2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="K2" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6232,7 +6338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6262,21 +6368,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6285,89 +6391,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6377,10 +6410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6402,19 +6435,19 @@
     <col min="17" max="20" width="31" customWidth="1"/>
     <col min="21" max="22" width="21.453125" customWidth="1"/>
     <col min="23" max="23" width="9.81640625" customWidth="1"/>
+    <col min="24" max="24" width="15.54296875" customWidth="1"/>
     <col min="25" max="25" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.54296875" customWidth="1"/>
+    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6425,105 +6458,99 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="S1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="T1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="U1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="V1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Z1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AA1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="AB1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AC1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AD1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AE1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AF1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AG1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -6532,28 +6559,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L2" s="5">
         <v>1234567890</v>
@@ -6564,73 +6591,67 @@
       <c r="N2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>490</v>
+      <c r="O2" s="26" t="s">
+        <v>496</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -6639,28 +6660,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L3" s="5">
         <v>1234567890</v>
@@ -6671,73 +6692,67 @@
       <c r="N3" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>490</v>
+      <c r="O3" s="26" t="s">
+        <v>496</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -6746,28 +6761,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L4" s="5">
         <v>1234567890</v>
@@ -6778,73 +6793,67 @@
       <c r="N4" s="5">
         <v>1234567890</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>490</v>
+      <c r="O4" s="26" t="s">
+        <v>496</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -6853,28 +6862,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L5" s="10">
         <v>1234567890</v>
@@ -6883,78 +6892,74 @@
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
     </row>
-    <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -6963,28 +6968,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L6" s="13">
         <v>1234512345</v>
@@ -6993,78 +6998,74 @@
         <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI6" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
     </row>
-    <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -7073,28 +7074,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L7" s="21">
         <v>1234512345</v>
@@ -7102,70 +7103,70 @@
       <c r="M7" s="21">
         <v>10</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>28</v>
+      <c r="N7" s="21">
+        <v>1244512345</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T7" s="21">
         <v>97818</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W7" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE7" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF7" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI7" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" s="21">
         <v>1</v>
@@ -7174,28 +7175,28 @@
         <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L8" s="21">
         <v>1234512345</v>
@@ -7203,70 +7204,70 @@
       <c r="M8" s="21">
         <v>10</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>28</v>
+      <c r="N8" s="21">
+        <v>1236612345</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T8" s="21">
         <v>97818</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W8" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE8" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI8" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" s="21">
         <v>1</v>
@@ -7275,28 +7276,28 @@
         <v>3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L9" s="21">
         <v>1234512345</v>
@@ -7304,75 +7305,72 @@
       <c r="M9" s="21">
         <v>10</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>28</v>
+      <c r="N9" s="21">
+        <v>1266512345</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T9" s="21">
         <v>97818</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE9" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI9" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O10" s="26"/>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3:O4" r:id="rId1" display="Test@gmail.com" xr:uid="{2E0B2E51-9F28-4D63-B27E-0AB5FA401ABB}"/>
-    <hyperlink ref="O4" r:id="rId2" xr:uid="{27BA9037-89E1-4B54-9644-A7A4D008FDBB}"/>
-    <hyperlink ref="O2:O3" r:id="rId3" display="Test@gmail.com" xr:uid="{D89AAF75-2CD5-4958-BBA6-AFABCF4A9BDB}"/>
+    <hyperlink ref="O2:O3" r:id="rId1" display="Test@gmail.com" xr:uid="{CF4786A1-8B13-41CC-A006-32F2FC1CDBB5}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{3E11CB9E-93B9-49ED-9E0D-35D9B0B75947}"/>
+    <hyperlink ref="O3:O4" r:id="rId3" display="Test@gmail.com" xr:uid="{A8E0DAE8-1596-4168-B927-E16D1AC6AC53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7380,19 +7378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="50.81640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7402,58 +7397,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -7461,59 +7426,23 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>477</v>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>476</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7522,6 +7451,146 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="50.81640625" customWidth="1"/>
+    <col min="20" max="20" width="26.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41B10F-8604-4EA7-BD0E-5A173F6C691E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7532,11 +7601,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -7550,27 +7619,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="E1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="I1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -7579,22 +7648,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7606,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7643,63 +7712,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="U1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -7708,54 +7777,54 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
@@ -7763,64 +7832,64 @@
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>28</v>
+      <c r="D3" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
@@ -7828,64 +7897,64 @@
       <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>21</v>
+      <c r="D4" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
@@ -7893,64 +7962,64 @@
       <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>21</v>
+      <c r="D5" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="18">
         <v>1</v>
@@ -7958,64 +8027,64 @@
       <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>21</v>
+      <c r="D6" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -8024,63 +8093,63 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -8089,63 +8158,63 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -8154,60 +8223,60 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -8216,58 +8285,58 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -8300,69 +8369,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8371,36 +8440,36 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -8409,64 +8478,64 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8475,64 +8544,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -8590,106 +8659,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -8699,7 +8768,7 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8708,78 +8777,78 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8788,90 +8857,90 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="T3">
         <v>28570</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8880,85 +8949,85 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="T4">
         <v>28570</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9005,78 +9074,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9085,54 +9154,54 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="Q2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="R2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9141,58 +9210,58 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="Q3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="R3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="S3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9231,7 +9300,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9240,12 +9309,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -9254,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +9357,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9297,12 +9366,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -9311,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9320,13 +9389,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9547,20 +9615,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9585,9 +9652,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9DDA4-0311-42FF-A554-49BE2EAE6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B47E1D7-57C8-41F4-B052-726AECD611F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="30" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="31" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,8 @@
     <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId29"/>
     <sheet name="LegalAuthority" sheetId="31" r:id="rId30"/>
     <sheet name="KnowledgeArticle" sheetId="32" r:id="rId31"/>
-    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId32"/>
+    <sheet name="NewContact" sheetId="35" r:id="rId32"/>
+    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="507">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1558,6 +1559,36 @@
   </si>
   <si>
     <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>NEW_CONTACT_TAB</t>
+  </si>
+  <si>
+    <t>CHILD_LOCATION_COLLATERAL</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATETIME</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_LAST_NAME</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>AutoText</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Child Removed</t>
   </si>
 </sst>
 </file>
@@ -7454,8 +7485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7587,10 +7618,132 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06981CA3-D41E-4E82-AD24-27418046801A}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41B10F-8604-4EA7-BD0E-5A173F6C691E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9389,12 +9542,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9615,19 +9769,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9652,11 +9807,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B47E1D7-57C8-41F4-B052-726AECD611F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707DCDF1-9D05-4E98-8314-CF416B49899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="31" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -7627,7 +7627,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7723,7 +7723,7 @@
         <v>504</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>503</v>
@@ -9542,16 +9542,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9768,6 +9758,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9778,16 +9778,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9806,6 +9796,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707DCDF1-9D05-4E98-8314-CF416B49899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3BD69-D646-4D10-850F-1D1F97977C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="31" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="506">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1580,9 +1580,6 @@
   </si>
   <si>
     <t>In-Person</t>
-  </si>
-  <si>
-    <t>AutoText</t>
   </si>
   <si>
     <t>Completed</t>
@@ -7626,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06981CA3-D41E-4E82-AD24-27418046801A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7708,19 +7705,19 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3BD69-D646-4D10-850F-1D1F97977C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E0C77-563C-4F2B-A753-960586B5C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="31" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -32,20 +32,22 @@
     <sheet name="PlacementStability" sheetId="16" r:id="rId17"/>
     <sheet name="ChildLocationOverstayRepo" sheetId="18" r:id="rId18"/>
     <sheet name="EligibilityDetails" sheetId="19" r:id="rId19"/>
-    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId20"/>
-    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId21"/>
-    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId22"/>
-    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId23"/>
-    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId24"/>
-    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId25"/>
-    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId26"/>
-    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId27"/>
-    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId28"/>
-    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId29"/>
-    <sheet name="LegalAuthority" sheetId="31" r:id="rId30"/>
-    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId31"/>
-    <sheet name="NewContact" sheetId="35" r:id="rId32"/>
-    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId33"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId20"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId21"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId22"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId23"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId24"/>
+    <sheet name="QualifiedResidentialTreatment" sheetId="35" r:id="rId25"/>
+    <sheet name="ExtendedFosterCareInfo" sheetId="36" r:id="rId26"/>
+    <sheet name="KinGapInformation" sheetId="37" r:id="rId27"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId28"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId29"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId30"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId31"/>
+    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId32"/>
+    <sheet name="LegalAuthority" sheetId="31" r:id="rId33"/>
+    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId34"/>
+    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="508">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -187,9 +189,15 @@
     <t>folioPersonName3</t>
   </si>
   <si>
+    <t>Removal_ID2</t>
+  </si>
+  <si>
     <t>testT4274</t>
   </si>
   <si>
+    <t>CaseChildLocationSetup</t>
+  </si>
+  <si>
     <t>CHILD_LOCATIONS_TAB</t>
   </si>
   <si>
@@ -385,6 +393,9 @@
     <t>SOC 154C - Agency - Short-Term Residential Therapeutic Program (STRTP) Admission Agreement Child Placed By Agency Into STRTP</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>PROVIDER_SEARCH</t>
   </si>
   <si>
@@ -475,6 +486,9 @@
     <t>Group Home (GH)</t>
   </si>
   <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
     <t>Boardman</t>
   </si>
   <si>
@@ -814,6 +828,9 @@
     <t>ELIGIBILITY_TAB</t>
   </si>
   <si>
+    <t>testT4213</t>
+  </si>
+  <si>
     <t>CONTACT_LOG_TAB</t>
   </si>
   <si>
@@ -1114,6 +1131,9 @@
     <t>07 Contra Costa</t>
   </si>
   <si>
+    <t>ELIGIBILITY_STATUS_VERIFY</t>
+  </si>
+  <si>
     <t>NAME_VERIFY</t>
   </si>
   <si>
@@ -1126,6 +1146,15 @@
     <t>CL_ADDRESS_VERIFY</t>
   </si>
   <si>
+    <t>CL_COUNTY_VERIFY</t>
+  </si>
+  <si>
+    <t>PL_ADDRESS_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTY_OF_PLACEMENT_VERIFY</t>
+  </si>
+  <si>
     <t>REMOVALDATE_VERIFY</t>
   </si>
   <si>
@@ -1144,7 +1173,157 @@
     <t>ORIGINATING_CASE_LINK</t>
   </si>
   <si>
-    <t>testT4213</t>
+    <t>VIEW_ALL_BTN</t>
+  </si>
+  <si>
+    <t>ELIGIBILITY_ID_LINK</t>
+  </si>
+  <si>
+    <t>HOME_OF_REMOVAL_TAB</t>
+  </si>
+  <si>
+    <t>PARENT_LG_IC_NAME</t>
+  </si>
+  <si>
+    <t>SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>PARENT_ID_LINK</t>
+  </si>
+  <si>
+    <t>SIBLING_ID_LINK</t>
+  </si>
+  <si>
+    <t>ELIGIBILITY_PERSON_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>PERSON_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>IdentifiedParent1</t>
+  </si>
+  <si>
+    <t>Sibling1</t>
+  </si>
+  <si>
+    <t>CHILD_INCOME_PROPERTY_TAB</t>
+  </si>
+  <si>
+    <t>INCOME_TYPE</t>
+  </si>
+  <si>
+    <t>INCOME_SUBTYPE</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>PROPERTY_TYPE</t>
+  </si>
+  <si>
+    <t>PROPERTY_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CURRENT_VALUE</t>
+  </si>
+  <si>
+    <t>INCOME_PROPERTY_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>SUBTYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CURRENTVALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>FREQUENCY_VERIFY</t>
+  </si>
+  <si>
+    <t>STARTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>ENDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>NAME_OF_FINANCIAL_INSTITUTION_VERIFY</t>
+  </si>
+  <si>
+    <t>Child Support Income</t>
+  </si>
+  <si>
+    <t>Child Support - Direct</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash on Hand</t>
+  </si>
+  <si>
+    <t>autoNumber</t>
+  </si>
+  <si>
+    <t>FCERI_TAB</t>
+  </si>
+  <si>
+    <t>SOC158A_TAB</t>
+  </si>
+  <si>
+    <t>FC2_TAB</t>
+  </si>
+  <si>
+    <t>ARC1_TAB</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TERMINATION_DATE</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_OUT_COUNTY</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_IN_COUNTY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_COMPLETING_FORM</t>
+  </si>
+  <si>
+    <t>PERSON1NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVAL_REASON_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>LEGAL_AUTHORITY_CODE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENT_AUTHORITY_STARTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIVE_CAREGIVER_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP_TO_CAREGIVER_VERIFY</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Not available</t>
   </si>
   <si>
     <t>CSERI_TAB</t>
@@ -1162,9 +1341,6 @@
     <t>REASON_FOR_GOOD_CAUSE_CB</t>
   </si>
   <si>
-    <t>IdentifiedParent1</t>
-  </si>
-  <si>
     <t>Yes - Do Not Refer for Child Support</t>
   </si>
   <si>
@@ -1195,10 +1371,52 @@
     <t>Redetermination</t>
   </si>
   <si>
-    <t>autoNumber</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_NEWBTN</t>
+    <t>QRTP_TAB</t>
+  </si>
+  <si>
+    <t>EFCI_TAB</t>
+  </si>
+  <si>
+    <t>KINGAP_TAB</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS_TRANSACTIONS_TAB</t>
+  </si>
+  <si>
+    <t>TO_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>FROM_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>REQUEST_FOR_INFO_CATEGORIES</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>REQUEST_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>LAST_MODIFIED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Child Support Referral Info</t>
+  </si>
+  <si>
+    <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -1258,93 +1476,6 @@
     <t>FINAL</t>
   </si>
   <si>
-    <t>HOME_OF_REMOVAL_TAB</t>
-  </si>
-  <si>
-    <t>PARENT_LG_IC_NAME</t>
-  </si>
-  <si>
-    <t>SIBLING_NAME</t>
-  </si>
-  <si>
-    <t>VIEW_ALL_BTN</t>
-  </si>
-  <si>
-    <t>PARENT_ID_LINK</t>
-  </si>
-  <si>
-    <t>SIBLING_ID_LINK</t>
-  </si>
-  <si>
-    <t>ELIGIBILITY_PERSON_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>PERSON_VERIFY</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>IdentifiedParent</t>
-  </si>
-  <si>
-    <t>Sibling1</t>
-  </si>
-  <si>
-    <t>FCERI_TAB</t>
-  </si>
-  <si>
-    <t>SOC158A_TAB</t>
-  </si>
-  <si>
-    <t>FC2_TAB</t>
-  </si>
-  <si>
-    <t>ARC1_TAB</t>
-  </si>
-  <si>
-    <t>PLACEMENT_TERMINATION_DATE</t>
-  </si>
-  <si>
-    <t>TRANSFERRING_OUT_COUNTY</t>
-  </si>
-  <si>
-    <t>TRANSFERRING_IN_COUNTY</t>
-  </si>
-  <si>
-    <t>REASON_FOR_COMPLETING_FORM</t>
-  </si>
-  <si>
-    <t>PERSON1NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>REMOVAL_REASON_VERIFY</t>
-  </si>
-  <si>
-    <t>REMOVED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>LEGAL_AUTHORITY_CODE_VERIFY</t>
-  </si>
-  <si>
-    <t>PLACEMENT_AUTHORITY_STARTDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>RELATIVE_CAREGIVER_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP_TO_CAREGIVER_VERIFY</t>
-  </si>
-  <si>
-    <t>Alameda</t>
-  </si>
-  <si>
-    <t>Alpine</t>
-  </si>
-  <si>
-    <t>Not available</t>
-  </si>
-  <si>
     <t>ASSIGNMENTS_TAB</t>
   </si>
   <si>
@@ -1354,6 +1485,12 @@
     <t>SECONDARY_ASSIGNMENTID_LINK</t>
   </si>
   <si>
+    <t>PRIMARY_WORKER_VERIFY</t>
+  </si>
+  <si>
+    <t>SECONDARY_WORKER_VERIFY</t>
+  </si>
+  <si>
     <t>AUDIT_HISTORY_TAB</t>
   </si>
   <si>
@@ -1375,120 +1512,21 @@
     <t>END_DATE_VERIFY</t>
   </si>
   <si>
-    <t>COMMUNICATIONS_TRANSACTIONS_TAB</t>
-  </si>
-  <si>
-    <t>TO_CALSAWS_TAB</t>
-  </si>
-  <si>
-    <t>FROM_CALSAWS_TAB</t>
-  </si>
-  <si>
-    <t>REQUEST_FOR_INFO_CATEGORIES</t>
-  </si>
-  <si>
-    <t>COMMUNICATION_CONTENT</t>
-  </si>
-  <si>
-    <t>CARES_TRANSACTION_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>CARES_TRANSACTION_STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>COMMUNICATION_CONTENT_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>REQUEST_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>LAST_MODIFIED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Child Support Referral Info</t>
-  </si>
-  <si>
-    <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>ARC 2</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>SUBMIT_TO_CALSAWS_BTN</t>
   </si>
   <si>
-    <t>CHILD_INCOME_PROPERTY_TAB</t>
-  </si>
-  <si>
-    <t>INCOME_TYPE</t>
-  </si>
-  <si>
-    <t>INCOME_SUBTYPE</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>PROPERTY_TYPE</t>
-  </si>
-  <si>
-    <t>PROPERTY_SUBTYPE</t>
-  </si>
-  <si>
-    <t>CURRENT_VALUE</t>
-  </si>
-  <si>
-    <t>INCOME_PROPERTY_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>SUBTYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>CURRENTVALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>FREQUENCY_VERIFY</t>
-  </si>
-  <si>
-    <t>STARTDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>ENDDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>NAME_OF_FINANCIAL_INSTITUTION_VERIFY</t>
-  </si>
-  <si>
-    <t>Child Support Income</t>
-  </si>
-  <si>
-    <t>Child Support - Direct</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Cash on Hand</t>
-  </si>
-  <si>
-    <t>GENERATE_DOCUMENT_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_LANGUAGE</t>
-  </si>
-  <si>
-    <t>ARC 2</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>LEGAL_AUTHORITY_TAB</t>
   </si>
   <si>
@@ -1555,37 +1593,7 @@
     <t>HEADER_NEW_VALUE</t>
   </si>
   <si>
-    <t>Removal_ID2</t>
-  </si>
-  <si>
-    <t>Test@gmail.com</t>
-  </si>
-  <si>
-    <t>NEW_CONTACT_TAB</t>
-  </si>
-  <si>
-    <t>CHILD_LOCATION_COLLATERAL</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATETIME</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_LAST_NAME</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>In-Person</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Child Removed</t>
+    <t>testT4149</t>
   </si>
 </sst>
 </file>
@@ -2089,14 +2097,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
@@ -2106,8 +2115,9 @@
     <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.1796875" customWidth="1"/>
     <col min="20" max="20" width="15.1796875" customWidth="1"/>
+    <col min="22" max="22" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -2496,12 +2506,12 @@
         <v>23</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>495</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
@@ -2558,6 +2568,132 @@
         <v>31</v>
       </c>
       <c r="T8" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2568,13 +2704,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2590,13 +2736,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2660,6 +2806,52 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2687,130 +2879,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -2859,7 +3051,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>30</v>
@@ -2874,13 +3066,13 @@
         <v>30</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>30</v>
@@ -2895,7 +3087,7 @@
         <v>30</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>23</v>
@@ -2946,28 +3138,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2987,19 +3179,19 @@
         <v>23</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>23</v>
@@ -3022,19 +3214,19 @@
         <v>23</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>23</v>
@@ -3074,25 +3266,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3112,13 +3304,13 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>25</v>
@@ -3162,13 +3354,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3191,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
@@ -3223,25 +3415,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3264,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
@@ -3273,10 +3465,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
@@ -3308,22 +3500,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3387,22 +3579,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3428,13 +3620,13 @@
         <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>23</v>
@@ -3489,70 +3681,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3572,37 +3764,37 @@
         <v>23</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>23</v>
@@ -3611,10 +3803,10 @@
         <v>23</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>23</v>
@@ -3623,13 +3815,13 @@
         <v>25</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3639,30 +3831,35 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.7265625" customWidth="1"/>
+    <col min="12" max="12" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3673,42 +3870,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3716,37 +3934,58 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>81</v>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3757,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD8"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3801,52 +4040,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s">
         <v>16</v>
@@ -3855,79 +4094,79 @@
         <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AT1" s="22" t="s">
         <v>19</v>
       </c>
       <c r="AU1" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.35">
@@ -3950,28 +4189,28 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>30</v>
@@ -3986,7 +4225,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.35">
@@ -4015,7 +4254,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>30</v>
@@ -4024,19 +4263,19 @@
         <v>25</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>30</v>
@@ -4055,7 +4294,7 @@
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>23</v>
@@ -4093,28 +4332,28 @@
         <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>30</v>
@@ -4135,7 +4374,7 @@
         <v>23</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>23</v>
@@ -4170,7 +4409,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>25</v>
@@ -4209,7 +4448,7 @@
         <v>23</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>23</v>
@@ -4241,28 +4480,28 @@
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>30</v>
@@ -4283,7 +4522,7 @@
         <v>23</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>23</v>
@@ -4318,7 +4557,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>25</v>
@@ -4330,7 +4569,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>30</v>
@@ -4357,25 +4596,25 @@
         <v>23</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4428,43 +4667,43 @@
         <v>30</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="X8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="Z8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4496,25 +4735,25 @@
         <v>23</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>30</v>
@@ -4531,7 +4770,7 @@
         <v>23</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>23</v>
@@ -4552,28 +4791,28 @@
         <v>30</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
@@ -4588,7 +4827,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="18">
         <v>1</v>
@@ -4612,28 +4851,28 @@
         <v>23</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>30</v>
@@ -4650,7 +4889,7 @@
         <v>23</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X10" s="18" t="s">
         <v>23</v>
@@ -4701,10 +4940,10 @@
         <v>23</v>
       </c>
       <c r="AN10" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO10" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP10" s="18" t="s">
         <v>25</v>
@@ -4713,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="AR10" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AS10" s="18" t="s">
         <v>23</v>
@@ -4727,7 +4966,7 @@
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
@@ -4754,25 +4993,25 @@
         <v>30</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>30</v>
@@ -4789,7 +5028,7 @@
         <v>23</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X11" s="18" t="s">
         <v>23</v>
@@ -4840,10 +5079,10 @@
         <v>23</v>
       </c>
       <c r="AN11" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO11" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP11" s="18" t="s">
         <v>25</v>
@@ -4852,7 +5091,7 @@
         <v>23</v>
       </c>
       <c r="AR11" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AS11" s="18" t="s">
         <v>23</v>
@@ -4866,7 +5105,7 @@
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
@@ -4890,28 +5129,28 @@
         <v>23</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>30</v>
@@ -4928,7 +5167,7 @@
         <v>23</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="X12" s="18" t="s">
         <v>23</v>
@@ -4979,10 +5218,10 @@
         <v>23</v>
       </c>
       <c r="AN12" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO12" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP12" s="18" t="s">
         <v>25</v>
@@ -4991,7 +5230,7 @@
         <v>23</v>
       </c>
       <c r="AR12" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AS12" s="18" t="s">
         <v>23</v>
@@ -5005,7 +5244,7 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="18">
         <v>1</v>
@@ -5032,25 +5271,25 @@
         <v>30</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>30</v>
@@ -5067,7 +5306,7 @@
         <v>23</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="X13" s="18" t="s">
         <v>23</v>
@@ -5118,10 +5357,10 @@
         <v>23</v>
       </c>
       <c r="AN13" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO13" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP13" s="18" t="s">
         <v>25</v>
@@ -5130,7 +5369,7 @@
         <v>23</v>
       </c>
       <c r="AR13" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AS13" s="18" t="s">
         <v>23</v>
@@ -5144,7 +5383,7 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="18">
         <v>1</v>
@@ -5168,28 +5407,28 @@
         <v>23</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="13" t="s">
         <v>30</v>
@@ -5206,7 +5445,7 @@
         <v>23</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X14" s="18" t="s">
         <v>23</v>
@@ -5257,10 +5496,10 @@
         <v>23</v>
       </c>
       <c r="AN14" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AO14" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP14" s="18" t="s">
         <v>25</v>
@@ -5269,7 +5508,7 @@
         <v>23</v>
       </c>
       <c r="AR14" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AS14" s="18" t="s">
         <v>23</v>
@@ -5278,6 +5517,223 @@
         <v>23</v>
       </c>
       <c r="AU14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU15" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5288,6 +5744,429 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R1" t="s">
+        <v>391</v>
+      </c>
+      <c r="S1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O1" t="s">
+        <v>410</v>
+      </c>
+      <c r="P1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R1" t="s">
+        <v>413</v>
+      </c>
+      <c r="S1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5317,19 +6196,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="H1" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -5337,7 +6216,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5352,13 +6231,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -5369,12 +6248,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5402,25 +6281,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="F1" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="J1" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -5428,7 +6307,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5443,19 +6322,19 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -5466,12 +6345,277 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62887492-75AB-40B1-A5D9-4831EF5DEB0F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC0DD3-8835-421A-994E-8F85EB22C017}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C9D91D-9A58-4CBB-B2CB-16DC1FC2A54E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="85.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5516,81 +6660,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="M1" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="N1" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="O1" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="P1" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="Q1" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="R1" t="s">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="S1" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
       <c r="T1" t="s">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="U1" t="s">
-        <v>386</v>
+        <v>458</v>
       </c>
       <c r="V1" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="W1" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="X1" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="Y1" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="Z1" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="AA1" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5603,720 +6747,6 @@
       </c>
       <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I1" t="s">
-        <v>412</v>
-      </c>
-      <c r="J1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>414</v>
-      </c>
-      <c r="M1" t="s">
-        <v>415</v>
-      </c>
-      <c r="N1" t="s">
-        <v>416</v>
-      </c>
-      <c r="O1" t="s">
-        <v>417</v>
-      </c>
-      <c r="P1" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>419</v>
-      </c>
-      <c r="R1" t="s">
-        <v>420</v>
-      </c>
-      <c r="S1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" t="s">
-        <v>423</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K1" t="s">
-        <v>429</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="85.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I1" t="s">
-        <v>439</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>440</v>
-      </c>
-      <c r="L1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N1" t="s">
-        <v>443</v>
-      </c>
-      <c r="O1" t="s">
-        <v>444</v>
-      </c>
-      <c r="P1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21398B7D-275B-4B1F-A973-DFEFD3626363}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J1" t="s">
-        <v>454</v>
-      </c>
-      <c r="K1" t="s">
-        <v>455</v>
-      </c>
-      <c r="L1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O1" t="s">
-        <v>459</v>
-      </c>
-      <c r="P1" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>464</v>
       </c>
       <c r="F2" t="s">
         <v>465</v>
@@ -6325,109 +6755,15 @@
         <v>466</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>467</v>
       </c>
       <c r="I2" t="s">
-        <v>467</v>
-      </c>
-      <c r="J2" t="s">
-        <v>468</v>
+        <v>135</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="K2" t="s">
-        <v>375</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6438,10 +6774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6475,7 +6811,7 @@
     <col min="33" max="33" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6486,94 +6822,94 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Z1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AB1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AC1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AD1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AE1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6590,10 +6926,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
@@ -6602,13 +6938,13 @@
         <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" s="5">
         <v>1234567890</v>
@@ -6620,19 +6956,19 @@
         <v>1234567890</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>496</v>
+        <v>138</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -6691,10 +7027,10 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
@@ -6703,13 +7039,13 @@
         <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" s="5">
         <v>1234567890</v>
@@ -6721,19 +7057,19 @@
         <v>1234567890</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>496</v>
+        <v>138</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -6792,10 +7128,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>23</v>
@@ -6804,13 +7140,13 @@
         <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="5">
         <v>1234567890</v>
@@ -6822,19 +7158,19 @@
         <v>1234567890</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>496</v>
+        <v>138</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -6879,7 +7215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -6896,7 +7232,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>23</v>
@@ -6905,13 +7241,13 @@
         <v>30</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L5" s="10">
         <v>1234567890</v>
@@ -6929,13 +7265,13 @@
         <v>30</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -6985,7 +7321,7 @@
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
     </row>
-    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
@@ -7002,7 +7338,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>23</v>
@@ -7011,13 +7347,13 @@
         <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L6" s="13">
         <v>1234512345</v>
@@ -7035,13 +7371,13 @@
         <v>30</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -7091,9 +7427,9 @@
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -7108,7 +7444,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>23</v>
@@ -7117,13 +7453,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" s="21">
         <v>1234512345</v>
@@ -7135,19 +7471,19 @@
         <v>1244512345</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T7" s="21">
         <v>97818</v>
@@ -7192,9 +7528,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="21">
         <v>1</v>
@@ -7209,7 +7545,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>23</v>
@@ -7218,13 +7554,13 @@
         <v>30</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L8" s="21">
         <v>1234512345</v>
@@ -7236,19 +7572,19 @@
         <v>1236612345</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T8" s="21">
         <v>97818</v>
@@ -7293,9 +7629,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="21">
         <v>1</v>
@@ -7310,7 +7646,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>23</v>
@@ -7319,13 +7655,13 @@
         <v>30</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L9" s="21">
         <v>1234512345</v>
@@ -7337,19 +7673,19 @@
         <v>1266512345</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T9" s="21">
         <v>97818</v>
@@ -7391,6 +7727,213 @@
         <v>23</v>
       </c>
       <c r="AG9" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M10" s="21">
+        <v>10</v>
+      </c>
+      <c r="N10" s="21">
+        <v>1244512345</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="21">
+        <v>97818</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+    </row>
+    <row r="11" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="5">
+        <v>97818</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7406,6 +7949,279 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="32.26953125" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21398B7D-275B-4B1F-A973-DFEFD3626363}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7426,19 +8242,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -7461,7 +8277,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -7478,12 +8294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7503,52 +8319,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.45">
@@ -7565,7 +8381,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
@@ -7586,153 +8402,31 @@
         <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06981CA3-D41E-4E82-AD24-27418046801A}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="22.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -7740,7 +8434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41B10F-8604-4EA7-BD0E-5A173F6C691E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7769,22 +8463,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="E1" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G1" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="H1" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="I1" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -7801,19 +8495,19 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -7823,14 +8517,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="37.453125" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
@@ -7862,58 +8557,58 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="S1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="U1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
@@ -7939,10 +8634,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>30</v>
@@ -7951,7 +8646,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>23</v>
@@ -8004,10 +8699,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>30</v>
@@ -8025,7 +8720,7 @@
         <v>23</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>23</v>
@@ -8034,12 +8729,12 @@
         <v>25</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
@@ -8069,10 +8764,10 @@
         <v>30</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>30</v>
@@ -8084,7 +8779,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="18" t="s">
         <v>30</v>
@@ -8099,12 +8794,12 @@
         <v>30</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
@@ -8134,10 +8829,10 @@
         <v>30</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>30</v>
@@ -8149,7 +8844,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>30</v>
@@ -8164,12 +8859,12 @@
         <v>30</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="18">
         <v>1</v>
@@ -8199,10 +8894,10 @@
         <v>30</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>30</v>
@@ -8214,13 +8909,13 @@
         <v>23</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S6" s="18" t="s">
         <v>23</v>
@@ -8229,7 +8924,7 @@
         <v>30</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
@@ -8261,7 +8956,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>30</v>
@@ -8270,31 +8965,31 @@
         <v>30</v>
       </c>
       <c r="M7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
@@ -8329,7 +9024,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>30</v>
@@ -8344,7 +9039,7 @@
         <v>23</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>30</v>
@@ -8359,7 +9054,7 @@
         <v>30</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
@@ -8409,7 +9104,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>30</v>
@@ -8453,7 +9148,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>30</v>
@@ -8462,31 +9157,161 @@
         <v>30</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="Q11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>162</v>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8519,34 +9344,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -8555,28 +9380,28 @@
         <v>20</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -8596,19 +9421,19 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -8637,47 +9462,47 @@
         <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W3" t="s">
         <v>30</v>
@@ -8706,13 +9531,13 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -8751,7 +9576,7 @@
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -8809,82 +9634,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -8893,22 +9718,22 @@
         <v>20</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -8939,35 +9764,35 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -8979,13 +9804,13 @@
         <v>23</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -9022,37 +9847,37 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -9064,7 +9889,7 @@
         <v>23</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>30</v>
@@ -9114,37 +9939,37 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -9156,7 +9981,7 @@
         <v>23</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>30</v>
@@ -9224,73 +10049,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -9310,22 +10135,22 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -9337,16 +10162,16 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="R2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -9366,22 +10191,22 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -9393,19 +10218,19 @@
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="S3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="T3" t="s">
         <v>23</v>
@@ -9539,6 +10364,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9755,7 +10589,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -9765,16 +10599,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9793,7 +10626,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9803,14 +10636,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E0C77-563C-4F2B-A753-960586B5C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097987ED-890D-4F23-8058-CB1FE88F4BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="508">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6776,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -8517,10 +8517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8540,13 +8540,14 @@
     <col min="14" max="14" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="18.26953125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8596,22 +8597,25 @@
         <v>157</v>
       </c>
       <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
         <v>158</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>159</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -8654,9 +8658,6 @@
       <c r="P2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="R2" s="10" t="s">
         <v>30</v>
       </c>
@@ -8666,8 +8667,11 @@
       <c r="T2" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -8716,23 +8720,24 @@
       <c r="P3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q3" s="13"/>
       <c r="R3" s="13" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="T3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
@@ -8781,23 +8786,24 @@
       <c r="P4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q4" s="20"/>
       <c r="R4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
@@ -8846,23 +8852,24 @@
       <c r="P5" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q5" s="20"/>
       <c r="R5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
@@ -8911,23 +8918,24 @@
       <c r="P6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="Q6" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q6" s="20"/>
       <c r="R6" s="18" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -8977,7 +8985,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>30</v>
@@ -8989,10 +8997,13 @@
         <v>30</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -9042,7 +9053,7 @@
         <v>165</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>30</v>
@@ -9054,10 +9065,13 @@
         <v>30</v>
       </c>
       <c r="U8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -9107,7 +9121,7 @@
         <v>167</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>30</v>
@@ -9118,8 +9132,11 @@
       <c r="T9" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9169,7 +9186,7 @@
         <v>168</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>30</v>
@@ -9181,10 +9198,13 @@
         <v>30</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>41</v>
       </c>
@@ -9233,23 +9253,24 @@
       <c r="P11" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q11" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q11" s="20"/>
       <c r="R11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>507</v>
       </c>
@@ -9298,9 +9319,7 @@
       <c r="P12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5" t="s">
         <v>30</v>
       </c>
@@ -9311,6 +9330,9 @@
         <v>30</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097987ED-890D-4F23-8058-CB1FE88F4BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09741F-3316-4DA7-B59A-AE6C22C53ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -8519,8 +8519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="A7:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09741F-3316-4DA7-B59A-AE6C22C53ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCA3538-8F66-4A32-A09E-5A615E61D18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-520" yWindow="710" windowWidth="19200" windowHeight="5300" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="509">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>testT4149</t>
+  </si>
+  <si>
+    <t>Accept</t>
   </si>
 </sst>
 </file>
@@ -8519,8 +8522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A7:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8985,7 +8988,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>508</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>30</v>
@@ -9053,7 +9056,7 @@
         <v>165</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>30</v>
@@ -9121,7 +9124,7 @@
         <v>167</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>30</v>
@@ -9186,7 +9189,7 @@
         <v>168</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>30</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCA3538-8F66-4A32-A09E-5A615E61D18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F1D9F-521F-4DE4-98DC-4EAEFF296899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-520" yWindow="710" windowWidth="19200" windowHeight="5300" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-520" yWindow="710" windowWidth="19200" windowHeight="5300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="508">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1594,9 +1594,6 @@
   </si>
   <si>
     <t>testT4149</t>
-  </si>
-  <si>
-    <t>Accept</t>
   </si>
 </sst>
 </file>
@@ -8523,7 +8520,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8988,7 +8985,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>508</v>
+        <v>136</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>30</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F1D9F-521F-4DE4-98DC-4EAEFF296899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB69DC-697B-43DB-A20F-503571F179C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-520" yWindow="710" windowWidth="19200" windowHeight="5300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="508">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -8517,10 +8517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8540,14 +8540,14 @@
     <col min="14" max="14" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="18.26953125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.81640625" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8600,22 +8600,25 @@
         <v>54</v>
       </c>
       <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>159</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>160</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -8658,9 +8661,6 @@
       <c r="P2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="S2" s="10" t="s">
         <v>30</v>
       </c>
@@ -8670,8 +8670,11 @@
       <c r="U2" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -8721,23 +8724,24 @@
         <v>30</v>
       </c>
       <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="R3" s="13"/>
       <c r="S3" s="13" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="U3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
@@ -8787,23 +8791,24 @@
         <v>165</v>
       </c>
       <c r="Q4" s="20"/>
-      <c r="R4" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="R4" s="20"/>
       <c r="S4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
@@ -8853,23 +8858,24 @@
         <v>167</v>
       </c>
       <c r="Q5" s="20"/>
-      <c r="R5" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="R5" s="20"/>
       <c r="S5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
@@ -8919,23 +8925,24 @@
         <v>168</v>
       </c>
       <c r="Q6" s="20"/>
-      <c r="R6" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="R6" s="20"/>
       <c r="S6" s="18" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>136</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>30</v>
@@ -9000,10 +9007,13 @@
         <v>30</v>
       </c>
       <c r="V7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -9056,7 +9066,7 @@
         <v>162</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>30</v>
@@ -9068,10 +9078,13 @@
         <v>30</v>
       </c>
       <c r="V8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -9124,7 +9137,7 @@
         <v>30</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>30</v>
@@ -9135,8 +9148,11 @@
       <c r="U9" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="V9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9189,7 +9205,7 @@
         <v>30</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>30</v>
@@ -9201,10 +9217,13 @@
         <v>30</v>
       </c>
       <c r="V10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>41</v>
       </c>
@@ -9254,23 +9273,24 @@
         <v>165</v>
       </c>
       <c r="Q11" s="20"/>
-      <c r="R11" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="R11" s="20"/>
       <c r="S11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>507</v>
       </c>
@@ -9320,9 +9340,7 @@
         <v>165</v>
       </c>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
         <v>30</v>
       </c>
@@ -9333,6 +9351,9 @@
         <v>30</v>
       </c>
       <c r="V12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB69DC-697B-43DB-A20F-503571F179C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07B1E4-D4A1-459A-87B6-E18F8F984ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -8519,8 +8519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8992,7 +8992,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>23</v>
@@ -9063,7 +9063,7 @@
         <v>165</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>23</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07B1E4-D4A1-459A-87B6-E18F8F984ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BE680-873A-4E7C-BF4A-7AA35C56D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="514">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1011,9 +1011,6 @@
     <t>DATA_CORRECTION_RECORD</t>
   </si>
   <si>
-    <t>AutoRFA ClericalWorker Ccosta</t>
-  </si>
-  <si>
     <t>BACKGROUND_CHECKS_TAB</t>
   </si>
   <si>
@@ -1594,6 +1591,27 @@
   </si>
   <si>
     <t>testT4149</t>
+  </si>
+  <si>
+    <t>VIEW_MORE</t>
+  </si>
+  <si>
+    <t>CL_TASK_NAME</t>
+  </si>
+  <si>
+    <t>TASK_ID</t>
+  </si>
+  <si>
+    <t>RELATED_TO</t>
+  </si>
+  <si>
+    <t>COMPLETE_DATE_TIME</t>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2655,7 @@
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2835,7 +2853,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3332,18 +3350,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3363,10 +3383,40 @@
         <v>238</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>511</v>
+      </c>
+      <c r="N1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -3380,13 +3430,43 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3415,25 +3495,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" t="s">
         <v>315</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>316</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>317</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>318</v>
-      </c>
-      <c r="J1" t="s">
-        <v>319</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3456,7 +3536,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
@@ -3465,10 +3545,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
@@ -3500,22 +3580,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" t="s">
         <v>324</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>325</v>
-      </c>
-      <c r="I1" t="s">
-        <v>326</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3579,22 +3659,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3681,43 +3761,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>171</v>
@@ -3729,22 +3809,22 @@
         <v>175</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3764,7 +3844,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>135</v>
@@ -3803,10 +3883,10 @@
         <v>23</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>351</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>23</v>
@@ -3815,7 +3895,7 @@
         <v>25</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>83</v>
@@ -3873,55 +3953,55 @@
         <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T1" t="s">
         <v>366</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>367</v>
-      </c>
-      <c r="U1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -3998,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5665,7 +5745,7 @@
     </row>
     <row r="16" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -5779,37 +5859,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" t="s">
         <v>370</v>
-      </c>
-      <c r="G1" t="s">
-        <v>371</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" t="s">
         <v>372</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>373</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>374</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>375</v>
-      </c>
-      <c r="N1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -5829,10 +5909,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" t="s">
         <v>377</v>
-      </c>
-      <c r="G2" t="s">
-        <v>378</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -5894,55 +5974,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" t="s">
         <v>380</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>381</v>
-      </c>
-      <c r="H1" t="s">
-        <v>382</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" t="s">
         <v>383</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>384</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>385</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>386</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>387</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>388</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>389</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>390</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>391</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>392</v>
-      </c>
-      <c r="T1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -5962,25 +6042,25 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" t="s">
         <v>394</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>395</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>396</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>397</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>398</v>
-      </c>
-      <c r="L2" t="s">
-        <v>399</v>
       </c>
       <c r="M2" t="s">
         <v>83</v>
@@ -6054,52 +6134,52 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>401</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>402</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>403</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>404</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>405</v>
-      </c>
-      <c r="J1" t="s">
-        <v>406</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M1" t="s">
         <v>407</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>408</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>409</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>410</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>412</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>413</v>
-      </c>
-      <c r="S1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -6128,16 +6208,16 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J2" t="s">
         <v>415</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>416</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>417</v>
       </c>
       <c r="M2" t="s">
         <v>83</v>
@@ -6196,19 +6276,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" t="s">
         <v>418</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>419</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>420</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>421</v>
-      </c>
-      <c r="H1" t="s">
-        <v>422</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -6231,13 +6311,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2" t="s">
         <v>423</v>
-      </c>
-      <c r="H2" t="s">
-        <v>424</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -6281,25 +6361,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>426</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>427</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>428</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>429</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>430</v>
-      </c>
-      <c r="J1" t="s">
-        <v>431</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -6322,13 +6402,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -6366,7 +6446,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6409,7 +6489,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6455,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6516,43 +6596,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>437</v>
-      </c>
-      <c r="F1" t="s">
-        <v>438</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" t="s">
         <v>439</v>
-      </c>
-      <c r="I1" t="s">
-        <v>440</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L1" t="s">
         <v>441</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>442</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>443</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>444</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>445</v>
-      </c>
-      <c r="P1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -6578,10 +6658,10 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" t="s">
         <v>447</v>
-      </c>
-      <c r="I2" t="s">
-        <v>448</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -6684,52 +6764,52 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" t="s">
         <v>449</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>450</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>451</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>452</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>453</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>454</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>455</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>456</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>457</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>458</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>459</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>460</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>461</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>462</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>463</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -6749,13 +6829,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" t="s">
         <v>465</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>466</v>
-      </c>
-      <c r="H2" t="s">
-        <v>467</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
@@ -6776,8 +6856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7042,7 +7122,7 @@
         <v>136</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>82</v>
@@ -7838,7 +7918,7 @@
     </row>
     <row r="11" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -7988,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>300</v>
@@ -7997,40 +8077,40 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>473</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="S1" s="1"/>
     </row>
@@ -8134,13 +8214,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>80</v>
@@ -8160,10 +8240,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -8199,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8242,19 +8322,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -8277,7 +8357,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -8319,46 +8399,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>128</v>
@@ -8381,7 +8461,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
@@ -8439,7 +8519,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8463,22 +8543,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" t="s">
         <v>502</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>503</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>504</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>505</v>
-      </c>
-      <c r="I1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8519,7 +8599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -9292,7 +9372,7 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BE680-873A-4E7C-BF4A-7AA35C56D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8852CB-CE0E-48BC-B571-D948F86615C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -3352,7 +3352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4078,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6856,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7122,7 +7124,7 @@
         <v>136</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>82</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8852CB-CE0E-48BC-B571-D948F86615C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E453C08-ED22-4D2A-B0AB-2BCD4552865C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -4081,7 +4081,7 @@
   <dimension ref="A1:AU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4414,7 +4414,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>90</v>
@@ -6858,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E453C08-ED22-4D2A-B0AB-2BCD4552865C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1F185-6606-43A1-951C-71231E57C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="514">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3350,22 +3350,22 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" customWidth="1"/>
+    <col min="4" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="24.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3378,47 +3378,50 @@
       <c r="D1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
         <v>312</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>509</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>238</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>510</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>511</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>235</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -3432,20 +3435,20 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="J2" s="5" t="s">
         <v>83</v>
       </c>
@@ -3468,6 +3471,9 @@
         <v>83</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4080,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4405,10 +4411,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -4417,7 +4423,7 @@
         <v>102</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>25</v>
@@ -4565,7 +4571,7 @@
         <v>92</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>25</v>
@@ -6858,7 +6864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -8601,8 +8607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1F185-6606-43A1-951C-71231E57C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7551353-928C-49FF-9357-73FD57F3F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>VIEWALL</t>
   </si>
   <si>
-    <t>REMOVAL_RECORD</t>
-  </si>
-  <si>
     <t>testPOM</t>
   </si>
   <si>
@@ -1612,6 +1609,9 @@
   </si>
   <si>
     <t>SOURCE</t>
+  </si>
+  <si>
+    <t>REMOVAL_ID</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2203,12 +2203,12 @@
         <v>20</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>21</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2217,184 +2217,184 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -2402,69 +2402,69 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="U6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2473,63 +2473,63 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
@@ -2538,60 +2538,60 @@
         <v>1</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="K8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="T8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
@@ -2600,62 +2600,62 @@
         <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="I9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="K9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="T9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2664,55 +2664,55 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2754,13 +2754,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2777,17 +2777,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -2796,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2816,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2836,24 +2836,24 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -2862,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2897,135 +2897,135 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3034,90 +3034,90 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="N3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="W3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3156,33 +3156,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -3191,33 +3191,33 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
@@ -3226,28 +3226,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3284,25 +3284,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>236</v>
-      </c>
       <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" t="s">
         <v>307</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" t="s">
-        <v>308</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3319,28 +3319,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3376,54 +3376,54 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" t="s">
-        <v>312</v>
-      </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>508</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" t="s">
         <v>509</v>
       </c>
-      <c r="K1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
         <v>510</v>
       </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="O1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" t="s">
         <v>512</v>
-      </c>
-      <c r="R1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3432,49 +3432,49 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3503,25 +3503,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>315</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>316</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>317</v>
-      </c>
-      <c r="J1" t="s">
-        <v>318</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3538,28 +3538,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3588,22 +3588,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
         <v>323</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>324</v>
-      </c>
-      <c r="I1" t="s">
-        <v>325</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3620,25 +3620,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3667,22 +3667,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -3699,25 +3699,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3769,75 +3769,75 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -3846,70 +3846,70 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>351</v>
-      </c>
       <c r="X2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3958,63 +3958,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T1" t="s">
         <v>365</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>366</v>
-      </c>
-      <c r="U1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4023,58 +4023,58 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +4086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -4128,52 +4128,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
       </c>
       <c r="U1" t="s">
         <v>16</v>
@@ -4182,84 +4182,84 @@
         <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AO1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AP1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AS1" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="AS1" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="AT1" s="22" t="s">
         <v>19</v>
       </c>
       <c r="AU1" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4268,124 +4268,124 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="M3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="Q3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="4" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4405,72 +4405,72 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="X4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -4479,72 +4479,72 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -4553,72 +4553,72 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="X6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -4627,87 +4627,87 @@
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="Z7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -4716,87 +4716,87 @@
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="S8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="Z8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
@@ -4805,102 +4805,102 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="Q9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="18">
         <v>1</v>
@@ -4924,137 +4924,137 @@
         <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="M10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AO10" s="18" t="s">
+      <c r="AP10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AP10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR10" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="AS10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
@@ -5063,137 +5063,137 @@
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AO11" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="AP11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
@@ -5202,137 +5202,137 @@
         <v>3</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="X12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN12" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR12" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="AS12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="18">
         <v>1</v>
@@ -5341,137 +5341,137 @@
         <v>4</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AO13" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="AP13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR13" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AS13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="18">
         <v>1</v>
@@ -5480,137 +5480,137 @@
         <v>5</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AO14" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="AP14" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR14" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="18">
         <v>1</v>
@@ -5619,141 +5619,141 @@
         <v>1</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="18" t="s">
+      <c r="M15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="X15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO15" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AO15" s="18" t="s">
+      <c r="AP15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR15" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AP15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR15" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="AS15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -5762,67 +5762,67 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="X16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5867,42 +5867,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" t="s">
         <v>369</v>
-      </c>
-      <c r="G1" t="s">
-        <v>370</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" t="s">
         <v>371</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>372</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>373</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>374</v>
-      </c>
-      <c r="N1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5911,28 +5911,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" t="s">
         <v>376</v>
       </c>
-      <c r="G2" t="s">
-        <v>377</v>
-      </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5982,60 +5982,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" t="s">
         <v>379</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>380</v>
-      </c>
-      <c r="H1" t="s">
-        <v>381</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" t="s">
         <v>382</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>383</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>384</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>385</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>386</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>387</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>388</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>389</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>390</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>391</v>
-      </c>
-      <c r="T1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6044,55 +6044,55 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" t="s">
         <v>393</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>394</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>395</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>396</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>397</v>
       </c>
-      <c r="L2" t="s">
-        <v>398</v>
-      </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6142,57 +6142,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" t="s">
         <v>399</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>400</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>401</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>402</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>403</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>404</v>
-      </c>
-      <c r="J1" t="s">
-        <v>405</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" t="s">
         <v>406</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>407</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>408</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>409</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>410</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>412</v>
-      </c>
-      <c r="S1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6201,52 +6201,52 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" t="s">
         <v>414</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>415</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>416</v>
-      </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6284,19 +6284,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
         <v>417</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>419</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>420</v>
-      </c>
-      <c r="H1" t="s">
-        <v>421</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6313,22 +6313,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" t="s">
         <v>422</v>
       </c>
-      <c r="H2" t="s">
-        <v>423</v>
-      </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6369,25 +6369,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>425</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>426</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>427</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>428</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>429</v>
-      </c>
-      <c r="J1" t="s">
-        <v>430</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6404,28 +6404,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6454,12 +6454,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6497,12 +6497,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6543,12 +6543,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6604,48 +6604,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>436</v>
-      </c>
-      <c r="F1" t="s">
-        <v>437</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" t="s">
         <v>438</v>
-      </c>
-      <c r="I1" t="s">
-        <v>439</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L1" t="s">
         <v>440</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>441</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>442</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>443</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>444</v>
-      </c>
-      <c r="P1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6654,43 +6654,43 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
-        <v>447</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6748,81 +6748,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>298</v>
       </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>299</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>300</v>
-      </c>
-      <c r="J1" t="s">
-        <v>301</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M1" t="s">
         <v>448</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>449</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>450</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>451</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>452</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>453</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>454</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>455</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>456</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>457</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>458</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>459</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>460</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>461</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>462</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6834,25 +6834,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" t="s">
         <v>464</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>465</v>
       </c>
-      <c r="H2" t="s">
-        <v>466</v>
-      </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6910,99 +6910,99 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>120</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>121</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>122</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>123</v>
-      </c>
-      <c r="V1" t="s">
-        <v>124</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>133</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -7011,28 +7011,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="5">
         <v>1234567890</v>
@@ -7044,66 +7044,66 @@
         <v>1234567890</v>
       </c>
       <c r="O2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -7112,28 +7112,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="5">
         <v>1234567890</v>
@@ -7145,66 +7145,66 @@
         <v>1234567890</v>
       </c>
       <c r="O3" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -7213,28 +7213,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="5">
         <v>1234567890</v>
@@ -7246,66 +7246,66 @@
         <v>1234567890</v>
       </c>
       <c r="O4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -7314,28 +7314,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5" s="10">
         <v>1234567890</v>
@@ -7344,64 +7344,64 @@
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -7420,28 +7420,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="13">
         <v>1234512345</v>
@@ -7450,64 +7450,64 @@
         <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -7526,28 +7526,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="J7" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="21">
         <v>1234512345</v>
@@ -7559,66 +7559,66 @@
         <v>1244512345</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T7" s="21">
         <v>97818</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="21">
         <v>1</v>
@@ -7627,28 +7627,28 @@
         <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="K8" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="21">
         <v>1234512345</v>
@@ -7660,66 +7660,66 @@
         <v>1236612345</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T8" s="21">
         <v>97818</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="21">
         <v>1</v>
@@ -7728,28 +7728,28 @@
         <v>3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="J9" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="21">
         <v>1234512345</v>
@@ -7761,66 +7761,66 @@
         <v>1266512345</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T9" s="21">
         <v>97818</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="21">
         <v>1</v>
@@ -7829,28 +7829,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="J10" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="21">
         <v>1234512345</v>
@@ -7862,61 +7862,61 @@
         <v>1244512345</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T10" s="21">
         <v>97818</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH10" s="21"/>
       <c r="AI10" s="21"/>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="11" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -7935,28 +7935,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="5">
         <v>1234567890</v>
@@ -7965,64 +7965,64 @@
         <v>4</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T11" s="5">
         <v>97818</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8076,55 +8076,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>472</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -8133,49 +8133,49 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" s="1"/>
     </row>
@@ -8222,21 +8222,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -8245,16 +8245,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8287,12 +8287,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8330,19 +8330,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8359,22 +8359,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8407,57 +8407,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8466,55 +8466,55 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8551,27 +8551,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" t="s">
         <v>501</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>503</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>504</v>
-      </c>
-      <c r="I1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8580,22 +8580,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8646,69 +8646,69 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>151</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>152</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>153</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>154</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>155</v>
-      </c>
-      <c r="N1" t="s">
-        <v>156</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T1" t="s">
         <v>158</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
         <v>159</v>
       </c>
-      <c r="U1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>160</v>
-      </c>
-      <c r="W1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -8717,54 +8717,54 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
@@ -8773,65 +8773,65 @@
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
@@ -8840,65 +8840,65 @@
         <v>1</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
@@ -8907,65 +8907,65 @@
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="18">
         <v>1</v>
@@ -8974,65 +8974,65 @@
         <v>3</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -9041,69 +9041,69 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="O7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -9112,69 +9112,69 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -9183,66 +9183,66 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -9251,69 +9251,69 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
@@ -9322,65 +9322,65 @@
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -9389,60 +9389,60 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="O12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -9475,34 +9475,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -9511,33 +9511,33 @@
         <v>20</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9546,36 +9546,36 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>190</v>
-      </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -9584,64 +9584,64 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
         <v>194</v>
       </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>195</v>
-      </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9650,64 +9650,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -9765,82 +9765,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -9849,22 +9849,22 @@
         <v>20</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9883,78 +9883,78 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9963,90 +9963,90 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="T3">
         <v>28570</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10055,85 +10055,85 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="T4">
         <v>28570</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10180,78 +10180,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" t="s">
         <v>233</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10260,54 +10260,54 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>244</v>
       </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>245</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>247</v>
-      </c>
-      <c r="R2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10316,58 +10316,58 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
         <v>244</v>
       </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>245</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>246</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>247</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>248</v>
       </c>
-      <c r="S3" t="s">
-        <v>249</v>
-      </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10415,12 +10415,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -10429,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10472,12 +10472,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7551353-928C-49FF-9357-73FD57F3F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97246CBC-3BA7-40BD-96A1-659100B7B9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="515">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1612,6 +1612,9 @@
   </si>
   <si>
     <t>REMOVAL_ID</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -6862,10 +6865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6884,22 +6887,22 @@
     <col min="14" max="14" width="27.54296875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="21.453125" customWidth="1"/>
-    <col min="17" max="20" width="31" customWidth="1"/>
-    <col min="21" max="22" width="21.453125" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" customWidth="1"/>
-    <col min="24" max="24" width="15.54296875" customWidth="1"/>
-    <col min="25" max="25" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.54296875" customWidth="1"/>
+    <col min="17" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="21.453125" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" customWidth="1"/>
+    <col min="26" max="26" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="42" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6958,49 +6961,52 @@
         <v>120</v>
       </c>
       <c r="T1" t="s">
+        <v>514</v>
+      </c>
+      <c r="U1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -7058,12 +7064,12 @@
       <c r="S2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U2" s="5">
         <v>97818</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>29</v>
@@ -7095,13 +7101,16 @@
         <v>29</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -7159,12 +7168,12 @@
       <c r="S3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U3" s="5">
         <v>97818</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="V3" s="5" t="s">
         <v>22</v>
       </c>
@@ -7172,7 +7181,7 @@
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>29</v>
@@ -7196,13 +7205,16 @@
         <v>29</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -7260,12 +7272,12 @@
       <c r="S4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U4" s="5">
         <v>97818</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="V4" s="5" t="s">
         <v>22</v>
       </c>
@@ -7273,7 +7285,7 @@
         <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>29</v>
@@ -7297,13 +7309,16 @@
         <v>29</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -7361,12 +7376,12 @@
       <c r="S5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U5" s="10">
         <v>97818</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="V5" s="10" t="s">
         <v>22</v>
       </c>
@@ -7374,12 +7389,12 @@
         <v>22</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AA5" s="10" t="s">
@@ -7398,18 +7413,21 @@
         <v>29</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH5" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
-    </row>
-    <row r="6" spans="1:38" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AM5" s="10"/>
+    </row>
+    <row r="6" spans="1:39" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
@@ -7467,12 +7485,12 @@
       <c r="S6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U6" s="13">
         <v>97818</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="V6" s="13" t="s">
         <v>22</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>22</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="13" t="s">
         <v>29</v>
@@ -7504,18 +7522,21 @@
         <v>29</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH6" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
-    </row>
-    <row r="7" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AM6" s="13"/>
+    </row>
+    <row r="7" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>39</v>
       </c>
@@ -7573,12 +7594,12 @@
       <c r="S7" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U7" s="21">
         <v>97818</v>
       </c>
-      <c r="U7" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="V7" s="21" t="s">
         <v>22</v>
       </c>
@@ -7586,7 +7607,7 @@
         <v>22</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="21" t="s">
         <v>29</v>
@@ -7610,13 +7631,16 @@
         <v>29</v>
       </c>
       <c r="AF7" s="21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG7" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
@@ -7674,12 +7698,12 @@
       <c r="S8" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U8" s="21">
         <v>97818</v>
       </c>
-      <c r="U8" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="V8" s="21" t="s">
         <v>22</v>
       </c>
@@ -7687,7 +7711,7 @@
         <v>22</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y8" s="21" t="s">
         <v>29</v>
@@ -7711,13 +7735,16 @@
         <v>29</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG8" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -7775,12 +7802,12 @@
       <c r="S9" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U9" s="21">
         <v>97818</v>
       </c>
-      <c r="U9" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="V9" s="21" t="s">
         <v>22</v>
       </c>
@@ -7788,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="21" t="s">
         <v>29</v>
@@ -7812,13 +7839,16 @@
         <v>29</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>40</v>
       </c>
@@ -7876,12 +7906,12 @@
       <c r="S10" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U10" s="21">
         <v>97818</v>
       </c>
-      <c r="U10" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="V10" s="21" t="s">
         <v>22</v>
       </c>
@@ -7889,7 +7919,7 @@
         <v>22</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="21" t="s">
         <v>29</v>
@@ -7913,18 +7943,21 @@
         <v>29</v>
       </c>
       <c r="AF10" s="21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH10" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="AH10" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="AI10" s="21"/>
       <c r="AJ10" s="21"/>
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
-    </row>
-    <row r="11" spans="1:38" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AM10" s="21"/>
+    </row>
+    <row r="11" spans="1:39" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>505</v>
       </c>
@@ -7982,12 +8015,12 @@
       <c r="S11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U11" s="5">
         <v>97818</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="V11" s="5" t="s">
         <v>22</v>
       </c>
@@ -7995,7 +8028,7 @@
         <v>22</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>29</v>
@@ -8019,9 +8052,12 @@
         <v>29</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH11" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97246CBC-3BA7-40BD-96A1-659100B7B9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56924C-1E51-479C-9CA3-AC3479C0928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="518">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1615,6 +1615,15 @@
   </si>
   <si>
     <t>COUNTY</t>
+  </si>
+  <si>
+    <t>DOES_COURT_APPROVE_STRTP_PLACEMENT</t>
+  </si>
+  <si>
+    <t>COURT_DESCISION_DATE</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME4</t>
   </si>
 </sst>
 </file>
@@ -4087,10 +4096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AU16"/>
+  <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4103,21 +4112,24 @@
     <col min="17" max="17" width="8.453125" customWidth="1"/>
     <col min="18" max="18" width="19.81640625" customWidth="1"/>
     <col min="19" max="20" width="16.81640625" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.54296875" customWidth="1"/>
-    <col min="25" max="25" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.90625" customWidth="1"/>
+    <col min="24" max="24" width="21.7265625" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" customWidth="1"/>
+    <col min="26" max="26" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.1796875" customWidth="1"/>
+    <col min="31" max="31" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4191,76 +4203,82 @@
         <v>58</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AN1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AO1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AP1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AS1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AT1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AU1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AV1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AU1" s="25" t="s">
+      <c r="AW1" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4319,7 +4337,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -4396,8 +4414,10 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-    </row>
-    <row r="4" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+    </row>
+    <row r="4" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -4545,7 +4565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -4571,7 +4591,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>82</v>
@@ -4619,7 +4639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -4692,23 +4712,23 @@
       <c r="X7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="Z7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="AB7" s="5" t="s">
         <v>93</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AD7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -4781,23 +4801,23 @@
       <c r="X8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="Z8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="AB8" s="5" t="s">
         <v>93</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AD8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -4866,15 +4886,11 @@
       <c r="X9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA9" s="13"/>
       <c r="AB9" s="13" t="s">
         <v>29</v>
       </c>
@@ -4882,10 +4898,10 @@
         <v>29</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="AF9" s="13" t="s">
         <v>82</v>
@@ -4905,8 +4921,12 @@
       <c r="AK9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
+      <c r="AL9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
@@ -4915,8 +4935,10 @@
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
       <c r="AU9" s="13"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
@@ -4985,15 +5007,11 @@
       <c r="X10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y10" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y10" s="18"/>
       <c r="Z10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="18" t="s">
         <v>29</v>
       </c>
@@ -5025,37 +5043,43 @@
         <v>29</v>
       </c>
       <c r="AL10" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM10" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AN10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AO10" s="18" t="s">
+      <c r="AQ10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AP10" s="18" t="s">
+      <c r="AR10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AQ10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR10" s="18" t="s">
+      <c r="AS10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AS10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AU10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
@@ -5124,15 +5148,11 @@
       <c r="X11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y11" s="18"/>
       <c r="Z11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA11" s="18"/>
       <c r="AB11" s="18" t="s">
         <v>29</v>
       </c>
@@ -5164,37 +5184,43 @@
         <v>29</v>
       </c>
       <c r="AL11" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM11" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AN11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AO11" s="18" t="s">
+      <c r="AQ11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AP11" s="18" t="s">
+      <c r="AR11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AQ11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR11" s="18" t="s">
+      <c r="AS11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AS11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AU11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>39</v>
       </c>
@@ -5263,15 +5289,11 @@
       <c r="X12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y12" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y12" s="18"/>
       <c r="Z12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA12" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="18" t="s">
         <v>29</v>
       </c>
@@ -5303,37 +5325,43 @@
         <v>29</v>
       </c>
       <c r="AL12" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM12" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AN12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AO12" s="18" t="s">
+      <c r="AQ12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AP12" s="18" t="s">
+      <c r="AR12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AQ12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR12" s="18" t="s">
+      <c r="AS12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AS12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AU12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>39</v>
       </c>
@@ -5402,15 +5430,11 @@
       <c r="X13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y13" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y13" s="18"/>
       <c r="Z13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="18" t="s">
         <v>29</v>
       </c>
@@ -5442,37 +5466,43 @@
         <v>29</v>
       </c>
       <c r="AL13" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM13" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AN13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AO13" s="18" t="s">
+      <c r="AQ13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AP13" s="18" t="s">
+      <c r="AR13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AQ13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR13" s="18" t="s">
+      <c r="AS13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AS13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AU13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
@@ -5541,15 +5571,11 @@
       <c r="X14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y14" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y14" s="18"/>
       <c r="Z14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA14" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA14" s="18"/>
       <c r="AB14" s="18" t="s">
         <v>29</v>
       </c>
@@ -5581,37 +5607,43 @@
         <v>29</v>
       </c>
       <c r="AL14" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM14" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AN14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AO14" s="18" t="s">
+      <c r="AQ14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AP14" s="18" t="s">
+      <c r="AR14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AQ14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR14" s="18" t="s">
+      <c r="AS14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT14" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AS14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AU14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
@@ -5684,15 +5716,11 @@
       <c r="X15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y15" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y15" s="18"/>
       <c r="Z15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA15" s="18"/>
       <c r="AB15" s="18" t="s">
         <v>29</v>
       </c>
@@ -5724,37 +5752,43 @@
         <v>29</v>
       </c>
       <c r="AL15" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM15" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AN15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP15" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AO15" s="18" t="s">
+      <c r="AQ15" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AP15" s="18" t="s">
+      <c r="AR15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AQ15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR15" s="18" t="s">
+      <c r="AS15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT15" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AS15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU15" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AU15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW15" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>505</v>
       </c>
@@ -5826,6 +5860,12 @@
       </c>
       <c r="X16" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6865,10 +6905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7318,327 +7358,327 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="10" t="s">
+    <row r="5" spans="1:39" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="10" t="s">
+      <c r="N5" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>138</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="5">
         <v>97818</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="10" t="s">
+      <c r="V5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-    </row>
-    <row r="6" spans="1:39" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="AA5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="13">
-        <v>1234512345</v>
-      </c>
-      <c r="M6" s="13">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+      <c r="L6" s="10">
+        <v>1234567890</v>
+      </c>
+      <c r="M6" s="10">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="R6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>138</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="10">
         <v>97818</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="21">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="V6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+    </row>
+    <row r="7" spans="1:39" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="21" t="s">
+      <c r="G7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="13">
         <v>1234512345</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="13">
         <v>10</v>
       </c>
-      <c r="N7" s="21">
-        <v>1244512345</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="21" t="s">
+      <c r="N7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="21" t="s">
+      <c r="R7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>138</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="13">
         <v>97818</v>
       </c>
-      <c r="V7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH7" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="V7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
     </row>
     <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
@@ -7648,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>22</v>
@@ -7669,7 +7709,7 @@
         <v>135</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>81</v>
@@ -7681,7 +7721,7 @@
         <v>10</v>
       </c>
       <c r="N8" s="21">
-        <v>1236612345</v>
+        <v>1244512345</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>144</v>
@@ -7752,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>22</v>
@@ -7773,7 +7813,7 @@
         <v>135</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>81</v>
@@ -7785,7 +7825,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="21">
-        <v>1266512345</v>
+        <v>1236612345</v>
       </c>
       <c r="O9" s="21" t="s">
         <v>144</v>
@@ -7848,15 +7888,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>40</v>
+    <row r="10" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="21">
         <v>1</v>
       </c>
       <c r="C10" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>22</v>
@@ -7877,7 +7917,7 @@
         <v>135</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>81</v>
@@ -7889,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="21">
-        <v>1244512345</v>
+        <v>1266512345</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>144</v>
@@ -7951,113 +7991,217 @@
       <c r="AH10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-    </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+      <c r="L11" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M11" s="21">
+        <v>10</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1244512345</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="5" t="s">
+      <c r="R11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>138</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="21">
         <v>97818</v>
       </c>
-      <c r="V11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH11" s="5" t="s">
+      <c r="V11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+    </row>
+    <row r="12" spans="1:39" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M12" s="5">
+        <v>4</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="U12" s="5">
+        <v>97818</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8066,9 +8210,10 @@
     <hyperlink ref="O2:O3" r:id="rId1" display="Test@gmail.com" xr:uid="{CF4786A1-8B13-41CC-A006-32F2FC1CDBB5}"/>
     <hyperlink ref="O2" r:id="rId2" xr:uid="{3E11CB9E-93B9-49ED-9E0D-35D9B0B75947}"/>
     <hyperlink ref="O3:O4" r:id="rId3" display="Test@gmail.com" xr:uid="{A8E0DAE8-1596-4168-B927-E16D1AC6AC53}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{6D0D39E7-E49D-4DE6-BBE8-5239CF6AD73C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -8643,7 +8788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56924C-1E51-479C-9CA3-AC3479C0928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA34B84F-FE06-4164-BBD5-746D8BA9F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="522">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -885,9 +885,6 @@
     <t>CONTACTSTATUS_VERIFY</t>
   </si>
   <si>
-    <t>CONTACTPURPOSE_VERIFY</t>
-  </si>
-  <si>
     <t>CONTACTSTARTDATE_VERIFY</t>
   </si>
   <si>
@@ -1624,6 +1621,21 @@
   </si>
   <si>
     <t>PLACEMENT_NAME4</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Initial Placement</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PARTICIPANT First Name</t>
+  </si>
+  <si>
+    <t>PARTICIPANT Last Name</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1812,6 +1824,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2215,7 +2228,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -2667,7 +2680,7 @@
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2865,7 +2878,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -2890,15 +2903,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" customWidth="1"/>
+    <col min="17" max="17" width="20.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2948,94 +2967,100 @@
         <v>262</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AT1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3048,11 +3073,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="AS2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3081,7 +3106,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>29</v>
@@ -3096,44 +3121,137 @@
         <v>29</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="Y3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3168,28 +3286,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3209,10 +3327,10 @@
         <v>22</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>302</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>303</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>94</v>
@@ -3221,7 +3339,7 @@
         <v>134</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>22</v>
@@ -3244,10 +3362,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>94</v>
@@ -3256,7 +3374,7 @@
         <v>134</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>22</v>
@@ -3308,13 +3426,13 @@
         <v>235</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I1" t="s">
         <v>237</v>
       </c>
       <c r="J1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3334,13 +3452,13 @@
         <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>245</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
@@ -3388,37 +3506,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G1" t="s">
         <v>237</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>507</v>
-      </c>
-      <c r="J1" t="s">
-        <v>508</v>
       </c>
       <c r="K1" t="s">
         <v>237</v>
       </c>
       <c r="L1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M1" t="s">
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O1" t="s">
         <v>234</v>
@@ -3427,10 +3545,10 @@
         <v>235</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="R1" t="s">
         <v>511</v>
-      </c>
-      <c r="R1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -3459,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>82</v>
@@ -3515,25 +3633,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" t="s">
         <v>313</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>314</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>315</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>316</v>
-      </c>
-      <c r="J1" t="s">
-        <v>317</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3556,7 +3674,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -3565,10 +3683,10 @@
         <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
@@ -3600,22 +3718,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" t="s">
         <v>322</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>323</v>
-      </c>
-      <c r="I1" t="s">
-        <v>324</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -3679,22 +3797,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3781,43 +3899,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>170</v>
@@ -3829,22 +3947,22 @@
         <v>174</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>175</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3864,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>134</v>
@@ -3903,10 +4021,10 @@
         <v>22</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>348</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>349</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>22</v>
@@ -3915,7 +4033,7 @@
         <v>24</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>82</v>
@@ -3973,55 +4091,55 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T1" t="s">
         <v>364</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>365</v>
-      </c>
-      <c r="U1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -4098,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4203,13 +4321,13 @@
         <v>58</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>60</v>
@@ -4591,10 +4709,10 @@
         <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>24</v>
@@ -5790,7 +5908,7 @@
     </row>
     <row r="16" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -5910,37 +6028,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" t="s">
         <v>368</v>
-      </c>
-      <c r="G1" t="s">
-        <v>369</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" t="s">
         <v>370</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>371</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>372</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>373</v>
-      </c>
-      <c r="N1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -5960,10 +6078,10 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" t="s">
         <v>375</v>
-      </c>
-      <c r="G2" t="s">
-        <v>376</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -6025,55 +6143,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
         <v>378</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>379</v>
-      </c>
-      <c r="H1" t="s">
-        <v>380</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" t="s">
         <v>381</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>382</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>383</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>384</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>385</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>386</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>387</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>388</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>389</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>390</v>
-      </c>
-      <c r="T1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -6093,25 +6211,25 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" t="s">
         <v>392</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>393</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>394</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>395</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>396</v>
-      </c>
-      <c r="L2" t="s">
-        <v>397</v>
       </c>
       <c r="M2" t="s">
         <v>82</v>
@@ -6185,52 +6303,52 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" t="s">
         <v>398</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>399</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>400</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>401</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>402</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>403</v>
-      </c>
-      <c r="J1" t="s">
-        <v>404</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M1" t="s">
         <v>405</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>406</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>407</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>408</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>409</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>410</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
-      </c>
-      <c r="S1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -6259,16 +6377,16 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" t="s">
         <v>413</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>414</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>415</v>
       </c>
       <c r="M2" t="s">
         <v>82</v>
@@ -6327,19 +6445,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" t="s">
         <v>416</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>417</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>418</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>419</v>
-      </c>
-      <c r="H1" t="s">
-        <v>420</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -6362,13 +6480,13 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H2" t="s">
         <v>421</v>
-      </c>
-      <c r="H2" t="s">
-        <v>422</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6412,25 +6530,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>424</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>425</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>426</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>427</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>428</v>
-      </c>
-      <c r="J1" t="s">
-        <v>429</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -6453,13 +6571,13 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -6497,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6540,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6586,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6647,43 +6765,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>435</v>
-      </c>
-      <c r="F1" t="s">
-        <v>436</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1" t="s">
         <v>437</v>
-      </c>
-      <c r="I1" t="s">
-        <v>438</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" t="s">
         <v>439</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>440</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>441</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>442</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>443</v>
-      </c>
-      <c r="P1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -6709,10 +6827,10 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" t="s">
         <v>445</v>
-      </c>
-      <c r="I2" t="s">
-        <v>446</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -6791,76 +6909,76 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G1" t="s">
         <v>78</v>
       </c>
       <c r="H1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" t="s">
         <v>298</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>299</v>
-      </c>
-      <c r="J1" t="s">
-        <v>300</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M1" t="s">
         <v>447</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>448</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>449</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>450</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>451</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>452</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>453</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>454</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>455</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>456</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>457</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>458</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>459</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>460</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>461</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -6880,19 +6998,19 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" t="s">
         <v>463</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>464</v>
-      </c>
-      <c r="H2" t="s">
-        <v>465</v>
       </c>
       <c r="I2" t="s">
         <v>134</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -7001,7 +7119,7 @@
         <v>120</v>
       </c>
       <c r="T1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U1" t="s">
         <v>121</v>
@@ -7105,7 +7223,7 @@
         <v>138</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U2" s="5">
         <v>97818</v>
@@ -7209,7 +7327,7 @@
         <v>138</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U3" s="5">
         <v>97818</v>
@@ -7313,7 +7431,7 @@
         <v>138</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U4" s="5">
         <v>97818</v>
@@ -7417,7 +7535,7 @@
         <v>138</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U5" s="5">
         <v>97818</v>
@@ -7521,7 +7639,7 @@
         <v>138</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U6" s="10">
         <v>97818</v>
@@ -7630,7 +7748,7 @@
         <v>138</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U7" s="13">
         <v>97818</v>
@@ -7739,7 +7857,7 @@
         <v>138</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U8" s="21">
         <v>97818</v>
@@ -7843,7 +7961,7 @@
         <v>138</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U9" s="21">
         <v>97818</v>
@@ -7947,7 +8065,7 @@
         <v>138</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U10" s="21">
         <v>97818</v>
@@ -8051,7 +8169,7 @@
         <v>138</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U11" s="21">
         <v>97818</v>
@@ -8103,7 +8221,7 @@
     </row>
     <row r="12" spans="1:39" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -8160,7 +8278,7 @@
         <v>138</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U12" s="5">
         <v>97818</v>
@@ -8257,49 +8375,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>471</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="S1" s="1"/>
     </row>
@@ -8403,13 +8521,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>79</v>
@@ -8429,10 +8547,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
@@ -8468,7 +8586,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8511,19 +8629,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -8546,7 +8664,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>24</v>
@@ -8588,46 +8706,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>127</v>
@@ -8650,7 +8768,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>29</v>
@@ -8708,7 +8826,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8732,22 +8850,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1" t="s">
         <v>500</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>501</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>502</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>503</v>
-      </c>
-      <c r="I1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9561,7 +9679,7 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA34B84F-FE06-4164-BBD5-746D8BA9F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD287D1-B139-4F66-84E3-BBCEE88A6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -2905,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3183,10 +3183,10 @@
         <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -4216,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10794,12 +10794,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11020,19 +11021,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11057,11 +11059,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD287D1-B139-4F66-84E3-BBCEE88A6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB7BB2-2DD9-4058-9280-B898B6A339EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB7BB2-2DD9-4058-9280-B898B6A339EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F622B2-74EF-4FC7-A2EB-9D38FEF9F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -1632,10 +1632,10 @@
     <t>a</t>
   </si>
   <si>
-    <t>PARTICIPANT First Name</t>
-  </si>
-  <si>
-    <t>PARTICIPANT Last Name</t>
+    <t>PARTICIPANT_FIRSTNAME</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_LASTNAME</t>
   </si>
 </sst>
 </file>
@@ -2905,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F622B2-74EF-4FC7-A2EB-9D38FEF9F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54763338-076B-444D-A951-CD73E0B87DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="4840" windowWidth="19200" windowHeight="5300" firstSheet="7" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="523">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1629,13 +1629,16 @@
     <t>Initial Placement</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>PARTICIPANT_FIRSTNAME</t>
   </si>
   <si>
     <t>PARTICIPANT_LASTNAME</t>
+  </si>
+  <si>
+    <t>STAFF_PERSON</t>
+  </si>
+  <si>
+    <t>OTHER_STAFF_PRESENT</t>
   </si>
 </sst>
 </file>
@@ -2903,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2914,10 +2917,11 @@
     <col min="10" max="10" width="12.6328125" customWidth="1"/>
     <col min="16" max="16" width="16.90625" customWidth="1"/>
     <col min="17" max="17" width="20.7265625" customWidth="1"/>
-    <col min="18" max="18" width="12.90625" customWidth="1"/>
+    <col min="18" max="19" width="12.90625" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,100 +2971,103 @@
         <v>262</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>519</v>
-      </c>
       <c r="AC1" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3073,11 +3080,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AV2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3132,12 +3139,12 @@
       <c r="R3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="U3" s="10" t="s">
         <v>29</v>
       </c>
@@ -3148,22 +3155,28 @@
         <v>29</v>
       </c>
       <c r="X3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="Z3" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AU3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -3218,12 +3231,12 @@
       <c r="R4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="U4" s="5" t="s">
         <v>29</v>
       </c>
@@ -3234,18 +3247,24 @@
         <v>29</v>
       </c>
       <c r="X4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Y4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="Z4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV4" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54763338-076B-444D-A951-CD73E0B87DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B954919-CE72-4E5C-B0FE-414F52462EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="4840" windowWidth="19200" windowHeight="5300" firstSheet="7" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="525">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1639,6 +1639,12 @@
   </si>
   <si>
     <t>OTHER_STAFF_PRESENT</t>
+  </si>
+  <si>
+    <t>CONTACTPURPOSE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTID_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -2906,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2918,10 +2924,10 @@
     <col min="16" max="16" width="16.90625" customWidth="1"/>
     <col min="17" max="17" width="20.7265625" customWidth="1"/>
     <col min="18" max="19" width="12.90625" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" customWidth="1"/>
+    <col min="29" max="30" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3004,70 +3010,76 @@
         <v>269</v>
       </c>
       <c r="AB1" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3080,11 +3092,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="AX2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3166,17 +3178,19 @@
       <c r="AA3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="AB3" s="10"/>
       <c r="AC3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AV3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -3258,13 +3272,70 @@
       <c r="AA4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="AC4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AV4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8705,7 +8776,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B954919-CE72-4E5C-B0FE-414F52462EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F1FD96-869C-4C51-AC76-8B2EC3CA1B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="33" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="526">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1645,6 +1645,9 @@
   </si>
   <si>
     <t>CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>FOSTER_FAMILY</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2914,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8773,19 +8776,19 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="50.81640625" customWidth="1"/>
-    <col min="20" max="20" width="26.26953125" customWidth="1"/>
+    <col min="5" max="6" width="50.81640625" customWidth="1"/>
+    <col min="21" max="21" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8802,49 +8805,52 @@
         <v>487</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -8860,8 +8866,8 @@
       <c r="E2" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
+      <c r="F2" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>29</v>
@@ -8879,7 +8885,7 @@
         <v>29</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>82</v>
@@ -8903,6 +8909,9 @@
         <v>82</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId